--- a/linux-2.6.32.27_compressed.xlsx
+++ b/linux-2.6.32.27_compressed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
@@ -10,15 +10,16 @@
     <sheet name="表纸" sheetId="4" r:id="rId1"/>
     <sheet name="目录" sheetId="5" r:id="rId2"/>
     <sheet name="start分析" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="cache_on分析" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="resource" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>结束日期：</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -321,12 +322,163 @@
     <t>0地址处执行则需要运行下面的重定位处理，否则跳转到not_relocated处执行。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>（1）对bss节清零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2中存放的是bss的起始地址，r3总存放的是bss节的结束地址，上面代码对bss进行清零。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2）cache_on处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3）备份sp的值到r1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4）r2 = sp + 64K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行完上面操作后，寄存器中存放的值如下所示：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是LC0符号的链接地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是 _image_size = (_etext - _text) * 4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_got_start</t>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_got_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reloc_end:vmlinux代码段的结束，后面就是堆栈段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reloc_start:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache_on分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在C语言运行环境准备好之前会执行cache_on函数，用于打开CPU cache功能。打开cache功能之前需要先设置页表（需要使用D-Cache）,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是LC0符号的运行时地址与LC0链接地址的差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是__bss_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是_end，即bss段的结束地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是zreladdr，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于zreladdr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zreladdr在 arch/arm/boot/compressed/Makefile 中定义：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LDFLAGS_vmlinux := --defsym </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zreladdr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=$(ZRELADDR)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZRELADDR在 arch/arm/boot/Makefile 中定义，并进行了export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zreladdr-y 在 arch/arm/mach-s3c2410/Makefile.boot:1:   zreladdr-y     := 0x30008000 中定义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +548,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -567,7 +734,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,20 +757,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,20 +794,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -649,6 +817,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -792,194 +968,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形标注 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10134600" y="2609850"/>
-          <a:ext cx="1362075" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -204387"/>
-            <a:gd name="adj2" fmla="val -4167"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="15875">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>程序应该从</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>_start</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>符号开始执行</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矩形标注 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12030075" y="7972425"/>
-          <a:ext cx="1362075" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -204387"/>
-            <a:gd name="adj2" fmla="val -4167"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="15875">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>程序应该从</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>_start</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>符号开始执行</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1135,128 +1123,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11658600" y="10372725"/>
-          <a:ext cx="361949" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13030200" y="10010775"/>
-          <a:ext cx="1647825" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="15875">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1718,13 +1584,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1759,6 +1625,500 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103819</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>142518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="47110650"/>
+          <a:ext cx="7647619" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="47272575"/>
+          <a:ext cx="2047875" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>332733</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>142835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="39147750"/>
+          <a:ext cx="5133333" cy="323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>618276</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="514350"/>
+          <a:ext cx="6790476" cy="3561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形标注 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="1171575"/>
+          <a:ext cx="1362075" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -204387"/>
+            <a:gd name="adj2" fmla="val -4167"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>程序应该从</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>_start</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>符号开始执行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形标注 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="5553075"/>
+          <a:ext cx="1362075" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -204387"/>
+            <a:gd name="adj2" fmla="val -4167"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>程序应该从</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>_start</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>符号开始执行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="7934325"/>
+          <a:ext cx="361949" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="7572375"/>
+          <a:ext cx="1647825" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2074,12 +2434,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
@@ -2087,71 +2447,71 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:13" ht="15" thickBot="1"/>
-    <row r="4" spans="4:13" ht="15" thickTop="1">
-      <c r="D4" s="19" t="s">
+    <row r="3" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="4:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="5" spans="4:13">
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-    </row>
-    <row r="6" spans="4:13">
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="4:13">
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8" spans="4:13" ht="15" thickBot="1">
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
-    </row>
-    <row r="9" spans="4:13" ht="15" thickTop="1"/>
-    <row r="12" spans="4:13">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
+    </row>
+    <row r="8" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="4:13" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2159,7 +2519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:13">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2167,12 +2527,12 @@
         <v>42700</v>
       </c>
     </row>
-    <row r="16" spans="4:13">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:13">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2180,197 +2540,221 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="4:13">
-      <c r="G22" s="28" t="s">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="G22" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="28" t="s">
+      <c r="H22" s="16"/>
+      <c r="I22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="4:13">
-      <c r="G23" s="28" t="s">
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="G23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="28" t="s">
+      <c r="H23" s="16"/>
+      <c r="I23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="4:13">
-      <c r="G24" s="28" t="s">
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="G24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="28" t="s">
+      <c r="H24" s="16"/>
+      <c r="I24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="27" spans="4:13">
+      <c r="J24" s="16"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="4:13">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12" t="s">
+      <c r="F28" s="27"/>
+      <c r="G28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="4:13">
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="29">
         <v>42700</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
-    </row>
-    <row r="30" spans="4:13">
+      <c r="F29" s="27"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="32"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D30" s="4"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="16"/>
-    </row>
-    <row r="31" spans="4:13">
+      <c r="E30" s="29"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D31" s="3"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="16"/>
-    </row>
-    <row r="32" spans="4:13">
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="32"/>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D32" s="3"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
-    </row>
-    <row r="33" spans="4:13">
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="32"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D33" s="3"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
-    </row>
-    <row r="34" spans="4:13">
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D34" s="3"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35" spans="4:13">
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D35" s="3"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
-    </row>
-    <row r="36" spans="4:13">
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="32"/>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D36" s="3"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="16"/>
-    </row>
-    <row r="37" spans="4:13">
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="32"/>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D37" s="3"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="16"/>
-    </row>
-    <row r="38" spans="4:13">
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="32"/>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D38" s="3"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
-    </row>
-    <row r="39" spans="4:13">
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="32"/>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D39" s="3"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="16"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:M35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:M30"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="D4:M8"/>
@@ -2378,30 +2762,6 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:M28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:M29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:M32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:M34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:M35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:M39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2410,40 +2770,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
@@ -2462,16 +2822,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O610"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="C258" sqref="C258"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="L220" sqref="L220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
@@ -2479,784 +2839,915 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="30" customFormat="1" ht="14.25"/>
-    <row r="3" spans="1:15" s="30" customFormat="1" ht="14.25">
-      <c r="B3" s="30" t="s">
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="30" customFormat="1" ht="14.25">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="30" customFormat="1" ht="14.25">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="30" customFormat="1" ht="14.25"/>
-    <row r="7" spans="1:15" s="30" customFormat="1" ht="14.25"/>
-    <row r="8" spans="1:15" s="30" customFormat="1" ht="14.25"/>
-    <row r="9" spans="1:15" s="30" customFormat="1" ht="14.25"/>
-    <row r="10" spans="1:15" s="30" customFormat="1" ht="14.25"/>
-    <row r="11" spans="1:15" s="30" customFormat="1" ht="14.25"/>
-    <row r="12" spans="1:15" s="30" customFormat="1" ht="14.25"/>
-    <row r="13" spans="1:15" s="30" customFormat="1" ht="14.25"/>
-    <row r="14" spans="1:15" s="30" customFormat="1" ht="14.25"/>
-    <row r="15" spans="1:15" s="30" customFormat="1" ht="14.25"/>
-    <row r="16" spans="1:15" s="30" customFormat="1" ht="14.25"/>
-    <row r="17" s="30" customFormat="1" ht="14.25"/>
-    <row r="18" s="30" customFormat="1" ht="14.25"/>
-    <row r="19" s="30" customFormat="1" ht="14.25"/>
-    <row r="20" s="30" customFormat="1" ht="14.25"/>
-    <row r="21" s="30" customFormat="1" ht="14.25"/>
-    <row r="22" s="30" customFormat="1" ht="14.25"/>
-    <row r="23" s="30" customFormat="1" ht="14.25"/>
-    <row r="24" s="30" customFormat="1" ht="14.25"/>
-    <row r="25" s="30" customFormat="1" ht="14.25"/>
-    <row r="26" s="30" customFormat="1" ht="14.25"/>
-    <row r="27" s="30" customFormat="1" ht="14.25"/>
-    <row r="28" s="30" customFormat="1" ht="14.25"/>
-    <row r="29" s="30" customFormat="1" ht="14.25"/>
-    <row r="30" s="30" customFormat="1" ht="14.25"/>
-    <row r="31" s="30" customFormat="1" ht="14.25"/>
-    <row r="32" s="30" customFormat="1" ht="14.25"/>
-    <row r="33" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="34" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="35" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="36" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="37" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="38" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="39" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="40" spans="2:2" s="30" customFormat="1" ht="14.25">
-      <c r="B40" s="30" t="s">
+    <row r="6" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="17" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="18" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="19" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="20" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="21" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="23" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="24" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="26" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="27" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="28" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="29" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="30" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="31" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="32" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B40" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:2" s="30" customFormat="1" ht="14.25">
-      <c r="B41" s="30" t="s">
+    <row r="41" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B41" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="43" spans="2:2" s="30" customFormat="1" ht="14.25">
-      <c r="B43" s="30" t="s">
+    <row r="42" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B43" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="45" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="46" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="47" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="48" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="49" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="50" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="51" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="52" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="53" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="54" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="55" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="56" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="57" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="58" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="59" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="60" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="61" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="62" spans="2:5" s="30" customFormat="1" ht="14.25"/>
-    <row r="63" spans="2:5" s="30" customFormat="1" ht="14.25">
-      <c r="B63" s="30" t="s">
+    <row r="44" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B63" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="2:5" s="30" customFormat="1" ht="14.25">
-      <c r="C64" s="30" t="s">
+    <row r="64" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C64" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="2:11" s="30" customFormat="1" ht="14.25">
-      <c r="C65" s="30" t="s">
+    <row r="65" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C65" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="2:11" s="30" customFormat="1" ht="14.25"/>
-    <row r="67" spans="2:11" s="30" customFormat="1" ht="14.25">
-      <c r="C67" s="30" t="s">
+    <row r="66" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C67" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="2:11" s="30" customFormat="1" ht="14.25">
-      <c r="D68" s="32" t="s">
+    <row r="68" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D68" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:11" s="30" customFormat="1" ht="14.25"/>
-    <row r="70" spans="2:11" s="30" customFormat="1" ht="14.25">
-      <c r="B70" s="30" t="s">
+    <row r="69" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B70" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K70" s="31"/>
-    </row>
-    <row r="71" spans="2:11" s="30" customFormat="1" ht="14.25">
-      <c r="C71" s="30" t="s">
+      <c r="K70" s="13"/>
+    </row>
+    <row r="71" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C71" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F71" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="2:11" s="30" customFormat="1" ht="14.25"/>
-    <row r="73" spans="2:11" s="30" customFormat="1" ht="14.25">
-      <c r="B73" s="30" t="s">
+    <row r="72" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B73" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="2:11" s="30" customFormat="1" ht="14.25">
-      <c r="C74" s="30" t="s">
+    <row r="74" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C74" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="2:11" s="30" customFormat="1" ht="14.25"/>
-    <row r="76" spans="2:11" s="30" customFormat="1" ht="14.25">
-      <c r="B76" s="30" t="s">
+    <row r="75" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B76" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="2:11" s="30" customFormat="1" ht="14.25"/>
-    <row r="78" spans="2:11" s="30" customFormat="1" ht="14.25">
-      <c r="B78" s="30" t="s">
+    <row r="77" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B78" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="2:11" s="30" customFormat="1" ht="14.25"/>
-    <row r="80" spans="2:11" s="30" customFormat="1" ht="14.25">
-      <c r="B80" s="30" t="s">
+    <row r="79" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B80" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="2:2" s="30" customFormat="1" ht="14.25">
-      <c r="B81" s="30" t="s">
+    <row r="81" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B81" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="83" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="84" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="85" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="86" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="87" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="88" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="89" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="90" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="91" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="92" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="93" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="94" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="95" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="96" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="97" s="30" customFormat="1" ht="14.25"/>
-    <row r="98" s="30" customFormat="1" ht="14.25"/>
-    <row r="99" s="30" customFormat="1" ht="14.25"/>
-    <row r="100" s="30" customFormat="1" ht="14.25"/>
-    <row r="101" s="30" customFormat="1" ht="14.25"/>
-    <row r="102" s="30" customFormat="1" ht="14.25"/>
-    <row r="103" s="30" customFormat="1" ht="14.25"/>
-    <row r="104" s="30" customFormat="1" ht="14.25"/>
-    <row r="105" s="30" customFormat="1" ht="14.25"/>
-    <row r="106" s="30" customFormat="1" ht="14.25"/>
-    <row r="107" s="30" customFormat="1" ht="14.25"/>
-    <row r="108" s="30" customFormat="1" ht="14.25"/>
-    <row r="109" s="30" customFormat="1" ht="14.25"/>
-    <row r="110" s="30" customFormat="1" ht="14.25"/>
-    <row r="111" s="30" customFormat="1" ht="14.25"/>
-    <row r="112" s="30" customFormat="1" ht="14.25"/>
-    <row r="113" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="114" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="115" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="116" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="117" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="118" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="119" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="120" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="121" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="122" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="123" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="124" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="125" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="126" spans="2:2" s="30" customFormat="1" ht="14.25">
-      <c r="B126" s="30" t="s">
+    <row r="82" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="97" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="98" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="99" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="100" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="101" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="102" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="103" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="104" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="105" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="106" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="107" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="108" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="109" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="110" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="111" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="112" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="113" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="114" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="115" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B126" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="2:2" s="30" customFormat="1" ht="14.25">
-      <c r="B127" s="30" t="s">
+    <row r="127" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B127" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="129" spans="2:3" s="30" customFormat="1" ht="14.25">
-      <c r="B129" s="30" t="s">
+    <row r="128" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="129" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B129" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="2:3" s="30" customFormat="1" ht="14.25">
-      <c r="B130" s="30" t="s">
+    <row r="130" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B130" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="132" spans="2:3" s="30" customFormat="1" ht="14.25">
-      <c r="B132" s="30" t="s">
+    <row r="131" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="132" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B132" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C132" s="30" t="s">
+      <c r="C132" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="2:3" s="30" customFormat="1" ht="14.25">
-      <c r="C133" s="30" t="s">
+    <row r="133" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C133" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="135" spans="2:3" s="30" customFormat="1" ht="14.25">
-      <c r="C135" s="30" t="s">
+    <row r="134" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="135" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C135" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="137" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="138" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="139" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="140" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="141" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="142" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="143" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="144" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="145" s="30" customFormat="1" ht="14.25"/>
-    <row r="146" s="30" customFormat="1" ht="14.25"/>
-    <row r="147" s="30" customFormat="1" ht="14.25"/>
-    <row r="148" s="30" customFormat="1" ht="14.25"/>
-    <row r="149" s="30" customFormat="1" ht="14.25"/>
-    <row r="150" s="30" customFormat="1" ht="14.25"/>
-    <row r="151" s="30" customFormat="1" ht="14.25"/>
-    <row r="152" s="30" customFormat="1" ht="14.25"/>
-    <row r="153" s="30" customFormat="1" ht="14.25"/>
-    <row r="154" s="30" customFormat="1" ht="14.25"/>
-    <row r="155" s="30" customFormat="1" ht="14.25"/>
-    <row r="156" s="30" customFormat="1" ht="14.25"/>
-    <row r="157" s="30" customFormat="1" ht="14.25"/>
-    <row r="158" s="30" customFormat="1" ht="14.25"/>
-    <row r="159" s="30" customFormat="1" ht="14.25"/>
-    <row r="160" s="30" customFormat="1" ht="14.25"/>
-    <row r="161" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="162" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="163" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="164" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="165" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="166" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="167" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="168" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="169" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="170" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="171" spans="2:2" s="30" customFormat="1" ht="14.25">
-      <c r="B171" s="30" t="s">
+    <row r="136" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="137" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="138" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="139" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="141" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="145" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="146" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="147" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="148" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="149" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="150" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="151" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="152" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="153" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="154" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="155" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="156" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="157" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="158" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="159" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="160" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="161" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="162" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="163" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="164" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="165" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="166" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="168" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="170" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B171" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="173" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="174" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="175" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="176" spans="2:2" s="30" customFormat="1" ht="14.25"/>
-    <row r="177" spans="2:4" s="30" customFormat="1" ht="14.25"/>
-    <row r="178" spans="2:4" s="30" customFormat="1" ht="14.25"/>
-    <row r="179" spans="2:4" s="30" customFormat="1" ht="14.25"/>
-    <row r="180" spans="2:4" s="30" customFormat="1" ht="14.25"/>
-    <row r="181" spans="2:4" s="30" customFormat="1" ht="14.25"/>
-    <row r="182" spans="2:4" s="30" customFormat="1" ht="14.25"/>
-    <row r="183" spans="2:4" s="30" customFormat="1" ht="14.25">
-      <c r="B183" s="30" t="s">
+    <row r="172" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="173" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="177" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="178" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="179" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="180" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="181" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="182" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="183" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B183" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="2:4" s="30" customFormat="1" ht="14.25">
-      <c r="C184" s="30" t="s">
+    <row r="184" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C184" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="185" spans="2:4" s="30" customFormat="1" ht="14.25"/>
-    <row r="186" spans="2:4" s="30" customFormat="1" ht="14.25">
-      <c r="C186" s="30" t="s">
+    <row r="185" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="186" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C186" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="2:4" s="30" customFormat="1" ht="14.25">
-      <c r="D187" s="30" t="s">
+    <row r="187" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D187" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="188" spans="2:4" s="30" customFormat="1" ht="14.25"/>
-    <row r="189" spans="2:4" s="30" customFormat="1" ht="14.25">
-      <c r="B189" s="30" t="s">
+    <row r="188" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="189" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B189" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="2:4" s="30" customFormat="1" ht="14.25">
-      <c r="C190" s="30" t="s">
+    <row r="190" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C190" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="2:4" s="30" customFormat="1" ht="14.25">
-      <c r="C191" s="30" t="s">
+    <row r="191" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C191" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="2:4" s="30" customFormat="1" ht="14.25"/>
-    <row r="193" spans="2:3" s="30" customFormat="1" ht="14.25">
-      <c r="C193" s="30" t="s">
+    <row r="192" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="193" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C193" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="195" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="196" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="197" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="198" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="199" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="200" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="201" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="202" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="203" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="204" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="205" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="206" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="207" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="208" spans="2:3" s="30" customFormat="1" ht="14.25">
-      <c r="B208" s="30" t="s">
+    <row r="194" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="195" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="196" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="197" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="198" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="199" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="200" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="201" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="202" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="203" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="204" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="205" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="206" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="207" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="208" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B208" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="209" spans="2:3" s="30" customFormat="1" ht="14.25">
-      <c r="C209" s="30" t="s">
+    <row r="209" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C209" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="210" spans="2:3" s="30" customFormat="1" ht="14.25">
-      <c r="C210" s="30" t="s">
+    <row r="210" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C210" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="211" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="212" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="213" spans="2:3" s="30" customFormat="1" ht="14.25">
-      <c r="B213" s="30" t="s">
+    <row r="211" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="212" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="213" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B213" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L213" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C214" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L214" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C215" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D215" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L215" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C216" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D216" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L216" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C217" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C218" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C219" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L219" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C220" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C221" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C222" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="224" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C224" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C225" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="227" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="228" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="229" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="230" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="231" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="232" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="233" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="234" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="235" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="236" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B236" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="214" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="215" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="216" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="217" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="218" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="219" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="220" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="221" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="222" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="223" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="224" spans="2:3" s="30" customFormat="1" ht="14.25"/>
-    <row r="225" s="30" customFormat="1" ht="14.25"/>
-    <row r="226" s="30" customFormat="1" ht="14.25"/>
-    <row r="227" s="30" customFormat="1" ht="14.25"/>
-    <row r="228" s="30" customFormat="1" ht="14.25"/>
-    <row r="229" s="30" customFormat="1" ht="14.25"/>
-    <row r="230" s="30" customFormat="1" ht="14.25"/>
-    <row r="231" s="30" customFormat="1" ht="14.25"/>
-    <row r="232" s="30" customFormat="1" ht="14.25"/>
-    <row r="233" s="30" customFormat="1" ht="14.25"/>
-    <row r="234" s="30" customFormat="1" ht="14.25"/>
-    <row r="235" s="30" customFormat="1" ht="14.25"/>
-    <row r="236" s="30" customFormat="1" ht="14.25"/>
-    <row r="237" s="30" customFormat="1" ht="14.25"/>
-    <row r="238" s="30" customFormat="1" ht="14.25"/>
-    <row r="239" s="30" customFormat="1" ht="14.25"/>
-    <row r="240" s="30" customFormat="1" ht="14.25"/>
-    <row r="241" s="30" customFormat="1" ht="14.25"/>
-    <row r="242" s="30" customFormat="1" ht="14.25"/>
-    <row r="243" s="30" customFormat="1" ht="14.25"/>
-    <row r="244" s="30" customFormat="1" ht="14.25"/>
-    <row r="245" s="30" customFormat="1" ht="14.25"/>
-    <row r="246" s="30" customFormat="1" ht="14.25"/>
-    <row r="247" s="30" customFormat="1" ht="14.25"/>
-    <row r="248" s="30" customFormat="1" ht="14.25"/>
-    <row r="249" s="30" customFormat="1" ht="14.25"/>
-    <row r="250" s="30" customFormat="1" ht="14.25"/>
-    <row r="251" s="30" customFormat="1" ht="14.25"/>
-    <row r="252" s="30" customFormat="1" ht="14.25"/>
-    <row r="253" s="30" customFormat="1" ht="14.25"/>
-    <row r="254" s="30" customFormat="1" ht="14.25"/>
-    <row r="255" s="30" customFormat="1" ht="14.25"/>
-    <row r="256" s="30" customFormat="1" ht="14.25"/>
-    <row r="257" s="30" customFormat="1" ht="14.25"/>
-    <row r="258" s="30" customFormat="1" ht="14.25"/>
-    <row r="259" s="30" customFormat="1" ht="14.25"/>
-    <row r="260" s="30" customFormat="1" ht="14.25"/>
-    <row r="261" s="30" customFormat="1" ht="14.25"/>
-    <row r="262" s="30" customFormat="1" ht="14.25"/>
-    <row r="263" s="30" customFormat="1" ht="14.25"/>
-    <row r="264" s="30" customFormat="1" ht="14.25"/>
-    <row r="265" s="30" customFormat="1" ht="14.25"/>
-    <row r="266" s="30" customFormat="1" ht="14.25"/>
-    <row r="267" s="30" customFormat="1" ht="14.25"/>
-    <row r="268" s="30" customFormat="1" ht="14.25"/>
-    <row r="269" s="30" customFormat="1" ht="14.25"/>
-    <row r="270" s="30" customFormat="1" ht="14.25"/>
-    <row r="271" s="30" customFormat="1" ht="14.25"/>
-    <row r="272" s="30" customFormat="1" ht="14.25"/>
-    <row r="273" s="30" customFormat="1" ht="14.25"/>
-    <row r="274" s="30" customFormat="1" ht="14.25"/>
-    <row r="275" s="30" customFormat="1" ht="14.25"/>
-    <row r="276" s="30" customFormat="1" ht="14.25"/>
-    <row r="277" s="30" customFormat="1" ht="14.25"/>
-    <row r="278" s="30" customFormat="1" ht="14.25"/>
-    <row r="279" s="30" customFormat="1" ht="14.25"/>
-    <row r="280" s="30" customFormat="1" ht="14.25"/>
-    <row r="281" s="30" customFormat="1" ht="14.25"/>
-    <row r="282" s="30" customFormat="1" ht="14.25"/>
-    <row r="283" s="30" customFormat="1" ht="14.25"/>
-    <row r="284" s="30" customFormat="1" ht="14.25"/>
-    <row r="285" s="30" customFormat="1" ht="14.25"/>
-    <row r="286" s="30" customFormat="1" ht="14.25"/>
-    <row r="287" s="30" customFormat="1" ht="14.25"/>
-    <row r="288" s="30" customFormat="1" ht="14.25"/>
-    <row r="289" s="30" customFormat="1" ht="14.25"/>
-    <row r="290" s="30" customFormat="1" ht="14.25"/>
-    <row r="291" s="30" customFormat="1" ht="14.25"/>
-    <row r="292" s="30" customFormat="1" ht="14.25"/>
-    <row r="293" s="30" customFormat="1" ht="14.25"/>
-    <row r="294" s="30" customFormat="1" ht="14.25"/>
-    <row r="295" s="30" customFormat="1" ht="14.25"/>
-    <row r="296" s="30" customFormat="1" ht="14.25"/>
-    <row r="297" s="30" customFormat="1" ht="14.25"/>
-    <row r="298" s="30" customFormat="1" ht="14.25"/>
-    <row r="299" s="30" customFormat="1" ht="14.25"/>
-    <row r="300" s="30" customFormat="1" ht="14.25"/>
-    <row r="301" s="30" customFormat="1" ht="14.25"/>
-    <row r="302" s="30" customFormat="1" ht="14.25"/>
-    <row r="303" s="30" customFormat="1" ht="14.25"/>
-    <row r="304" s="30" customFormat="1" ht="14.25"/>
-    <row r="305" s="30" customFormat="1" ht="14.25"/>
-    <row r="306" s="30" customFormat="1" ht="14.25"/>
-    <row r="307" s="30" customFormat="1" ht="14.25"/>
-    <row r="308" s="30" customFormat="1" ht="14.25"/>
-    <row r="309" s="30" customFormat="1" ht="14.25"/>
-    <row r="310" s="30" customFormat="1" ht="14.25"/>
-    <row r="311" s="30" customFormat="1" ht="14.25"/>
-    <row r="312" s="30" customFormat="1" ht="14.25"/>
-    <row r="313" s="30" customFormat="1" ht="14.25"/>
-    <row r="314" s="30" customFormat="1" ht="14.25"/>
-    <row r="315" s="30" customFormat="1" ht="14.25"/>
-    <row r="316" s="30" customFormat="1" ht="14.25"/>
-    <row r="317" s="30" customFormat="1" ht="14.25"/>
-    <row r="318" s="30" customFormat="1" ht="14.25"/>
-    <row r="319" s="30" customFormat="1" ht="14.25"/>
-    <row r="320" s="30" customFormat="1" ht="14.25"/>
-    <row r="321" s="30" customFormat="1" ht="14.25"/>
-    <row r="322" s="30" customFormat="1" ht="14.25"/>
-    <row r="323" s="30" customFormat="1" ht="14.25"/>
-    <row r="324" s="30" customFormat="1" ht="14.25"/>
-    <row r="325" s="30" customFormat="1" ht="14.25"/>
-    <row r="326" s="30" customFormat="1" ht="14.25"/>
-    <row r="327" s="30" customFormat="1" ht="14.25"/>
-    <row r="328" s="30" customFormat="1" ht="14.25"/>
-    <row r="329" s="30" customFormat="1" ht="14.25"/>
-    <row r="330" s="30" customFormat="1" ht="14.25"/>
-    <row r="331" s="30" customFormat="1" ht="14.25"/>
-    <row r="332" s="30" customFormat="1" ht="14.25"/>
-    <row r="333" s="30" customFormat="1" ht="14.25"/>
-    <row r="334" s="30" customFormat="1" ht="14.25"/>
-    <row r="335" s="30" customFormat="1" ht="14.25"/>
-    <row r="336" s="30" customFormat="1" ht="14.25"/>
-    <row r="337" s="30" customFormat="1" ht="14.25"/>
-    <row r="338" s="30" customFormat="1" ht="14.25"/>
-    <row r="339" s="30" customFormat="1" ht="14.25"/>
-    <row r="340" s="30" customFormat="1" ht="14.25"/>
-    <row r="341" s="30" customFormat="1" ht="14.25"/>
-    <row r="342" s="30" customFormat="1" ht="14.25"/>
-    <row r="343" s="30" customFormat="1" ht="14.25"/>
-    <row r="344" s="30" customFormat="1" ht="14.25"/>
-    <row r="345" s="30" customFormat="1" ht="14.25"/>
-    <row r="346" s="30" customFormat="1" ht="14.25"/>
-    <row r="347" s="30" customFormat="1" ht="14.25"/>
-    <row r="348" s="30" customFormat="1" ht="14.25"/>
-    <row r="349" s="30" customFormat="1" ht="14.25"/>
-    <row r="350" s="30" customFormat="1" ht="14.25"/>
-    <row r="351" s="30" customFormat="1" ht="14.25"/>
-    <row r="352" s="30" customFormat="1" ht="14.25"/>
-    <row r="353" s="30" customFormat="1" ht="14.25"/>
-    <row r="354" s="30" customFormat="1" ht="14.25"/>
-    <row r="355" s="30" customFormat="1" ht="14.25"/>
-    <row r="356" s="30" customFormat="1" ht="14.25"/>
-    <row r="357" s="30" customFormat="1" ht="14.25"/>
-    <row r="358" s="30" customFormat="1" ht="14.25"/>
-    <row r="359" s="30" customFormat="1" ht="14.25"/>
-    <row r="360" s="30" customFormat="1" ht="14.25"/>
-    <row r="361" s="30" customFormat="1" ht="14.25"/>
-    <row r="362" s="30" customFormat="1" ht="14.25"/>
-    <row r="363" s="30" customFormat="1" ht="14.25"/>
-    <row r="364" s="30" customFormat="1" ht="14.25"/>
-    <row r="365" s="30" customFormat="1" ht="14.25"/>
-    <row r="366" s="30" customFormat="1" ht="14.25"/>
-    <row r="367" s="30" customFormat="1" ht="14.25"/>
-    <row r="368" s="30" customFormat="1" ht="14.25"/>
-    <row r="369" s="30" customFormat="1" ht="14.25"/>
-    <row r="370" s="30" customFormat="1" ht="14.25"/>
-    <row r="371" s="30" customFormat="1" ht="14.25"/>
-    <row r="372" s="30" customFormat="1" ht="14.25"/>
-    <row r="373" s="30" customFormat="1" ht="14.25"/>
-    <row r="374" s="30" customFormat="1" ht="14.25"/>
-    <row r="375" s="30" customFormat="1" ht="14.25"/>
-    <row r="376" s="30" customFormat="1" ht="14.25"/>
-    <row r="377" s="30" customFormat="1" ht="14.25"/>
-    <row r="378" s="30" customFormat="1" ht="14.25"/>
-    <row r="379" s="30" customFormat="1" ht="14.25"/>
-    <row r="380" s="30" customFormat="1" ht="14.25"/>
-    <row r="381" s="30" customFormat="1" ht="14.25"/>
-    <row r="382" s="30" customFormat="1" ht="14.25"/>
-    <row r="383" s="30" customFormat="1" ht="14.25"/>
-    <row r="384" s="30" customFormat="1" ht="14.25"/>
-    <row r="385" s="30" customFormat="1" ht="14.25"/>
-    <row r="386" s="30" customFormat="1" ht="14.25"/>
-    <row r="387" s="30" customFormat="1" ht="14.25"/>
-    <row r="388" s="30" customFormat="1" ht="14.25"/>
-    <row r="389" s="30" customFormat="1" ht="14.25"/>
-    <row r="390" s="30" customFormat="1" ht="14.25"/>
-    <row r="391" s="30" customFormat="1" ht="14.25"/>
-    <row r="392" s="30" customFormat="1" ht="14.25"/>
-    <row r="393" s="30" customFormat="1" ht="14.25"/>
-    <row r="394" s="30" customFormat="1" ht="14.25"/>
-    <row r="395" s="30" customFormat="1" ht="14.25"/>
-    <row r="396" s="30" customFormat="1" ht="14.25"/>
-    <row r="397" s="30" customFormat="1" ht="14.25"/>
-    <row r="398" s="30" customFormat="1" ht="14.25"/>
-    <row r="399" s="30" customFormat="1" ht="14.25"/>
-    <row r="400" s="30" customFormat="1" ht="14.25"/>
-    <row r="401" s="30" customFormat="1" ht="14.25"/>
-    <row r="402" s="30" customFormat="1" ht="14.25"/>
-    <row r="403" s="30" customFormat="1" ht="14.25"/>
-    <row r="404" s="30" customFormat="1" ht="14.25"/>
-    <row r="405" s="30" customFormat="1" ht="14.25"/>
-    <row r="406" s="30" customFormat="1" ht="14.25"/>
-    <row r="407" s="30" customFormat="1" ht="14.25"/>
-    <row r="408" s="30" customFormat="1" ht="14.25"/>
-    <row r="409" s="30" customFormat="1" ht="14.25"/>
-    <row r="410" s="30" customFormat="1" ht="14.25"/>
-    <row r="411" s="30" customFormat="1" ht="14.25"/>
-    <row r="412" s="30" customFormat="1" ht="14.25"/>
-    <row r="413" s="30" customFormat="1" ht="14.25"/>
-    <row r="414" s="30" customFormat="1" ht="14.25"/>
-    <row r="415" s="30" customFormat="1" ht="14.25"/>
-    <row r="416" s="30" customFormat="1" ht="14.25"/>
-    <row r="417" s="30" customFormat="1" ht="14.25"/>
-    <row r="418" s="30" customFormat="1" ht="14.25"/>
-    <row r="419" s="30" customFormat="1" ht="14.25"/>
-    <row r="420" s="30" customFormat="1" ht="14.25"/>
-    <row r="421" s="30" customFormat="1" ht="14.25"/>
-    <row r="422" s="30" customFormat="1" ht="14.25"/>
-    <row r="423" s="30" customFormat="1" ht="14.25"/>
-    <row r="424" s="30" customFormat="1" ht="14.25"/>
-    <row r="425" s="30" customFormat="1" ht="14.25"/>
-    <row r="426" s="30" customFormat="1" ht="14.25"/>
-    <row r="427" s="30" customFormat="1" ht="14.25"/>
-    <row r="428" s="30" customFormat="1" ht="14.25"/>
-    <row r="429" s="30" customFormat="1" ht="14.25"/>
-    <row r="430" s="30" customFormat="1" ht="14.25"/>
-    <row r="431" s="30" customFormat="1" ht="14.25"/>
-    <row r="432" s="30" customFormat="1" ht="14.25"/>
-    <row r="433" s="30" customFormat="1" ht="14.25"/>
-    <row r="434" s="30" customFormat="1" ht="14.25"/>
-    <row r="435" s="30" customFormat="1" ht="14.25"/>
-    <row r="436" s="30" customFormat="1" ht="14.25"/>
-    <row r="437" s="30" customFormat="1" ht="14.25"/>
-    <row r="438" s="30" customFormat="1" ht="14.25"/>
-    <row r="439" s="30" customFormat="1" ht="14.25"/>
-    <row r="440" s="30" customFormat="1" ht="14.25"/>
-    <row r="441" s="30" customFormat="1" ht="14.25"/>
-    <row r="442" s="30" customFormat="1" ht="14.25"/>
-    <row r="443" s="30" customFormat="1" ht="14.25"/>
-    <row r="444" s="30" customFormat="1" ht="14.25"/>
-    <row r="445" s="30" customFormat="1" ht="14.25"/>
-    <row r="446" s="30" customFormat="1" ht="14.25"/>
-    <row r="447" s="30" customFormat="1" ht="14.25"/>
-    <row r="448" s="30" customFormat="1" ht="14.25"/>
-    <row r="449" s="30" customFormat="1" ht="14.25"/>
-    <row r="450" s="30" customFormat="1" ht="14.25"/>
-    <row r="451" s="30" customFormat="1" ht="14.25"/>
-    <row r="452" s="30" customFormat="1" ht="14.25"/>
-    <row r="453" s="30" customFormat="1" ht="14.25"/>
-    <row r="454" s="30" customFormat="1" ht="14.25"/>
-    <row r="455" s="30" customFormat="1" ht="14.25"/>
-    <row r="456" s="30" customFormat="1" ht="14.25"/>
-    <row r="457" s="30" customFormat="1" ht="14.25"/>
-    <row r="458" s="30" customFormat="1" ht="14.25"/>
-    <row r="459" s="30" customFormat="1" ht="14.25"/>
-    <row r="460" s="30" customFormat="1" ht="14.25"/>
-    <row r="461" s="30" customFormat="1" ht="14.25"/>
-    <row r="462" s="30" customFormat="1" ht="14.25"/>
-    <row r="463" s="30" customFormat="1" ht="14.25"/>
-    <row r="464" s="30" customFormat="1" ht="14.25"/>
-    <row r="465" s="30" customFormat="1" ht="14.25"/>
-    <row r="466" s="30" customFormat="1" ht="14.25"/>
-    <row r="467" s="30" customFormat="1" ht="14.25"/>
-    <row r="468" s="30" customFormat="1" ht="14.25"/>
-    <row r="469" s="30" customFormat="1" ht="14.25"/>
-    <row r="470" s="30" customFormat="1" ht="14.25"/>
-    <row r="471" s="30" customFormat="1" ht="14.25"/>
-    <row r="472" s="30" customFormat="1" ht="14.25"/>
-    <row r="473" s="30" customFormat="1" ht="14.25"/>
-    <row r="474" s="30" customFormat="1" ht="14.25"/>
-    <row r="475" s="30" customFormat="1" ht="14.25"/>
-    <row r="476" s="30" customFormat="1" ht="14.25"/>
-    <row r="477" s="30" customFormat="1" ht="14.25"/>
-    <row r="478" s="30" customFormat="1" ht="14.25"/>
-    <row r="479" s="30" customFormat="1" ht="14.25"/>
-    <row r="480" s="30" customFormat="1" ht="14.25"/>
-    <row r="481" s="30" customFormat="1" ht="14.25"/>
-    <row r="482" s="30" customFormat="1" ht="14.25"/>
-    <row r="483" s="30" customFormat="1" ht="14.25"/>
-    <row r="484" s="30" customFormat="1" ht="14.25"/>
-    <row r="485" s="30" customFormat="1" ht="14.25"/>
-    <row r="486" s="30" customFormat="1" ht="14.25"/>
-    <row r="487" s="30" customFormat="1" ht="14.25"/>
-    <row r="488" s="30" customFormat="1" ht="14.25"/>
-    <row r="489" s="30" customFormat="1" ht="14.25"/>
-    <row r="490" s="30" customFormat="1" ht="14.25"/>
-    <row r="491" s="30" customFormat="1" ht="14.25"/>
-    <row r="492" s="30" customFormat="1" ht="14.25"/>
-    <row r="493" s="30" customFormat="1" ht="14.25"/>
-    <row r="494" s="30" customFormat="1" ht="14.25"/>
-    <row r="495" s="30" customFormat="1" ht="14.25"/>
-    <row r="496" s="30" customFormat="1" ht="14.25"/>
-    <row r="497" s="30" customFormat="1" ht="14.25"/>
-    <row r="498" s="30" customFormat="1" ht="14.25"/>
-    <row r="499" s="30" customFormat="1" ht="14.25"/>
-    <row r="500" s="30" customFormat="1" ht="14.25"/>
-    <row r="501" s="30" customFormat="1" ht="14.25"/>
-    <row r="502" s="30" customFormat="1" ht="14.25"/>
-    <row r="503" s="30" customFormat="1" ht="14.25"/>
-    <row r="504" s="30" customFormat="1" ht="14.25"/>
-    <row r="505" s="30" customFormat="1" ht="14.25"/>
-    <row r="506" s="30" customFormat="1" ht="14.25"/>
-    <row r="507" s="30" customFormat="1" ht="14.25"/>
-    <row r="508" s="30" customFormat="1" ht="14.25"/>
-    <row r="509" s="30" customFormat="1" ht="14.25"/>
-    <row r="510" s="30" customFormat="1" ht="14.25"/>
-    <row r="511" s="30" customFormat="1" ht="14.25"/>
-    <row r="512" s="30" customFormat="1" ht="14.25"/>
-    <row r="513" s="30" customFormat="1" ht="14.25"/>
-    <row r="514" s="30" customFormat="1" ht="14.25"/>
-    <row r="515" s="30" customFormat="1" ht="14.25"/>
-    <row r="516" s="30" customFormat="1" ht="14.25"/>
-    <row r="517" s="30" customFormat="1" ht="14.25"/>
-    <row r="518" s="30" customFormat="1" ht="14.25"/>
-    <row r="519" s="30" customFormat="1" ht="14.25"/>
-    <row r="520" s="30" customFormat="1" ht="14.25"/>
-    <row r="521" s="30" customFormat="1" ht="14.25"/>
-    <row r="522" s="30" customFormat="1" ht="14.25"/>
-    <row r="523" s="30" customFormat="1" ht="14.25"/>
-    <row r="524" s="30" customFormat="1" ht="14.25"/>
-    <row r="525" s="30" customFormat="1" ht="14.25"/>
-    <row r="526" s="30" customFormat="1" ht="14.25"/>
-    <row r="527" s="30" customFormat="1" ht="14.25"/>
-    <row r="528" s="30" customFormat="1" ht="14.25"/>
-    <row r="529" s="30" customFormat="1" ht="14.25"/>
-    <row r="530" s="30" customFormat="1" ht="14.25"/>
-    <row r="531" s="30" customFormat="1" ht="14.25"/>
-    <row r="532" s="30" customFormat="1" ht="14.25"/>
-    <row r="533" s="30" customFormat="1" ht="14.25"/>
-    <row r="534" s="30" customFormat="1" ht="14.25"/>
-    <row r="535" s="30" customFormat="1" ht="14.25"/>
-    <row r="536" s="30" customFormat="1" ht="14.25"/>
-    <row r="537" s="30" customFormat="1" ht="14.25"/>
-    <row r="538" s="30" customFormat="1" ht="14.25"/>
-    <row r="539" s="30" customFormat="1" ht="14.25"/>
-    <row r="540" s="30" customFormat="1" ht="14.25"/>
-    <row r="541" s="30" customFormat="1" ht="14.25"/>
-    <row r="542" s="30" customFormat="1" ht="14.25"/>
-    <row r="543" s="30" customFormat="1" ht="14.25"/>
-    <row r="544" s="30" customFormat="1" ht="14.25"/>
-    <row r="545" s="30" customFormat="1" ht="14.25"/>
-    <row r="546" s="30" customFormat="1" ht="14.25"/>
-    <row r="547" s="30" customFormat="1" ht="14.25"/>
-    <row r="548" s="30" customFormat="1" ht="14.25"/>
-    <row r="549" s="30" customFormat="1" ht="14.25"/>
-    <row r="550" s="30" customFormat="1" ht="14.25"/>
-    <row r="551" s="30" customFormat="1" ht="14.25"/>
-    <row r="552" s="30" customFormat="1" ht="14.25"/>
-    <row r="553" s="30" customFormat="1" ht="14.25"/>
-    <row r="554" s="30" customFormat="1" ht="14.25"/>
-    <row r="555" s="30" customFormat="1" ht="14.25"/>
-    <row r="556" s="30" customFormat="1" ht="14.25"/>
-    <row r="557" s="30" customFormat="1" ht="14.25"/>
-    <row r="558" s="30" customFormat="1" ht="14.25"/>
-    <row r="559" s="30" customFormat="1" ht="14.25"/>
-    <row r="560" s="30" customFormat="1" ht="14.25"/>
-    <row r="561" s="30" customFormat="1" ht="14.25"/>
-    <row r="562" s="30" customFormat="1" ht="14.25"/>
-    <row r="563" s="30" customFormat="1" ht="14.25"/>
-    <row r="564" s="30" customFormat="1" ht="14.25"/>
-    <row r="565" s="30" customFormat="1" ht="14.25"/>
-    <row r="566" s="30" customFormat="1" ht="14.25"/>
-    <row r="567" s="30" customFormat="1" ht="14.25"/>
-    <row r="568" s="30" customFormat="1" ht="14.25"/>
-    <row r="569" s="30" customFormat="1" ht="14.25"/>
-    <row r="570" s="30" customFormat="1" ht="14.25"/>
-    <row r="571" s="30" customFormat="1" ht="14.25"/>
-    <row r="572" s="30" customFormat="1" ht="14.25"/>
-    <row r="573" s="30" customFormat="1" ht="14.25"/>
-    <row r="574" s="30" customFormat="1" ht="14.25"/>
-    <row r="575" s="30" customFormat="1" ht="14.25"/>
-    <row r="576" s="30" customFormat="1" ht="14.25"/>
-    <row r="577" s="30" customFormat="1" ht="14.25"/>
-    <row r="578" s="30" customFormat="1" ht="14.25"/>
-    <row r="579" s="30" customFormat="1" ht="14.25"/>
-    <row r="580" s="30" customFormat="1" ht="14.25"/>
-    <row r="581" s="30" customFormat="1" ht="14.25"/>
-    <row r="582" s="30" customFormat="1" ht="14.25"/>
-    <row r="583" s="30" customFormat="1" ht="14.25"/>
-    <row r="584" s="30" customFormat="1" ht="14.25"/>
-    <row r="585" s="30" customFormat="1" ht="14.25"/>
-    <row r="586" s="30" customFormat="1" ht="14.25"/>
-    <row r="587" s="30" customFormat="1" ht="14.25"/>
-    <row r="588" s="30" customFormat="1" ht="14.25"/>
-    <row r="589" s="30" customFormat="1" ht="14.25"/>
-    <row r="590" s="30" customFormat="1" ht="14.25"/>
-    <row r="591" s="30" customFormat="1" ht="14.25"/>
-    <row r="592" s="30" customFormat="1" ht="14.25"/>
-    <row r="593" s="30" customFormat="1" ht="14.25"/>
-    <row r="594" s="30" customFormat="1" ht="14.25"/>
-    <row r="595" s="30" customFormat="1" ht="14.25"/>
-    <row r="596" s="30" customFormat="1" ht="14.25"/>
-    <row r="597" s="30" customFormat="1" ht="14.25"/>
-    <row r="598" s="30" customFormat="1" ht="14.25"/>
-    <row r="599" s="30" customFormat="1" ht="14.25"/>
-    <row r="600" s="30" customFormat="1" ht="14.25"/>
-    <row r="601" s="30" customFormat="1" ht="14.25"/>
-    <row r="602" s="30" customFormat="1" ht="14.25"/>
-    <row r="603" s="30" customFormat="1" ht="14.25"/>
-    <row r="604" s="30" customFormat="1" ht="14.25"/>
-    <row r="605" s="30" customFormat="1" ht="14.25"/>
-    <row r="606" s="30" customFormat="1" ht="14.25"/>
-    <row r="607" s="30" customFormat="1" ht="14.25"/>
-    <row r="608" s="30" customFormat="1" ht="14.25"/>
-    <row r="609" s="30" customFormat="1" ht="14.25"/>
-    <row r="610" s="30" customFormat="1" ht="14.25"/>
+    <row r="237" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="238" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="239" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="240" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="241" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="242" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="243" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="244" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="245" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="246" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="247" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="248" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="249" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="250" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="251" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="252" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="253" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="254" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="255" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="256" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="257" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="258" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="259" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="260" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="261" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="262" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="263" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="264" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="265" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="266" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="267" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="268" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="269" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="270" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="271" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="272" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="273" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="274" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="275" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="276" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="277" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="278" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="279" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="280" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="281" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="282" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="283" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="284" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="285" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="286" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="287" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="288" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="289" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="290" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="291" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="292" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="293" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="294" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="295" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="296" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="297" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="298" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="299" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="300" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="301" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B301" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C302" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="304" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B304" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="306" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B306" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="308" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B308" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="310" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="311" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="312" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="313" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="314" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="315" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="316" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="317" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="318" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="319" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="320" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="321" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="322" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="323" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="324" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="325" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="326" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="327" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="328" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="329" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="330" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="331" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="332" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="333" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="334" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="335" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="336" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="337" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="338" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="339" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="340" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="341" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="342" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="343" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="344" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="345" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="346" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="347" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="348" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="349" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="350" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="351" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="352" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="353" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="354" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="355" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="356" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="357" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="358" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="359" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="360" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="361" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="362" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="363" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="364" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="365" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="366" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="367" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="368" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="369" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="370" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="371" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="372" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="373" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="374" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="375" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="376" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="377" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="378" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="379" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="380" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="381" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="382" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="383" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="384" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="385" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="386" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="387" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="388" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="389" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="390" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="391" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="392" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="393" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="394" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="395" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="396" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="397" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="398" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="399" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="400" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="401" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="402" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="403" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="404" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="405" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="406" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="407" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="408" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="409" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="410" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="411" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="412" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="413" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="414" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="415" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="416" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="417" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="418" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="419" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="420" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="421" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="422" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="423" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="424" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="425" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="426" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="427" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="428" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="429" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="430" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="431" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="432" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="433" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="434" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="435" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="436" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="437" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="438" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="439" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="440" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="441" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="442" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="443" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="444" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="445" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="446" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="447" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="448" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="449" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="450" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="451" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="452" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="453" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="454" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="455" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="456" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="457" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="458" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="459" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="460" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="461" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="462" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="463" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="464" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="465" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="466" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="467" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="468" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="469" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="470" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="471" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="472" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="473" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="474" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="475" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="476" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="477" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="478" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="479" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="480" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="481" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="482" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="483" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="484" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="485" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="486" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="487" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="488" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="489" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="490" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="491" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="492" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="493" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="494" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="495" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="496" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="497" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="498" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="499" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="500" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="501" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="502" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="503" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="504" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="505" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="506" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="507" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="508" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="509" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="510" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="511" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="512" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="513" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="514" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="515" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="516" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="517" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="518" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="519" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="520" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="521" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="522" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="523" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="524" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="525" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="526" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="527" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="528" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="529" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="530" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="531" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="532" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="533" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="534" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="535" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="536" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="537" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="538" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="539" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="540" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="541" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="542" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="543" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="544" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="545" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="546" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="547" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="548" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="549" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="550" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="551" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="552" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="553" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="554" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="555" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="556" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="557" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="558" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="559" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="560" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="561" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="562" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="563" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="564" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="565" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="566" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="567" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="568" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="569" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="570" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="571" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="572" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="573" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="574" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="575" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="576" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="577" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="578" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="579" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="580" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="581" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="582" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="583" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="584" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="585" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="586" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="587" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="588" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="589" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="590" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="591" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="592" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="593" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="594" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="595" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="596" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="597" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="598" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="599" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="600" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="601" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="602" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="603" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="604" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="605" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="606" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="607" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="608" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="609" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="610" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="611" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="612" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="613" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="614" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="615" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="616" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="617" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="618" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="619" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="620" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="621" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="622" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="623" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="624" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="625" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="626" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="627" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="628" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="629" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="630" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="631" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="632" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="633" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="634" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3269,16 +3760,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O1" location="目录!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -3296,17 +3820,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -3321,5 +3845,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/linux-2.6.32.27_compressed.xlsx
+++ b/linux-2.6.32.27_compressed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
@@ -13,13 +13,17 @@
     <sheet name="cache_on分析" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
     <sheet name="resource" sheetId="3" r:id="rId6"/>
+    <sheet name="vmlinux.lds" sheetId="7" r:id="rId7"/>
+    <sheet name="Image_zImage_uImage解析" sheetId="8" r:id="rId8"/>
+    <sheet name="ARM软中断" sheetId="9" r:id="rId9"/>
+    <sheet name="ARM指令条件码" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="309">
   <si>
     <t>结束日期：</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -121,23 +125,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>linux-2.6.32.27/arch/arm/boot/compressed/head.S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从bootloader调转到Linux内核执行的第一行代码是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看 linux-2.6.32.27/arch/arm/boot/compressed/vmlinux.lds (vmlinux.ldr.in在编译时会把里面的宏替换成具体的值，然后生成vmlinux.lds) ENTRY(_start)可知程序从_start符号处开始执行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是head.S文件中并不能找到_start符号，只能找到start符号，估计是内核的一个bug（把start写成了_start）。由于在vmlinux.lds中把_start符号放在了0地址，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后紧接着放.start段的内容，刚好start符号是.start的开始，所以start符号也就放在了0地址，因此程序运行没有问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -200,18 +188,6 @@
   </si>
   <si>
     <t>（5）把bootloder传递上来的machine id备份到r7，atags指针备份到r8中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上面这段代码用于禁用中断。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是非ARM2、ARM3核心：首先读取cpsr并判断当前处理器模式是否处于user模式。如果是user模式，则通过 swi 0x123456 触发软中断；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则，CPSR寄存器I位和F写1禁止IRQ和FIQ中断。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -252,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>然后du -b linux-2.6.32.27/arch/arm/boot/zImage，两者的值相同。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过arm-linux-objdump -D linux-2.6.32.27/arch/arm/boot/compressed/vmlinux &gt; vmlinux.dump 可以看到 zImage 的大小是0x001f537c字节，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行上面内存加载指令后r1中的值是LC0的链接地址。由vmlinux.lds可知，这块代码应该放到0地址处开始运行，如果没有放在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下面进行重定位操作：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r2中存放的是bss的起始地址，r3总存放的是bss节的结束地址，上面代码对bss进行清零。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（2）cache_on处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行完上面操作后，寄存器中存放的值如下所示：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>r0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,14 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存放的是 _image_size = (_etext - _text) * 4;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>r11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,14 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cache_on分析</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在C语言运行环境准备好之前会执行cache_on函数，用于打开CPU cache功能。打开cache功能之前需要先设置页表（需要使用D-Cache）,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>r2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,23 +362,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存放的是__bss_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存放的是_end，即bss段的结束地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存放的是zreladdr，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于zreladdr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zreladdr在 arch/arm/boot/compressed/Makefile 中定义：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -473,12 +401,863 @@
     <t>zreladdr-y 在 arch/arm/mach-s3c2410/Makefile.boot:1:   zreladdr-y     := 0x30008000 中定义。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>r6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是堆栈的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从bootloader跳转到Linux内核执行的第一行代码是 linux-2.6.32.27/arch/arm/boot/compressed/head.S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是head.S文件中并不能找到_start符号，只能找到start符号，估计是内核的一个bug（把start写成了_start）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于在vmlinux.lds中把_start符号放在了0地址，然后紧接着放.start段的内容，刚好start符号是.start的开始，所以start符号也就放在了0地址，因此程序运行没有问题（这只是一种猜测）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *  linux/arch/arm/boot/compressed/vmlinux.lds.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *  Copyright (C) 2000 Russell King</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * This program is free software; you can redistribute it and/or modify</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * it under the terms of the GNU General Public License version 2 as</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * published by the Free Software Foundation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>OUTPUT_ARCH(arm)</t>
+  </si>
+  <si>
+    <t>ENTRY(_start)</t>
+  </si>
+  <si>
+    <t>SECTIONS</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  /DISCARD/ : {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *(.ARM.exidx*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *(.ARM.extab*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  . = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  _text = .;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .text : {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    _start = .;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *(.start)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *(.text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *(.text.*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *(.fixup)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *(.gnu.warning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *(.rodata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *(.rodata.*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *(.glue_7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *(.glue_7t)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *(.piggydata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    . = ALIGN(4);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  _etext = .;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  /* Assume size of decompressed image is 4x the compressed image */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  _image_size = (_etext - _text) * 4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  _got_start = .;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  _got_end = .;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  _edata = .;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  . = ALIGN(4);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  __bss_start = .;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  _end = .;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>vmlinux.lds分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zImage的结束地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zImage的起始地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .data    : { *(.data) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .got     : { *(.got) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .got.plt : { *(.got.plt) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .bss     : { *(.bss) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .stack (NOLOAD) : { *(.stack) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .stab.exclstr 0  : { *(.stab.exclstr) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .comment 0       : { *(.comment) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .stab.indexstr 0 : { *(.stab.indexstr) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .stab.index 0    : { *(.stab.index) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .stab.excl 0     : { *(.stab.excl) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .stabstr 0       : { *(.stabstr) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .stab 0          : { *(.stab) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atags地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与 du -b linux-2.6.32.27/arch/arm/boot/zImage，两者的值相同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image_zImage_uImage解析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面这段代码用于禁用中断（对cpsr寄存器的I、F位写1）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是非ARM2、ARM3核心：首先读取cpsr并判断当前处理器模式是否是user模式？如果是user模式，则运行 swi 0x123456 指令触发软中断；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不是user模式，则对CPSR寄存器I位和F位写1禁止IRQ和FIQ中断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIP: cpsr_cxsf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msr cpsr_cxsf, r1  ;这里的cxsf表示从低到高分别占用的4个8bit的数据域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c 指control field (PSR[7:0])</t>
+  </si>
+  <si>
+    <t>f 指flag field    (PSR[31:24])</t>
+  </si>
+  <si>
+    <t>x 指extend field  (PSR[15:8])</t>
+  </si>
+  <si>
+    <t>s 指status field  (PSR[23:16])</t>
+  </si>
+  <si>
+    <t>TIP: swi 0x123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARM软中断的实现，参考 【ARM软中断】 sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARM软中断</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swi 0x123456  对应的机器码为 0xef123456，其中 Cond 域为0xe，表示无条件执行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWI 软中断指令：</t>
+  </si>
+  <si>
+    <t>SWI指令用于产生软中断，从用户模式切换到管理模式，cpsr保存到管理模式的spsr中。</t>
+  </si>
+  <si>
+    <t>SWI{cond}  immed_24  ; immed_24为软中断号（服务类型）</t>
+  </si>
+  <si>
+    <t>使用SWI指令时，通常使用以下两种方式进行参数传递，在SWI异常中断处理程序中就可以提供相应的服务，这两种方式均是用户软件协定。</t>
+  </si>
+  <si>
+    <t>SWI异常中断处理程序要通过读取引起软中断的SWI指令，以取得24位立即数。</t>
+  </si>
+  <si>
+    <t>（1）指令中的24位立即数指定了用户请求的服务类型，参数通过通用寄存器传递（APCS）</t>
+  </si>
+  <si>
+    <t>mov r0, #34     ; 传递给SWI异常中断处理程序的参数为34</t>
+  </si>
+  <si>
+    <t>swi 12          ; 指令中的24位立即数为12</t>
+  </si>
+  <si>
+    <t>（2）指令中的24位立即数被忽略，用户请求的服务类型由寄存器r0的值决定，参数通过其他的通用寄存器传递</t>
+  </si>
+  <si>
+    <t>mov r0, #12     ; 调用12号软中断</t>
+  </si>
+  <si>
+    <t>mov r1, #34     ; 传递给SWI异常中断处理程序的参数为34</t>
+  </si>
+  <si>
+    <t>swi 0</t>
+  </si>
+  <si>
+    <t>在SWI异常中断处理程序中，取出SWI立即数的步骤为：</t>
+  </si>
+  <si>
+    <t>（1）首先确定引起软中断的SWI指令是ARM指令还是Thunb指令，这可通过对SPSR访问得到；</t>
+  </si>
+  <si>
+    <t>（2）然后取得该SWI指令的地址，这可通过访问LR寄存器得到；</t>
+  </si>
+  <si>
+    <t>（3）接着读出指令，分解出立即数</t>
+  </si>
+  <si>
+    <t>ARM指令中SWI指令的机器码格式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THUMB指令中SWI指令的机器码格式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIP: 关于zreladdr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行完上面指令后，工作寄存器中存放的数据如下所示：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是__bss_start的链接地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是zreladdr，应该是解压后的内核存放的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是解压后的内核Image的大小值 _image_size = (_etext - _text) * 4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行上面内存加载指令后r1中的值是LC0的链接地址。由vmlinux.lds可知，内核解压代码的链接地址是0，如果没有放在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0 = LC0符号在内存中的地址（0x30000000 + 0x138）- LC0符号的链接地址(0x138)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mini2440 SDRAM起始地址是0x30000000，如果把zImage放到0x30000000处执行，则，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此时此刻工作寄存器里的内容为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x30000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__bss_start的链接地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_end，bss段的结束地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x30008000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是_start符号的链接地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atags address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r13(sp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r14(lr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r15(pc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r12(ip)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是_got_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是_got_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是_user_stack+4096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）重定位_start、_got_start、_got_end符号地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在mini2440中，如果zImage被加载到0x30000000地址，则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_start:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r5 = r5 + r0 = 0 + 0x30000000 = 0x30000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_got_start:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_got_end:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r11 = r11 + r0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip = ip + r0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2）重定位__bss_start、_end、sp的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3）重定位.got段中所有条目的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重定位完成后：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里会破坏r1的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在重定位操作中被破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在重定位操作完成后，清零bss时被破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2中存放的是bss的起始地址，r3中存放的是bss的结束地址，上面代码对bss进行清零。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache_on分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在C语言运行环境准备好之前会执行cache_on函数，用于打开CPU cache功能。打开cache功能之前需要先设置页表（因为需要同时打开I-Cache和D-Cache）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们把也表占用的16K内存放在kernel执行地址的前面，这块内存不能够被其它程序占用，否则会发生数据覆盖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行cache_on之前的寄存器环境：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放的是zreladdr，应该是解压后的内核存放的地址(0x30008000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在执行cache_on是被破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到call_cache_fun执行：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）计算proc_types符号运行时地址到r12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2）从CP15协处理器中读取处理器ID的值到r9中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面是不同类型CPU Cache操作表：每种类型CPU占5个字（共4*5=20字节）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这5个字分别存放：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.word 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.word 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.word 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.word 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.word 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU ID mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache on 函数地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache off函数地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache flush函数地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eor是逻辑异或指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3）proc_types表中查找与processor id匹配的cpu，如果找到则pc = r12 + 8，即执行相应Processor的cache_on函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">对于arm920t，对应的Processor id是 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x41 12 920 0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里查找的最终结果是ARMv4T，最终会调用 __armv4_mmu_cache_on函数。自己用C语言实现的查找验证程序见下面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;</t>
+  </si>
+  <si>
+    <t>unsigned int cpuid[][2] = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x41560600,0xffffffe0},        // ARM6/610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x00000000,0x0000f000},        // old ARM ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x41007000,0xfff8fe00},        // ARM7/710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x41807200,0xffffff00},        // ARM720T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x41007400,0xff00ff00},        // ARM74x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x41009400,0xff00ff00},        // ARM94x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x00007000,0x0000f000},        // ARM7 IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Everything from here on will be the new ID system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x4401a100,0xffffffe0},        // sa110 / sa1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x6901b110,0xfffffff0},        // sa1110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x56056930,0xff0ffff0},        // PXA935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x56158000,0xfffff000},        // PXA168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x56050000,0xff0f0000},        // Feroceon</t>
+  </si>
+  <si>
+    <t>#ifdef CONFIG_CPU_FEROCEON_OLD_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x41009260,0xff00fff0},        // Old Feroceon</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x66015261,0xff01fff1},        // FA526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // These match on the architecture ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x00020000,0x000f0000},        // ARMv4T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x00050000,0x000f0000},        // ARMv5TE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x00060000,0x000f0000},        // ARMv5TEJ        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x0007b000,0x000ff000},        // ARMv6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0x000f0000,0x000f0000},        // new CPU Id</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>int main(void)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int i;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        unsigned int real = 0x41129200;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for (i = 0; i &lt; sizeof(cpuid)/sizeof(cpuid[0]); i++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if (((real ^ cpuid[i][0]) &amp; cpuid[i][1]) == 0) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        printf("match: %d, processor_id: 0x%x\n", i, cpuid[i][0]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        return 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        printf("no match\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return -1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        {0,0},                          // unrecognised type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找Processor id对应的Cache操作函数的C语言测试代码：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv4_mmu_cache_on函数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）备份lr到r12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2）调用 __setup_mmu 对也表进行配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__setup_mmu函数解析：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r3的地址16K对其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bic:位清除指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r3 = r4 - 16K = 0x30008000 - 0x4000 = 0x30004000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0 = r3 = 0x30004000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r9 = r0 &gt;&gt; 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r10 = r9 + 0x10000000 = 0x30000000 + 0x10000000 = 0x40000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1 = 0x12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1 = r1 | (3 &lt;&lt; 10) = 0xc12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2 = r3 + 16K = 0x30008000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r9 = r9 &lt;&lt; 18 = 0x3000_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,8 +1347,56 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,8 +1409,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -723,6 +1568,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -734,7 +1739,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +1769,85 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
@@ -808,7 +1892,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -906,9 +2013,7 @@
           </a:prstGeom>
           <a:noFill/>
           <a:ln w="15875">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -1020,9 +2125,7 @@
           </a:prstGeom>
           <a:noFill/>
           <a:ln w="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:miter lim="800000"/>
             <a:headEnd/>
             <a:tailEnd type="none" w="med" len="med"/>
@@ -1045,9 +2148,7 @@
           </a:prstGeom>
           <a:noFill/>
           <a:ln w="15875">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -1129,13 +2230,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1145,7 +2246,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685800" y="19240500"/>
+          <a:off x="685800" y="19602450"/>
           <a:ext cx="8296275" cy="3248025"/>
           <a:chOff x="685800" y="13992225"/>
           <a:chExt cx="8296275" cy="3248025"/>
@@ -1175,9 +2276,7 @@
           </a:prstGeom>
           <a:noFill/>
           <a:ln w="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:miter lim="800000"/>
             <a:headEnd/>
             <a:tailEnd type="none" w="med" len="med"/>
@@ -1200,9 +2299,7 @@
           </a:prstGeom>
           <a:noFill/>
           <a:ln w="15875">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -1282,15 +2379,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1300,7 +2397,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1371600" y="14716125"/>
+          <a:off x="2057400" y="15078075"/>
           <a:ext cx="5600700" cy="4152900"/>
           <a:chOff x="1371600" y="14173200"/>
           <a:chExt cx="5600700" cy="4152900"/>
@@ -1390,13 +2487,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1423,9 +2520,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+          <a:noFill/>
           <a:miter lim="800000"/>
           <a:headEnd/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -1439,13 +2534,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1472,9 +2567,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+          <a:noFill/>
           <a:miter lim="800000"/>
           <a:headEnd/>
           <a:tailEnd/>
@@ -1487,13 +2580,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1520,9 +2613,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+          <a:noFill/>
           <a:miter lim="800000"/>
           <a:headEnd/>
           <a:tailEnd/>
@@ -1535,13 +2626,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1568,55 +2659,6 @@
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1032" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685800" y="38604825"/>
-          <a:ext cx="9048750" cy="7858125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
           <a:noFill/>
           <a:miter lim="800000"/>
           <a:headEnd/>
@@ -1631,13 +2673,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>103819</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>142518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1648,7 +2690,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1669,13 +2711,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1727,15 +2769,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>332733</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>142835</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1746,7 +2788,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1763,6 +2805,246 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="组合 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="45300900"/>
+          <a:ext cx="9048750" cy="7858125"/>
+          <a:chOff x="685800" y="45300900"/>
+          <a:chExt cx="9048750" cy="7858125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="25" name="组合 24"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="685800" y="45300900"/>
+            <a:ext cx="9048750" cy="7858125"/>
+            <a:chOff x="685800" y="45300900"/>
+            <a:chExt cx="9048750" cy="7858125"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="1032" name="Picture 8"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="685800" y="45300900"/>
+              <a:ext cx="9048750" cy="7858125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="矩形 23"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1352551" y="47586899"/>
+              <a:ext cx="7639050" cy="3171825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="TextBox 26"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5981700" y="48663226"/>
+            <a:ext cx="2733675" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>s3c2440</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>中没有定义 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CONFIG_ZBOOT_ROM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>，因此执行红色框中代码</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="60321825"/>
+          <a:ext cx="8410575" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1772,14 +3054,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>618276</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>132905</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1789,7 +3071,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1804,6 +3086,640 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="6029325"/>
+          <a:ext cx="7734300" cy="5133975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="组合 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2038350" y="14173200"/>
+          <a:ext cx="7677150" cy="27993975"/>
+          <a:chOff x="2038350" y="14173200"/>
+          <a:chExt cx="7677150" cy="27993975"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2050" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057400" y="14173200"/>
+            <a:ext cx="7324725" cy="7305675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2051" name="Picture 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057400" y="21459825"/>
+            <a:ext cx="7658100" cy="4543425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2052" name="Picture 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057400" y="26117550"/>
+            <a:ext cx="7610475" cy="6324600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2053" name="Picture 5"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2057400" y="32432625"/>
+            <a:ext cx="7067550" cy="1514475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2054" name="Picture 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+          <a:srcRect t="3114"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2038350" y="33947100"/>
+            <a:ext cx="7458075" cy="5334000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2055" name="Picture 7"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2038350" y="39290625"/>
+            <a:ext cx="7372350" cy="2876550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2056" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="42767250"/>
+          <a:ext cx="9210675" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2057" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="55616475"/>
+          <a:ext cx="8401050" cy="6562725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="57007125"/>
+          <a:ext cx="4619625" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477126" y="57064275"/>
+          <a:ext cx="914400" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>256K</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>对齐</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="55797450"/>
+          <a:ext cx="5143500" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077201" y="55826025"/>
+          <a:ext cx="847724" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16K</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>对齐</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2124,6 +4040,209 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="11972925" cy="3629025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>98077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="3152775"/>
+          <a:ext cx="6400800" cy="2498377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>115283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4098" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="9839326"/>
+          <a:ext cx="6296025" cy="1829782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="514350"/>
+          <a:ext cx="6848475" cy="6153150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -2434,12 +4553,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
@@ -2447,71 +4566,71 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="4:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="17" t="s">
+    <row r="3" spans="4:13" ht="15" thickBot="1"/>
+    <row r="4" spans="4:13" ht="15" thickTop="1">
+      <c r="D4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="4:13" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="4:13">
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+    </row>
+    <row r="6" spans="4:13">
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="4:13">
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
+    </row>
+    <row r="8" spans="4:13" ht="15" thickBot="1">
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="4:13" ht="15" thickTop="1"/>
+    <row r="12" spans="4:13">
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2519,7 +4638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:13">
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2527,12 +4646,12 @@
         <v>42700</v>
       </c>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:13">
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:13">
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2540,194 +4659,194 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="G22" s="15" t="s">
+    <row r="22" spans="4:13">
+      <c r="G22" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="15" t="s">
+      <c r="H22" s="43"/>
+      <c r="I22" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="G23" s="15" t="s">
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="4:13">
+      <c r="G23" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="15" t="s">
+      <c r="H23" s="43"/>
+      <c r="I23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="G24" s="15" t="s">
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="4:13">
+      <c r="G24" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="15" t="s">
+      <c r="H24" s="43"/>
+      <c r="I24" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="J24" s="43"/>
+    </row>
+    <row r="27" spans="4:13">
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:13">
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="26" t="s">
+      <c r="F28" s="54"/>
+      <c r="G28" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="27"/>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="54"/>
+    </row>
+    <row r="29" spans="4:13">
       <c r="D29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="56">
         <v>42700</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="32"/>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="F29" s="54"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="59"/>
+    </row>
+    <row r="30" spans="4:13">
       <c r="D30" s="4"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E30" s="56"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59"/>
+    </row>
+    <row r="31" spans="4:13">
       <c r="D31" s="3"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="32"/>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59"/>
+    </row>
+    <row r="32" spans="4:13">
       <c r="D32" s="3"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="32"/>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="59"/>
+    </row>
+    <row r="33" spans="4:13">
       <c r="D33" s="3"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="59"/>
+    </row>
+    <row r="34" spans="4:13">
       <c r="D34" s="3"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="32"/>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E34" s="53"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="59"/>
+    </row>
+    <row r="35" spans="4:13">
       <c r="D35" s="3"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="32"/>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E35" s="53"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="59"/>
+    </row>
+    <row r="36" spans="4:13">
       <c r="D36" s="3"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="32"/>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E36" s="53"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="59"/>
+    </row>
+    <row r="37" spans="4:13">
       <c r="D37" s="3"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="32"/>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="59"/>
+    </row>
+    <row r="38" spans="4:13">
       <c r="D38" s="3"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="32"/>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="59"/>
+    </row>
+    <row r="39" spans="4:13">
       <c r="D39" s="3"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="32"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -2769,41 +4888,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
@@ -2822,16 +4957,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O634"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="L220" sqref="L220"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
       <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
@@ -2839,915 +4974,1509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="14.25">
       <c r="B3" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="5" spans="1:15" s="12" customFormat="1" ht="14.25">
+      <c r="B5" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="7" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="8" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="9" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="10" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="11" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="12" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="13" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="14" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="15" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="16" spans="1:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="17" s="12" customFormat="1" ht="14.25"/>
+    <row r="18" s="12" customFormat="1" ht="14.25"/>
+    <row r="19" s="12" customFormat="1" ht="14.25"/>
+    <row r="20" s="12" customFormat="1" ht="14.25"/>
+    <row r="21" s="12" customFormat="1" ht="14.25"/>
+    <row r="22" s="12" customFormat="1" ht="14.25"/>
+    <row r="23" s="12" customFormat="1" ht="14.25"/>
+    <row r="24" s="12" customFormat="1" ht="14.25"/>
+    <row r="25" s="12" customFormat="1" ht="14.25"/>
+    <row r="26" s="12" customFormat="1" ht="14.25"/>
+    <row r="27" s="12" customFormat="1" ht="14.25"/>
+    <row r="28" s="12" customFormat="1" ht="14.25"/>
+    <row r="29" s="12" customFormat="1" ht="14.25"/>
+    <row r="30" s="12" customFormat="1" ht="14.25"/>
+    <row r="31" s="12" customFormat="1" ht="14.25"/>
+    <row r="32" s="12" customFormat="1" ht="14.25"/>
+    <row r="33" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="34" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="35" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="36" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="37" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="38" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="39" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="40" spans="2:2" s="12" customFormat="1" ht="14.25">
+      <c r="B40" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" s="12" customFormat="1" ht="14.25">
+      <c r="B41" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="43" spans="2:2" s="12" customFormat="1" ht="14.25">
+      <c r="B43" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="12" t="s">
+    <row r="44" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="45" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="46" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="47" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="48" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="49" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="50" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="51" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="52" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="53" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="54" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="55" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="56" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="57" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="58" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="59" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="60" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="61" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="62" spans="2:5" s="12" customFormat="1" ht="14.25"/>
+    <row r="63" spans="2:5" s="12" customFormat="1" ht="14.25">
+      <c r="B63" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="17" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="18" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="19" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="20" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="21" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="23" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="24" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="26" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="27" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="28" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="29" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="30" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="31" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="32" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="12" t="s">
+    <row r="64" spans="2:5" s="12" customFormat="1" ht="14.25">
+      <c r="C64" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B41" s="12" t="s">
+      <c r="E64" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" s="12" customFormat="1" ht="14.25">
+      <c r="C65" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="49" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="50" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="53" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="57" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B63" s="12" t="s">
+      <c r="E65" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C64" s="12" t="s">
+    <row r="66" spans="2:11" s="12" customFormat="1" ht="14.25"/>
+    <row r="67" spans="2:11" s="12" customFormat="1" ht="14.25">
+      <c r="C67" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" s="12" customFormat="1" ht="14.25">
+      <c r="D68" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" s="12" customFormat="1" ht="14.25"/>
+    <row r="70" spans="2:11" s="12" customFormat="1" ht="14.25">
+      <c r="B70" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="K70" s="13"/>
+    </row>
+    <row r="71" spans="2:11" s="12" customFormat="1" ht="14.25">
+      <c r="C71" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C65" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="12" t="s">
+    <row r="72" spans="2:11" s="12" customFormat="1" ht="14.25"/>
+    <row r="73" spans="2:11" s="12" customFormat="1" ht="14.25">
+      <c r="B73" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" s="12" customFormat="1" ht="14.25">
+      <c r="C74" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="67" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C67" s="12" t="s">
+    <row r="75" spans="2:11" s="12" customFormat="1" ht="14.25"/>
+    <row r="76" spans="2:11" s="12" customFormat="1" ht="14.25">
+      <c r="B76" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" s="12" customFormat="1" ht="14.25"/>
+    <row r="78" spans="2:11" s="12" customFormat="1" ht="14.25">
+      <c r="B78" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" s="12" customFormat="1" ht="14.25">
+      <c r="C79" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" s="12" customFormat="1" ht="14.25">
+      <c r="C80" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="82" spans="3:3" s="12" customFormat="1" ht="14.25">
+      <c r="C82" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" s="12" customFormat="1" ht="14.25">
+      <c r="C83" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="85" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="86" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="87" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="88" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="89" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="90" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="91" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="92" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="93" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="94" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="95" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="96" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="97" s="12" customFormat="1" ht="14.25"/>
+    <row r="98" s="12" customFormat="1" ht="14.25"/>
+    <row r="99" s="12" customFormat="1" ht="14.25"/>
+    <row r="100" s="12" customFormat="1" ht="14.25"/>
+    <row r="101" s="12" customFormat="1" ht="14.25"/>
+    <row r="102" s="12" customFormat="1" ht="14.25"/>
+    <row r="103" s="12" customFormat="1" ht="14.25"/>
+    <row r="104" s="12" customFormat="1" ht="14.25"/>
+    <row r="105" s="12" customFormat="1" ht="14.25"/>
+    <row r="106" s="12" customFormat="1" ht="14.25"/>
+    <row r="107" s="12" customFormat="1" ht="14.25"/>
+    <row r="108" s="12" customFormat="1" ht="14.25"/>
+    <row r="109" s="12" customFormat="1" ht="14.25"/>
+    <row r="110" s="12" customFormat="1" ht="14.25"/>
+    <row r="111" s="12" customFormat="1" ht="14.25"/>
+    <row r="112" s="12" customFormat="1" ht="14.25"/>
+    <row r="113" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="114" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="115" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="116" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="117" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="118" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="119" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="120" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="121" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="122" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="123" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="124" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="125" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="126" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="127" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="128" spans="2:2" s="12" customFormat="1" ht="14.25">
+      <c r="B128" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="B129" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="2:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="131" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="B131" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="B132" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="2:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="134" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="B134" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="C135" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="2:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="137" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="C137" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="O138" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="P138" s="31"/>
+      <c r="Q138" s="31"/>
+      <c r="R138" s="31"/>
+      <c r="S138" s="31"/>
+      <c r="T138" s="31"/>
+      <c r="U138" s="31"/>
+      <c r="V138" s="32"/>
+    </row>
+    <row r="139" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="O139" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="P139" s="34"/>
+      <c r="Q139" s="34"/>
+      <c r="R139" s="34"/>
+      <c r="S139" s="34"/>
+      <c r="T139" s="34"/>
+      <c r="U139" s="34"/>
+      <c r="V139" s="35"/>
+    </row>
+    <row r="140" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="O140" s="33"/>
+      <c r="P140" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q140" s="34"/>
+      <c r="R140" s="34"/>
+      <c r="S140" s="34"/>
+      <c r="T140" s="34"/>
+      <c r="U140" s="34"/>
+      <c r="V140" s="35"/>
+    </row>
+    <row r="141" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="O141" s="33"/>
+      <c r="P141" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q141" s="34"/>
+      <c r="R141" s="34"/>
+      <c r="S141" s="34"/>
+      <c r="T141" s="34"/>
+      <c r="U141" s="34"/>
+      <c r="V141" s="35"/>
+    </row>
+    <row r="142" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="O142" s="33"/>
+      <c r="P142" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q142" s="34"/>
+      <c r="R142" s="34"/>
+      <c r="S142" s="34"/>
+      <c r="T142" s="34"/>
+      <c r="U142" s="34"/>
+      <c r="V142" s="35"/>
+    </row>
+    <row r="143" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="O143" s="33"/>
+      <c r="P143" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q143" s="34"/>
+      <c r="R143" s="34"/>
+      <c r="S143" s="34"/>
+      <c r="T143" s="34"/>
+      <c r="U143" s="34"/>
+      <c r="V143" s="35"/>
+    </row>
+    <row r="144" spans="2:22" s="12" customFormat="1" ht="14.25">
+      <c r="O144" s="36"/>
+      <c r="P144" s="37"/>
+      <c r="Q144" s="37"/>
+      <c r="R144" s="37"/>
+      <c r="S144" s="37"/>
+      <c r="T144" s="37"/>
+      <c r="U144" s="37"/>
+      <c r="V144" s="38"/>
+    </row>
+    <row r="145" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="146" spans="15:22" s="12" customFormat="1" ht="14.25">
+      <c r="O146" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="P146" s="31"/>
+      <c r="Q146" s="31"/>
+      <c r="R146" s="31"/>
+      <c r="S146" s="31"/>
+      <c r="T146" s="31"/>
+      <c r="U146" s="31"/>
+      <c r="V146" s="32"/>
+    </row>
+    <row r="147" spans="15:22" s="12" customFormat="1" ht="14.25">
+      <c r="O147" s="33"/>
+      <c r="P147" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q147" s="34"/>
+      <c r="R147" s="34"/>
+      <c r="S147" s="34"/>
+      <c r="T147" s="34"/>
+      <c r="U147" s="34"/>
+      <c r="V147" s="35"/>
+    </row>
+    <row r="148" spans="15:22" s="12" customFormat="1" ht="14.25">
+      <c r="O148" s="36"/>
+      <c r="P148" s="37"/>
+      <c r="Q148" s="37"/>
+      <c r="R148" s="37"/>
+      <c r="S148" s="37"/>
+      <c r="T148" s="37"/>
+      <c r="U148" s="37"/>
+      <c r="V148" s="38"/>
+    </row>
+    <row r="149" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="150" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="151" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="152" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="153" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="154" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="155" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="156" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="157" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="158" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="159" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="160" spans="15:22" s="12" customFormat="1" ht="14.25"/>
+    <row r="161" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="162" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="163" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="164" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="165" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="166" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="167" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="168" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="169" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="170" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="171" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="172" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="173" spans="2:2" s="12" customFormat="1" ht="14.25">
+      <c r="B173" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="175" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="176" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="177" spans="2:4" s="12" customFormat="1" ht="14.25"/>
+    <row r="178" spans="2:4" s="12" customFormat="1" ht="14.25"/>
+    <row r="179" spans="2:4" s="12" customFormat="1" ht="14.25"/>
+    <row r="180" spans="2:4" s="12" customFormat="1" ht="14.25"/>
+    <row r="181" spans="2:4" s="12" customFormat="1" ht="14.25"/>
+    <row r="182" spans="2:4" s="12" customFormat="1" ht="14.25"/>
+    <row r="183" spans="2:4" s="12" customFormat="1" ht="14.25"/>
+    <row r="184" spans="2:4" s="12" customFormat="1" ht="14.25"/>
+    <row r="185" spans="2:4" s="12" customFormat="1" ht="14.25">
+      <c r="B185" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" s="12" customFormat="1" ht="14.25">
+      <c r="C186" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" s="12" customFormat="1" ht="14.25"/>
+    <row r="188" spans="2:4" s="12" customFormat="1" ht="14.25">
+      <c r="C188" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" s="12" customFormat="1" ht="14.25">
+      <c r="D189" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" s="12" customFormat="1" ht="14.25"/>
+    <row r="191" spans="2:4" s="12" customFormat="1" ht="14.25">
+      <c r="B191" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" s="12" customFormat="1" ht="14.25">
+      <c r="C192" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" s="12" customFormat="1" ht="14.25">
+      <c r="C193" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D68" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B70" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K70" s="13"/>
-    </row>
-    <row r="71" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C71" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B73" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C74" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B76" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B78" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B80" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B81" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="83" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="84" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="86" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="87" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="97" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="98" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="99" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="100" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="101" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="102" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="103" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="104" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="105" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="106" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="107" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="108" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="109" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="110" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="111" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="112" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="113" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="114" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="115" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="116" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="117" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="119" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="120" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="121" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="122" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B126" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B127" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="129" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B129" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B130" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="132" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B132" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C133" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="135" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C135" s="12" t="s">
+    <row r="194" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="195" spans="3:3" s="12" customFormat="1" ht="14.25">
+      <c r="C195" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="197" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="198" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="199" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="200" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="201" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="202" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="203" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="204" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="205" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="206" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="207" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="208" spans="3:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="209" spans="2:25" s="12" customFormat="1" ht="14.25"/>
+    <row r="210" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="C210" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="O210" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="P210" s="31"/>
+      <c r="Q210" s="31"/>
+      <c r="R210" s="31"/>
+      <c r="S210" s="31"/>
+      <c r="T210" s="31"/>
+      <c r="U210" s="31"/>
+      <c r="V210" s="31"/>
+      <c r="W210" s="31"/>
+      <c r="X210" s="31"/>
+      <c r="Y210" s="32"/>
+    </row>
+    <row r="211" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="D211" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O211" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="P211" s="34"/>
+      <c r="Q211" s="34"/>
+      <c r="R211" s="34"/>
+      <c r="S211" s="34"/>
+      <c r="T211" s="34"/>
+      <c r="U211" s="34"/>
+      <c r="V211" s="34"/>
+      <c r="W211" s="34"/>
+      <c r="X211" s="34"/>
+      <c r="Y211" s="35"/>
+    </row>
+    <row r="212" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="D212" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="O212" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P212" s="34"/>
+      <c r="Q212" s="34"/>
+      <c r="R212" s="34"/>
+      <c r="S212" s="34"/>
+      <c r="T212" s="34"/>
+      <c r="U212" s="34"/>
+      <c r="V212" s="34"/>
+      <c r="W212" s="34"/>
+      <c r="X212" s="34"/>
+      <c r="Y212" s="35"/>
+    </row>
+    <row r="213" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="D213" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O213" s="33"/>
+      <c r="P213" s="34"/>
+      <c r="Q213" s="34"/>
+      <c r="R213" s="34"/>
+      <c r="S213" s="34"/>
+      <c r="T213" s="34"/>
+      <c r="U213" s="34"/>
+      <c r="V213" s="34"/>
+      <c r="W213" s="34"/>
+      <c r="X213" s="34"/>
+      <c r="Y213" s="35"/>
+    </row>
+    <row r="214" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="D214" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E214" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="O214" s="33"/>
+      <c r="P214" s="34"/>
+      <c r="Q214" s="34"/>
+      <c r="R214" s="34"/>
+      <c r="S214" s="34"/>
+      <c r="T214" s="34"/>
+      <c r="U214" s="34"/>
+      <c r="V214" s="34"/>
+      <c r="W214" s="34"/>
+      <c r="X214" s="34"/>
+      <c r="Y214" s="35"/>
+    </row>
+    <row r="215" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="D215" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E215" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="O215" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="P215" s="34"/>
+      <c r="Q215" s="34"/>
+      <c r="R215" s="34"/>
+      <c r="S215" s="34"/>
+      <c r="T215" s="34"/>
+      <c r="U215" s="34"/>
+      <c r="V215" s="34"/>
+      <c r="W215" s="34"/>
+      <c r="X215" s="34"/>
+      <c r="Y215" s="35"/>
+    </row>
+    <row r="216" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="D216" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="O216" s="36"/>
+      <c r="P216" s="37"/>
+      <c r="Q216" s="37"/>
+      <c r="R216" s="37"/>
+      <c r="S216" s="37"/>
+      <c r="T216" s="37"/>
+      <c r="U216" s="37"/>
+      <c r="V216" s="37"/>
+      <c r="W216" s="37"/>
+      <c r="X216" s="37"/>
+      <c r="Y216" s="38"/>
+    </row>
+    <row r="217" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="D217" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="218" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="D218" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="219" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="D219" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E219" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="220" spans="2:25" s="12" customFormat="1" ht="14.25"/>
+    <row r="221" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="D221" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="222" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="D222" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="223" spans="2:25" s="12" customFormat="1" ht="14.25"/>
+    <row r="224" spans="2:25" s="12" customFormat="1" ht="14.25">
+      <c r="B224" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="C225" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="226" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="C226" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="3:16" s="12" customFormat="1" ht="14.25"/>
+    <row r="228" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="D228" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E228" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="229" spans="3:16" s="12" customFormat="1" ht="14.25"/>
+    <row r="230" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="D230" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E230" s="30"/>
+      <c r="F230" s="30"/>
+      <c r="G230" s="30"/>
+      <c r="H230" s="30"/>
+      <c r="I230" s="30"/>
+      <c r="J230" s="30"/>
+      <c r="K230" s="30"/>
+      <c r="L230" s="30"/>
+      <c r="M230" s="30"/>
+      <c r="N230" s="30"/>
+      <c r="O230" s="30"/>
+    </row>
+    <row r="231" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="D231" s="30"/>
+      <c r="E231" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F231" s="30"/>
+      <c r="G231" s="30"/>
+      <c r="H231" s="30"/>
+      <c r="I231" s="30"/>
+      <c r="J231" s="30"/>
+      <c r="K231" s="30"/>
+      <c r="L231" s="30"/>
+      <c r="M231" s="30"/>
+      <c r="N231" s="30"/>
+      <c r="O231" s="30"/>
+    </row>
+    <row r="232" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="D232" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E232" s="30"/>
+      <c r="F232" s="30"/>
+      <c r="G232" s="30"/>
+      <c r="H232" s="30"/>
+      <c r="I232" s="30"/>
+      <c r="J232" s="30"/>
+      <c r="K232" s="30"/>
+      <c r="L232" s="30"/>
+      <c r="M232" s="30"/>
+      <c r="N232" s="30"/>
+      <c r="O232" s="30"/>
+    </row>
+    <row r="233" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="D233" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E233" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F233" s="30"/>
+      <c r="G233" s="30"/>
+      <c r="H233" s="30"/>
+      <c r="I233" s="30"/>
+      <c r="J233" s="30"/>
+      <c r="K233" s="30"/>
+      <c r="L233" s="30"/>
+      <c r="M233" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="N233" s="30"/>
+      <c r="O233" s="30"/>
+      <c r="P233" s="62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="234" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="D234" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E234" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F234" s="30"/>
+      <c r="G234" s="30"/>
+      <c r="H234" s="30"/>
+      <c r="I234" s="30"/>
+      <c r="J234" s="30"/>
+      <c r="K234" s="30"/>
+      <c r="L234" s="30"/>
+      <c r="M234" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="N234" s="30"/>
+      <c r="O234" s="30"/>
+      <c r="P234" s="62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="D235" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E235" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F235" s="30"/>
+      <c r="G235" s="30"/>
+      <c r="H235" s="30"/>
+      <c r="I235" s="30"/>
+      <c r="J235" s="30"/>
+      <c r="K235" s="30"/>
+      <c r="L235" s="30"/>
+      <c r="M235" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="N235" s="30"/>
+      <c r="O235" s="30"/>
+    </row>
+    <row r="236" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="D236" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E236" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F236" s="30"/>
+      <c r="G236" s="30"/>
+      <c r="H236" s="30"/>
+      <c r="I236" s="30"/>
+      <c r="J236" s="30"/>
+      <c r="K236" s="30"/>
+      <c r="L236" s="30"/>
+      <c r="M236" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="N236" s="30"/>
+      <c r="O236" s="30"/>
+      <c r="P236" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="D237" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E237" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F237" s="30"/>
+      <c r="G237" s="30"/>
+      <c r="H237" s="30"/>
+      <c r="I237" s="30"/>
+      <c r="J237" s="30"/>
+      <c r="K237" s="30"/>
+      <c r="L237" s="30"/>
+      <c r="M237" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="N237" s="30"/>
+      <c r="O237" s="30"/>
+    </row>
+    <row r="238" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="D238" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E238" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F238" s="30"/>
+      <c r="G238" s="30"/>
+      <c r="H238" s="30"/>
+      <c r="I238" s="30"/>
+      <c r="J238" s="30"/>
+      <c r="K238" s="30"/>
+      <c r="L238" s="30"/>
+      <c r="M238" s="60">
+        <v>0</v>
+      </c>
+      <c r="N238" s="30"/>
+      <c r="O238" s="30"/>
+    </row>
+    <row r="239" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="D239" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E239" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F239" s="30"/>
+      <c r="G239" s="30"/>
+      <c r="H239" s="30"/>
+      <c r="I239" s="30"/>
+      <c r="J239" s="30"/>
+      <c r="K239" s="30"/>
+      <c r="L239" s="30"/>
+      <c r="M239" s="30"/>
+      <c r="N239" s="30"/>
+      <c r="O239" s="30"/>
+    </row>
+    <row r="240" spans="3:16" s="12" customFormat="1" ht="14.25">
+      <c r="D240" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E240" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F240" s="30"/>
+      <c r="G240" s="30"/>
+      <c r="H240" s="30"/>
+      <c r="I240" s="30"/>
+      <c r="J240" s="30"/>
+      <c r="K240" s="30"/>
+      <c r="L240" s="30"/>
+      <c r="M240" s="30"/>
+      <c r="N240" s="30"/>
+      <c r="O240" s="30"/>
+    </row>
+    <row r="241" spans="2:15" s="12" customFormat="1" ht="14.25">
+      <c r="D241" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E241" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F241" s="30"/>
+      <c r="G241" s="30"/>
+      <c r="H241" s="30"/>
+      <c r="I241" s="30"/>
+      <c r="J241" s="30"/>
+      <c r="K241" s="30"/>
+      <c r="L241" s="30"/>
+      <c r="M241" s="30"/>
+      <c r="N241" s="30"/>
+      <c r="O241" s="30"/>
+    </row>
+    <row r="242" spans="2:15" s="12" customFormat="1" ht="14.25">
+      <c r="D242" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="E242" s="61"/>
+      <c r="F242" s="61"/>
+      <c r="G242" s="61"/>
+      <c r="H242" s="61"/>
+      <c r="I242" s="61"/>
+      <c r="J242" s="61"/>
+      <c r="K242" s="61"/>
+      <c r="L242" s="61"/>
+      <c r="M242" s="61"/>
+      <c r="N242" s="61"/>
+      <c r="O242" s="61"/>
+    </row>
+    <row r="243" spans="2:15" s="12" customFormat="1" ht="14.25">
+      <c r="D243" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="E243" s="61"/>
+      <c r="F243" s="61"/>
+      <c r="G243" s="61"/>
+      <c r="H243" s="61"/>
+      <c r="I243" s="61"/>
+      <c r="J243" s="61"/>
+      <c r="K243" s="61"/>
+      <c r="L243" s="61"/>
+      <c r="M243" s="61"/>
+      <c r="N243" s="61"/>
+      <c r="O243" s="61"/>
+    </row>
+    <row r="244" spans="2:15" s="12" customFormat="1" ht="14.25">
+      <c r="D244" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E244" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F244" s="30"/>
+      <c r="G244" s="30"/>
+      <c r="H244" s="30"/>
+      <c r="I244" s="30"/>
+      <c r="J244" s="30"/>
+      <c r="K244" s="30"/>
+      <c r="L244" s="30"/>
+      <c r="M244" s="30"/>
+      <c r="N244" s="30"/>
+      <c r="O244" s="30"/>
+    </row>
+    <row r="245" spans="2:15" s="12" customFormat="1" ht="14.25">
+      <c r="D245" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E245" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F245" s="30"/>
+      <c r="G245" s="30"/>
+      <c r="H245" s="30"/>
+      <c r="I245" s="30"/>
+      <c r="J245" s="30"/>
+      <c r="K245" s="30"/>
+      <c r="L245" s="30"/>
+      <c r="M245" s="30"/>
+      <c r="N245" s="30"/>
+      <c r="O245" s="30"/>
+    </row>
+    <row r="246" spans="2:15" s="12" customFormat="1" ht="14.25">
+      <c r="D246" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E246" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F246" s="30"/>
+      <c r="G246" s="30"/>
+      <c r="H246" s="30"/>
+      <c r="I246" s="30"/>
+      <c r="J246" s="30"/>
+      <c r="K246" s="30"/>
+      <c r="L246" s="30"/>
+      <c r="M246" s="30"/>
+      <c r="N246" s="30"/>
+      <c r="O246" s="30"/>
+    </row>
+    <row r="247" spans="2:15" s="12" customFormat="1" ht="14.25">
+      <c r="D247" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E247" s="30"/>
+      <c r="F247" s="30"/>
+      <c r="G247" s="30"/>
+      <c r="H247" s="30"/>
+      <c r="I247" s="30"/>
+      <c r="J247" s="30"/>
+      <c r="K247" s="30"/>
+      <c r="L247" s="30"/>
+      <c r="M247" s="30"/>
+      <c r="N247" s="30"/>
+      <c r="O247" s="30"/>
+    </row>
+    <row r="248" spans="2:15" s="12" customFormat="1" ht="14.25">
+      <c r="D248" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E248" s="30"/>
+      <c r="F248" s="30"/>
+      <c r="G248" s="30"/>
+      <c r="H248" s="30"/>
+      <c r="I248" s="30"/>
+      <c r="J248" s="30"/>
+      <c r="K248" s="30"/>
+      <c r="L248" s="30"/>
+      <c r="M248" s="30"/>
+      <c r="N248" s="30"/>
+      <c r="O248" s="30"/>
+    </row>
+    <row r="249" spans="2:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="250" spans="2:15" s="12" customFormat="1" ht="14.25">
+      <c r="B250" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="251" spans="2:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="252" spans="2:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="253" spans="2:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="254" spans="2:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="255" spans="2:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="256" spans="2:15" s="12" customFormat="1" ht="14.25"/>
+    <row r="257" s="12" customFormat="1" ht="14.25"/>
+    <row r="258" s="12" customFormat="1" ht="14.25"/>
+    <row r="259" s="12" customFormat="1" ht="14.25"/>
+    <row r="260" s="12" customFormat="1" ht="14.25"/>
+    <row r="261" s="12" customFormat="1" ht="14.25"/>
+    <row r="262" s="12" customFormat="1" ht="14.25"/>
+    <row r="263" s="12" customFormat="1" ht="14.25"/>
+    <row r="264" s="12" customFormat="1" ht="14.25"/>
+    <row r="265" s="12" customFormat="1" ht="14.25"/>
+    <row r="266" s="12" customFormat="1" ht="14.25"/>
+    <row r="267" s="12" customFormat="1" ht="14.25"/>
+    <row r="268" s="12" customFormat="1" ht="14.25"/>
+    <row r="269" s="12" customFormat="1" ht="14.25"/>
+    <row r="270" s="12" customFormat="1" ht="14.25"/>
+    <row r="271" s="12" customFormat="1" ht="14.25"/>
+    <row r="272" s="12" customFormat="1" ht="14.25"/>
+    <row r="273" s="12" customFormat="1" ht="14.25"/>
+    <row r="274" s="12" customFormat="1" ht="14.25"/>
+    <row r="275" s="12" customFormat="1" ht="14.25"/>
+    <row r="276" s="12" customFormat="1" ht="14.25"/>
+    <row r="277" s="12" customFormat="1" ht="14.25"/>
+    <row r="278" s="12" customFormat="1" ht="14.25"/>
+    <row r="279" s="12" customFormat="1" ht="14.25"/>
+    <row r="280" s="12" customFormat="1" ht="14.25"/>
+    <row r="281" s="12" customFormat="1" ht="14.25"/>
+    <row r="282" s="12" customFormat="1" ht="14.25"/>
+    <row r="283" s="12" customFormat="1" ht="14.25"/>
+    <row r="284" s="12" customFormat="1" ht="14.25"/>
+    <row r="285" s="12" customFormat="1" ht="14.25"/>
+    <row r="286" s="12" customFormat="1" ht="14.25"/>
+    <row r="287" s="12" customFormat="1" ht="14.25"/>
+    <row r="288" s="12" customFormat="1" ht="14.25"/>
+    <row r="289" spans="3:7" s="12" customFormat="1" ht="14.25"/>
+    <row r="290" spans="3:7" s="12" customFormat="1" ht="14.25"/>
+    <row r="291" spans="3:7" s="12" customFormat="1" ht="14.25"/>
+    <row r="292" spans="3:7" s="12" customFormat="1" ht="14.25"/>
+    <row r="293" spans="3:7" s="12" customFormat="1" ht="14.25"/>
+    <row r="294" spans="3:7" s="12" customFormat="1" ht="14.25"/>
+    <row r="295" spans="3:7" s="12" customFormat="1" ht="14.25">
+      <c r="C295" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="296" spans="3:7" s="12" customFormat="1" ht="14.25">
+      <c r="D296" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="297" spans="3:7" s="12" customFormat="1" ht="14.25">
+      <c r="E297" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G297" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="298" spans="3:7" s="12" customFormat="1" ht="14.25">
+      <c r="E298" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G298" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="299" spans="3:7" s="12" customFormat="1" ht="14.25">
+      <c r="E299" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G299" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="300" spans="3:7" s="12" customFormat="1" ht="14.25"/>
+    <row r="301" spans="3:7" s="12" customFormat="1" ht="14.25">
+      <c r="C301" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="302" spans="3:7" s="12" customFormat="1" ht="14.25"/>
+    <row r="303" spans="3:7" s="12" customFormat="1" ht="14.25">
+      <c r="C303" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="304" spans="3:7" s="12" customFormat="1" ht="14.25">
+      <c r="D304" s="62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="306" spans="2:2" s="12" customFormat="1" ht="14.25">
+      <c r="B306" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="308" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="309" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="310" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="311" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="312" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="313" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="314" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="315" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="316" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="317" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="318" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="319" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="320" spans="2:2" s="12" customFormat="1" ht="14.25"/>
+    <row r="321" spans="2:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="322" spans="2:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="323" spans="2:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="324" spans="2:3" s="12" customFormat="1" ht="14.25">
+      <c r="B324" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="137" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="138" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="139" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="140" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="141" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="143" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="144" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="145" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="146" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="147" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="148" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="149" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="150" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="151" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="152" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="153" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="154" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="155" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="156" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="157" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="158" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="159" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="160" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="161" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="162" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="163" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="164" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="165" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="166" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="167" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="169" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="170" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="171" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B171" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="173" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="174" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="175" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="177" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="178" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="179" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="180" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="181" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="182" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="183" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B183" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C184" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="186" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C186" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D187" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="189" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B189" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C190" s="12" t="s">
+    <row r="325" spans="2:3" s="12" customFormat="1" ht="14.25">
+      <c r="C325" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="327" spans="2:3" s="12" customFormat="1" ht="14.25">
+      <c r="B327" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="329" spans="2:3" s="12" customFormat="1" ht="14.25">
+      <c r="B329" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="331" spans="2:3" s="12" customFormat="1" ht="14.25">
+      <c r="B331" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C191" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="193" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C193" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="195" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="196" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="197" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="198" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="199" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="200" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="201" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="202" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="203" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="204" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="205" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="206" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="207" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="208" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B208" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="209" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C209" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="210" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C210" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="211" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="212" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="213" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B213" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L213" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="214" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C214" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D214" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L214" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="215" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C215" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D215" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L215" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="216" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C216" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D216" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L216" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="217" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C217" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D217" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="218" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C218" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D218" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="219" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C219" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D219" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L219" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="220" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C220" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D220" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="221" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C221" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D221" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="222" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C222" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="223" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="224" spans="2:12" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C224" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C225" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="227" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="228" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="229" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="230" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="231" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="232" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="233" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="234" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="235" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="236" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B236" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="238" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="239" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="240" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="241" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="242" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="243" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="244" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="245" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="246" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="247" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="248" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="249" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="250" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="251" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="252" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="253" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="254" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="255" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="256" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="257" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="258" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="259" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="260" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="261" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="262" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="263" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="264" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="265" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="266" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="267" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="268" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="269" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="270" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="271" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="272" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="273" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="274" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="275" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="276" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="277" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="278" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="279" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="280" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="281" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="282" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="283" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="284" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="285" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="286" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="287" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="288" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="289" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="290" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="291" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="292" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="293" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="294" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="295" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="296" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="297" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="298" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="299" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="300" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="301" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B301" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="302" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C302" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="303" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="304" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B304" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="306" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B306" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="308" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B308" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="310" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="311" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="312" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="313" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="314" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="315" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="316" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="317" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="318" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="319" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="320" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="321" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="322" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="323" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="324" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="325" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="326" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="327" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="328" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="329" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="330" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="331" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="332" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="333" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="334" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="335" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="336" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="337" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="338" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="339" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="340" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="341" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="342" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="343" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="344" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="345" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="346" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="347" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="348" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="349" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="350" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="351" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="352" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="353" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="354" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="355" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="356" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="357" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="358" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="359" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="360" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="361" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="362" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="363" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="364" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="365" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="366" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="367" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="368" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="369" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="370" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="371" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="372" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="373" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="374" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="375" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="376" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="377" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="378" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="379" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="380" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="381" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="382" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="383" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="384" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="385" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="386" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="387" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="388" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="389" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="390" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="391" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="392" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="393" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="394" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="395" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="396" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="397" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="398" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="399" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="400" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="401" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="402" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="403" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="404" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="405" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="406" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="407" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="408" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="409" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="410" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="411" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="412" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="413" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="414" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="415" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="416" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="417" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="418" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="419" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="420" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="421" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="422" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="423" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="424" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="425" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="426" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="427" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="428" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="429" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="430" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="431" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="432" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="433" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="434" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="435" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="436" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="437" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="438" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="439" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="440" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="441" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="442" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="443" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="444" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="445" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="446" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="447" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="448" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="449" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="450" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="451" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="452" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="453" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="454" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="455" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="456" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="457" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="458" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="459" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="460" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="461" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="462" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="463" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="464" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="465" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="466" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="467" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="468" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="469" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="470" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="471" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="472" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="473" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="474" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="475" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="476" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="477" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="478" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="479" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="480" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="481" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="482" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="483" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="484" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="485" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="486" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="487" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="488" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="489" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="490" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="491" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="492" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="493" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="494" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="495" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="496" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="497" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="498" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="499" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="500" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="501" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="502" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="503" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="504" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="505" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="506" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="507" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="508" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="509" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="510" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="511" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="512" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="513" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="514" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="515" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="516" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="517" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="518" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="519" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="520" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="521" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="522" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="523" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="524" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="525" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="526" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="527" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="528" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="529" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="530" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="531" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="532" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="533" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="534" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="535" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="536" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="537" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="538" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="539" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="540" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="541" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="542" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="543" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="544" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="545" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="546" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="547" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="548" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="549" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="550" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="551" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="552" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="553" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="554" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="555" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="556" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="557" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="558" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="559" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="560" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="561" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="562" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="563" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="564" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="565" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="566" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="567" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="568" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="569" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="570" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="571" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="572" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="573" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="574" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="575" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="576" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="577" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="578" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="579" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="580" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="581" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="582" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="583" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="584" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="585" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="586" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="587" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="588" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="589" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="590" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="591" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="592" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="593" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="594" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="595" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="596" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="597" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="598" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="599" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="600" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="601" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="602" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="603" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="604" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="605" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="606" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="607" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="608" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="609" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="610" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="611" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="612" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="613" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="614" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="615" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="616" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="617" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="618" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="619" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="620" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="621" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="622" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="623" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="624" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="625" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="626" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="627" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="628" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="629" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="630" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="631" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="632" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="633" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="634" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="332" spans="2:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="333" spans="2:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="334" spans="2:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="335" spans="2:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="336" spans="2:3" s="12" customFormat="1" ht="14.25"/>
+    <row r="337" s="12" customFormat="1" ht="14.25"/>
+    <row r="338" s="12" customFormat="1" ht="14.25"/>
+    <row r="339" s="12" customFormat="1" ht="14.25"/>
+    <row r="340" s="12" customFormat="1" ht="14.25"/>
+    <row r="341" s="12" customFormat="1" ht="14.25"/>
+    <row r="342" s="12" customFormat="1" ht="14.25"/>
+    <row r="343" s="12" customFormat="1" ht="14.25"/>
+    <row r="344" s="12" customFormat="1" ht="14.25"/>
+    <row r="345" s="12" customFormat="1" ht="14.25"/>
+    <row r="346" s="12" customFormat="1" ht="14.25"/>
+    <row r="347" s="12" customFormat="1" ht="14.25"/>
+    <row r="348" s="12" customFormat="1" ht="14.25"/>
+    <row r="349" s="12" customFormat="1" ht="14.25"/>
+    <row r="350" s="12" customFormat="1" ht="14.25"/>
+    <row r="351" s="12" customFormat="1" ht="14.25"/>
+    <row r="352" s="12" customFormat="1" ht="14.25"/>
+    <row r="353" s="12" customFormat="1" ht="14.25"/>
+    <row r="354" s="12" customFormat="1" ht="14.25"/>
+    <row r="355" s="12" customFormat="1" ht="14.25"/>
+    <row r="356" s="12" customFormat="1" ht="14.25"/>
+    <row r="357" s="12" customFormat="1" ht="14.25"/>
+    <row r="358" s="12" customFormat="1" ht="14.25"/>
+    <row r="359" s="12" customFormat="1" ht="14.25"/>
+    <row r="360" s="12" customFormat="1" ht="14.25"/>
+    <row r="361" s="12" customFormat="1" ht="14.25"/>
+    <row r="362" s="12" customFormat="1" ht="14.25"/>
+    <row r="363" s="12" customFormat="1" ht="14.25"/>
+    <row r="364" s="12" customFormat="1" ht="14.25"/>
+    <row r="365" s="12" customFormat="1" ht="14.25"/>
+    <row r="366" s="12" customFormat="1" ht="14.25"/>
+    <row r="367" s="12" customFormat="1" ht="14.25"/>
+    <row r="368" s="12" customFormat="1" ht="14.25"/>
+    <row r="369" s="12" customFormat="1" ht="14.25"/>
+    <row r="370" s="12" customFormat="1" ht="14.25"/>
+    <row r="371" s="12" customFormat="1" ht="14.25"/>
+    <row r="372" s="12" customFormat="1" ht="14.25"/>
+    <row r="373" s="12" customFormat="1" ht="14.25"/>
+    <row r="374" s="12" customFormat="1" ht="14.25"/>
+    <row r="375" s="12" customFormat="1" ht="14.25"/>
+    <row r="376" s="12" customFormat="1" ht="14.25"/>
+    <row r="377" s="12" customFormat="1" ht="14.25"/>
+    <row r="378" s="12" customFormat="1" ht="14.25"/>
+    <row r="379" s="12" customFormat="1" ht="14.25"/>
+    <row r="380" s="12" customFormat="1" ht="14.25"/>
+    <row r="381" s="12" customFormat="1" ht="14.25"/>
+    <row r="382" s="12" customFormat="1" ht="14.25"/>
+    <row r="383" s="12" customFormat="1" ht="14.25"/>
+    <row r="384" s="12" customFormat="1" ht="14.25"/>
+    <row r="385" s="12" customFormat="1" ht="14.25"/>
+    <row r="386" s="12" customFormat="1" ht="14.25"/>
+    <row r="387" s="12" customFormat="1" ht="14.25"/>
+    <row r="388" s="12" customFormat="1" ht="14.25"/>
+    <row r="389" s="12" customFormat="1" ht="14.25"/>
+    <row r="390" s="12" customFormat="1" ht="14.25"/>
+    <row r="391" s="12" customFormat="1" ht="14.25"/>
+    <row r="392" s="12" customFormat="1" ht="14.25"/>
+    <row r="393" s="12" customFormat="1" ht="14.25"/>
+    <row r="394" s="12" customFormat="1" ht="14.25"/>
+    <row r="395" s="12" customFormat="1" ht="14.25"/>
+    <row r="396" s="12" customFormat="1" ht="14.25"/>
+    <row r="397" s="12" customFormat="1" ht="14.25"/>
+    <row r="398" s="12" customFormat="1" ht="14.25"/>
+    <row r="399" s="12" customFormat="1" ht="14.25"/>
+    <row r="400" s="12" customFormat="1" ht="14.25"/>
+    <row r="401" s="12" customFormat="1" ht="14.25"/>
+    <row r="402" s="12" customFormat="1" ht="14.25"/>
+    <row r="403" s="12" customFormat="1" ht="14.25"/>
+    <row r="404" s="12" customFormat="1" ht="14.25"/>
+    <row r="405" s="12" customFormat="1" ht="14.25"/>
+    <row r="406" s="12" customFormat="1" ht="14.25"/>
+    <row r="407" s="12" customFormat="1" ht="14.25"/>
+    <row r="408" s="12" customFormat="1" ht="14.25"/>
+    <row r="409" s="12" customFormat="1" ht="14.25"/>
+    <row r="410" s="12" customFormat="1" ht="14.25"/>
+    <row r="411" s="12" customFormat="1" ht="14.25"/>
+    <row r="412" s="12" customFormat="1" ht="14.25"/>
+    <row r="413" s="12" customFormat="1" ht="14.25"/>
+    <row r="414" s="12" customFormat="1" ht="14.25"/>
+    <row r="415" s="12" customFormat="1" ht="14.25"/>
+    <row r="416" s="12" customFormat="1" ht="14.25"/>
+    <row r="417" s="12" customFormat="1" ht="14.25"/>
+    <row r="418" s="12" customFormat="1" ht="14.25"/>
+    <row r="419" s="12" customFormat="1" ht="14.25"/>
+    <row r="420" s="12" customFormat="1" ht="14.25"/>
+    <row r="421" s="12" customFormat="1" ht="14.25"/>
+    <row r="422" s="12" customFormat="1" ht="14.25"/>
+    <row r="423" s="12" customFormat="1" ht="14.25"/>
+    <row r="424" s="12" customFormat="1" ht="14.25"/>
+    <row r="425" s="12" customFormat="1" ht="14.25"/>
+    <row r="426" s="12" customFormat="1" ht="14.25"/>
+    <row r="427" s="12" customFormat="1" ht="14.25"/>
+    <row r="428" s="12" customFormat="1" ht="14.25"/>
+    <row r="429" s="12" customFormat="1" ht="14.25"/>
+    <row r="430" s="12" customFormat="1" ht="14.25"/>
+    <row r="431" s="12" customFormat="1" ht="14.25"/>
+    <row r="432" s="12" customFormat="1" ht="14.25"/>
+    <row r="433" s="12" customFormat="1" ht="14.25"/>
+    <row r="434" s="12" customFormat="1" ht="14.25"/>
+    <row r="435" s="12" customFormat="1" ht="14.25"/>
+    <row r="436" s="12" customFormat="1" ht="14.25"/>
+    <row r="437" s="12" customFormat="1" ht="14.25"/>
+    <row r="438" s="12" customFormat="1" ht="14.25"/>
+    <row r="439" s="12" customFormat="1" ht="14.25"/>
+    <row r="440" s="12" customFormat="1" ht="14.25"/>
+    <row r="441" s="12" customFormat="1" ht="14.25"/>
+    <row r="442" s="12" customFormat="1" ht="14.25"/>
+    <row r="443" s="12" customFormat="1" ht="14.25"/>
+    <row r="444" s="12" customFormat="1" ht="14.25"/>
+    <row r="445" s="12" customFormat="1" ht="14.25"/>
+    <row r="446" s="12" customFormat="1" ht="14.25"/>
+    <row r="447" s="12" customFormat="1" ht="14.25"/>
+    <row r="448" s="12" customFormat="1" ht="14.25"/>
+    <row r="449" s="12" customFormat="1" ht="14.25"/>
+    <row r="450" s="12" customFormat="1" ht="14.25"/>
+    <row r="451" s="12" customFormat="1" ht="14.25"/>
+    <row r="452" s="12" customFormat="1" ht="14.25"/>
+    <row r="453" s="12" customFormat="1" ht="14.25"/>
+    <row r="454" s="12" customFormat="1" ht="14.25"/>
+    <row r="455" s="12" customFormat="1" ht="14.25"/>
+    <row r="456" s="12" customFormat="1" ht="14.25"/>
+    <row r="457" s="12" customFormat="1" ht="14.25"/>
+    <row r="458" s="12" customFormat="1" ht="14.25"/>
+    <row r="459" s="12" customFormat="1" ht="14.25"/>
+    <row r="460" s="12" customFormat="1" ht="14.25"/>
+    <row r="461" s="12" customFormat="1" ht="14.25"/>
+    <row r="462" s="12" customFormat="1" ht="14.25"/>
+    <row r="463" s="12" customFormat="1" ht="14.25"/>
+    <row r="464" s="12" customFormat="1" ht="14.25"/>
+    <row r="465" s="12" customFormat="1" ht="14.25"/>
+    <row r="466" s="12" customFormat="1" ht="14.25"/>
+    <row r="467" s="12" customFormat="1" ht="14.25"/>
+    <row r="468" s="12" customFormat="1" ht="14.25"/>
+    <row r="469" s="12" customFormat="1" ht="14.25"/>
+    <row r="470" s="12" customFormat="1" ht="14.25"/>
+    <row r="471" s="12" customFormat="1" ht="14.25"/>
+    <row r="472" s="12" customFormat="1" ht="14.25"/>
+    <row r="473" s="12" customFormat="1" ht="14.25"/>
+    <row r="474" s="12" customFormat="1" ht="14.25"/>
+    <row r="475" s="12" customFormat="1" ht="14.25"/>
+    <row r="476" s="12" customFormat="1" ht="14.25"/>
+    <row r="477" s="12" customFormat="1" ht="14.25"/>
+    <row r="478" s="12" customFormat="1" ht="14.25"/>
+    <row r="479" s="12" customFormat="1" ht="14.25"/>
+    <row r="480" s="12" customFormat="1" ht="14.25"/>
+    <row r="481" s="12" customFormat="1" ht="14.25"/>
+    <row r="482" s="12" customFormat="1" ht="14.25"/>
+    <row r="483" s="12" customFormat="1" ht="14.25"/>
+    <row r="484" s="12" customFormat="1" ht="14.25"/>
+    <row r="485" s="12" customFormat="1" ht="14.25"/>
+    <row r="486" s="12" customFormat="1" ht="14.25"/>
+    <row r="487" s="12" customFormat="1" ht="14.25"/>
+    <row r="488" s="12" customFormat="1" ht="14.25"/>
+    <row r="489" s="12" customFormat="1" ht="14.25"/>
+    <row r="490" s="12" customFormat="1" ht="14.25"/>
+    <row r="491" s="12" customFormat="1" ht="14.25"/>
+    <row r="492" s="12" customFormat="1" ht="14.25"/>
+    <row r="493" s="12" customFormat="1" ht="14.25"/>
+    <row r="494" s="12" customFormat="1" ht="14.25"/>
+    <row r="495" s="12" customFormat="1" ht="14.25"/>
+    <row r="496" s="12" customFormat="1" ht="14.25"/>
+    <row r="497" s="12" customFormat="1" ht="14.25"/>
+    <row r="498" s="12" customFormat="1" ht="14.25"/>
+    <row r="499" s="12" customFormat="1" ht="14.25"/>
+    <row r="500" s="12" customFormat="1" ht="14.25"/>
+    <row r="501" s="12" customFormat="1" ht="14.25"/>
+    <row r="502" s="12" customFormat="1" ht="14.25"/>
+    <row r="503" s="12" customFormat="1" ht="14.25"/>
+    <row r="504" s="12" customFormat="1" ht="14.25"/>
+    <row r="505" s="12" customFormat="1" ht="14.25"/>
+    <row r="506" s="12" customFormat="1" ht="14.25"/>
+    <row r="507" s="12" customFormat="1" ht="14.25"/>
+    <row r="508" s="12" customFormat="1" ht="14.25"/>
+    <row r="509" s="12" customFormat="1" ht="14.25"/>
+    <row r="510" s="12" customFormat="1" ht="14.25"/>
+    <row r="511" s="12" customFormat="1" ht="14.25"/>
+    <row r="512" s="12" customFormat="1" ht="14.25"/>
+    <row r="513" s="12" customFormat="1" ht="14.25"/>
+    <row r="514" s="12" customFormat="1" ht="14.25"/>
+    <row r="515" s="12" customFormat="1" ht="14.25"/>
+    <row r="516" s="12" customFormat="1" ht="14.25"/>
+    <row r="517" s="12" customFormat="1" ht="14.25"/>
+    <row r="518" s="12" customFormat="1" ht="14.25"/>
+    <row r="519" s="12" customFormat="1" ht="14.25"/>
+    <row r="520" s="12" customFormat="1" ht="14.25"/>
+    <row r="521" s="12" customFormat="1" ht="14.25"/>
+    <row r="522" s="12" customFormat="1" ht="14.25"/>
+    <row r="523" s="12" customFormat="1" ht="14.25"/>
+    <row r="524" s="12" customFormat="1" ht="14.25"/>
+    <row r="525" s="12" customFormat="1" ht="14.25"/>
+    <row r="526" s="12" customFormat="1" ht="14.25"/>
+    <row r="527" s="12" customFormat="1" ht="14.25"/>
+    <row r="528" s="12" customFormat="1" ht="14.25"/>
+    <row r="529" s="12" customFormat="1" ht="14.25"/>
+    <row r="530" s="12" customFormat="1" ht="14.25"/>
+    <row r="531" s="12" customFormat="1" ht="14.25"/>
+    <row r="532" s="12" customFormat="1" ht="14.25"/>
+    <row r="533" s="12" customFormat="1" ht="14.25"/>
+    <row r="534" s="12" customFormat="1" ht="14.25"/>
+    <row r="535" s="12" customFormat="1" ht="14.25"/>
+    <row r="536" s="12" customFormat="1" ht="14.25"/>
+    <row r="537" s="12" customFormat="1" ht="14.25"/>
+    <row r="538" s="12" customFormat="1" ht="14.25"/>
+    <row r="539" s="12" customFormat="1" ht="14.25"/>
+    <row r="540" s="12" customFormat="1" ht="14.25"/>
+    <row r="541" s="12" customFormat="1" ht="14.25"/>
+    <row r="542" s="12" customFormat="1" ht="14.25"/>
+    <row r="543" s="12" customFormat="1" ht="14.25"/>
+    <row r="544" s="12" customFormat="1" ht="14.25"/>
+    <row r="545" s="12" customFormat="1" ht="14.25"/>
+    <row r="546" s="12" customFormat="1" ht="14.25"/>
+    <row r="547" s="12" customFormat="1" ht="14.25"/>
+    <row r="548" s="12" customFormat="1" ht="14.25"/>
+    <row r="549" s="12" customFormat="1" ht="14.25"/>
+    <row r="550" s="12" customFormat="1" ht="14.25"/>
+    <row r="551" s="12" customFormat="1" ht="14.25"/>
+    <row r="552" s="12" customFormat="1" ht="14.25"/>
+    <row r="553" s="12" customFormat="1" ht="14.25"/>
+    <row r="554" s="12" customFormat="1" ht="14.25"/>
+    <row r="555" s="12" customFormat="1" ht="14.25"/>
+    <row r="556" s="12" customFormat="1" ht="14.25"/>
+    <row r="557" s="12" customFormat="1" ht="14.25"/>
+    <row r="558" s="12" customFormat="1" ht="14.25"/>
+    <row r="559" s="12" customFormat="1" ht="14.25"/>
+    <row r="560" s="12" customFormat="1" ht="14.25"/>
+    <row r="561" s="12" customFormat="1" ht="14.25"/>
+    <row r="562" s="12" customFormat="1" ht="14.25"/>
+    <row r="563" s="12" customFormat="1" ht="14.25"/>
+    <row r="564" s="12" customFormat="1" ht="14.25"/>
+    <row r="565" s="12" customFormat="1" ht="14.25"/>
+    <row r="566" s="12" customFormat="1" ht="14.25"/>
+    <row r="567" s="12" customFormat="1" ht="14.25"/>
+    <row r="568" s="12" customFormat="1" ht="14.25"/>
+    <row r="569" s="12" customFormat="1" ht="14.25"/>
+    <row r="570" s="12" customFormat="1" ht="14.25"/>
+    <row r="571" s="12" customFormat="1" ht="14.25"/>
+    <row r="572" s="12" customFormat="1" ht="14.25"/>
+    <row r="573" s="12" customFormat="1" ht="14.25"/>
+    <row r="574" s="12" customFormat="1" ht="14.25"/>
+    <row r="575" s="12" customFormat="1" ht="14.25"/>
+    <row r="576" s="12" customFormat="1" ht="14.25"/>
+    <row r="577" s="12" customFormat="1" ht="14.25"/>
+    <row r="578" s="12" customFormat="1" ht="14.25"/>
+    <row r="579" s="12" customFormat="1" ht="14.25"/>
+    <row r="580" s="12" customFormat="1" ht="14.25"/>
+    <row r="581" s="12" customFormat="1" ht="14.25"/>
+    <row r="582" s="12" customFormat="1" ht="14.25"/>
+    <row r="583" s="12" customFormat="1" ht="14.25"/>
+    <row r="584" s="12" customFormat="1" ht="14.25"/>
+    <row r="585" s="12" customFormat="1" ht="14.25"/>
+    <row r="586" s="12" customFormat="1" ht="14.25"/>
+    <row r="587" s="12" customFormat="1" ht="14.25"/>
+    <row r="588" s="12" customFormat="1" ht="14.25"/>
+    <row r="589" s="12" customFormat="1" ht="14.25"/>
+    <row r="590" s="12" customFormat="1" ht="14.25"/>
+    <row r="591" s="12" customFormat="1" ht="14.25"/>
+    <row r="592" s="12" customFormat="1" ht="14.25"/>
+    <row r="593" s="12" customFormat="1" ht="14.25"/>
+    <row r="594" s="12" customFormat="1" ht="14.25"/>
+    <row r="595" s="12" customFormat="1" ht="14.25"/>
+    <row r="596" s="12" customFormat="1" ht="14.25"/>
+    <row r="597" s="12" customFormat="1" ht="14.25"/>
+    <row r="598" s="12" customFormat="1" ht="14.25"/>
+    <row r="599" s="12" customFormat="1" ht="14.25"/>
+    <row r="600" s="12" customFormat="1" ht="14.25"/>
+    <row r="601" s="12" customFormat="1" ht="14.25"/>
+    <row r="602" s="12" customFormat="1" ht="14.25"/>
+    <row r="603" s="12" customFormat="1" ht="14.25"/>
+    <row r="604" s="12" customFormat="1" ht="14.25"/>
+    <row r="605" s="12" customFormat="1" ht="14.25"/>
+    <row r="606" s="12" customFormat="1" ht="14.25"/>
+    <row r="607" s="12" customFormat="1" ht="14.25"/>
+    <row r="608" s="12" customFormat="1" ht="14.25"/>
+    <row r="609" s="12" customFormat="1" ht="14.25"/>
+    <row r="610" s="12" customFormat="1" ht="14.25"/>
+    <row r="611" s="12" customFormat="1" ht="14.25"/>
+    <row r="612" s="12" customFormat="1" ht="14.25"/>
+    <row r="613" s="12" customFormat="1" ht="14.25"/>
+    <row r="614" s="12" customFormat="1" ht="14.25"/>
+    <row r="615" s="12" customFormat="1" ht="14.25"/>
+    <row r="616" s="12" customFormat="1" ht="14.25"/>
+    <row r="617" s="12" customFormat="1" ht="14.25"/>
+    <row r="618" s="12" customFormat="1" ht="14.25"/>
+    <row r="619" s="12" customFormat="1" ht="14.25"/>
+    <row r="620" s="12" customFormat="1" ht="14.25"/>
+    <row r="621" s="12" customFormat="1" ht="14.25"/>
+    <row r="622" s="12" customFormat="1" ht="14.25"/>
+    <row r="623" s="12" customFormat="1" ht="14.25"/>
+    <row r="624" s="12" customFormat="1" ht="14.25"/>
+    <row r="625" s="12" customFormat="1" ht="14.25"/>
+    <row r="626" s="12" customFormat="1" ht="14.25"/>
+    <row r="627" s="12" customFormat="1" ht="14.25"/>
+    <row r="628" s="12" customFormat="1" ht="14.25"/>
+    <row r="629" s="12" customFormat="1" ht="14.25"/>
+    <row r="630" s="12" customFormat="1" ht="14.25"/>
+    <row r="631" s="12" customFormat="1" ht="14.25"/>
+    <row r="632" s="12" customFormat="1" ht="14.25"/>
+    <row r="633" s="12" customFormat="1" ht="14.25"/>
+    <row r="634" s="12" customFormat="1" ht="14.25"/>
+    <row r="635" s="12" customFormat="1" ht="14.25"/>
+    <row r="636" s="12" customFormat="1" ht="14.25"/>
+    <row r="637" s="12" customFormat="1" ht="14.25"/>
+    <row r="638" s="12" customFormat="1" ht="14.25"/>
+    <row r="639" s="12" customFormat="1" ht="14.25"/>
+    <row r="640" s="12" customFormat="1" ht="14.25"/>
+    <row r="641" s="12" customFormat="1" ht="14.25"/>
+    <row r="642" s="12" customFormat="1" ht="14.25"/>
+    <row r="643" s="12" customFormat="1" ht="14.25"/>
+    <row r="644" s="12" customFormat="1" ht="14.25"/>
+    <row r="645" s="12" customFormat="1" ht="14.25"/>
+    <row r="646" s="12" customFormat="1" ht="14.25"/>
+    <row r="647" s="12" customFormat="1" ht="14.25"/>
+    <row r="648" s="12" customFormat="1" ht="14.25"/>
+    <row r="649" s="12" customFormat="1" ht="14.25"/>
+    <row r="650" s="12" customFormat="1" ht="14.25"/>
+    <row r="651" s="12" customFormat="1" ht="14.25"/>
+    <row r="652" s="12" customFormat="1" ht="14.25"/>
+    <row r="653" s="12" customFormat="1" ht="14.25"/>
+    <row r="654" s="12" customFormat="1" ht="14.25"/>
+    <row r="655" s="12" customFormat="1" ht="14.25"/>
+    <row r="656" s="12" customFormat="1" ht="14.25"/>
+    <row r="657" s="12" customFormat="1" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3760,27 +6489,929 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q657"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="F354" sqref="F354"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="63"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>88</v>
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+      <c r="A1" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
+    <row r="3" spans="1:15">
+      <c r="B3" s="63" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="63" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="C7" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="C8" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="C9" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="63" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="63" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="3:17">
+      <c r="C65" s="63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17">
+      <c r="D66" s="63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="3:17">
+      <c r="C68" s="63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="3:17">
+      <c r="D69" s="63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="3:17">
+      <c r="D70" s="63" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="3:17">
+      <c r="D72" s="63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="3:17">
+      <c r="E73" s="63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="3:17">
+      <c r="E74" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="F74" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="J74" s="64"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="O74" s="64"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
+    </row>
+    <row r="75" spans="3:17">
+      <c r="E75" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="3:17">
+      <c r="E76" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="F76" s="63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="3:17">
+      <c r="E77" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="F77" s="63" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="3:17">
+      <c r="E78" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="F78" s="63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="63" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3">
+      <c r="C255" s="63" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" s="63" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="345" spans="3:4">
+      <c r="C345" s="63" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="346" spans="3:4">
+      <c r="D346" s="63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="347" spans="3:4">
+      <c r="D347" s="63" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4">
+      <c r="C348" s="63" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="349" spans="3:4">
+      <c r="C349" s="63" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4">
+      <c r="C350" s="63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4">
+      <c r="C351" s="63" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="352" spans="3:4">
+      <c r="C352" s="63" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3">
+      <c r="C353" s="63" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3">
+      <c r="C354" s="63" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="613" spans="2:13">
+      <c r="B613" s="63" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="614" spans="2:13" ht="15.75">
+      <c r="B614" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C614" s="67"/>
+      <c r="D614" s="67"/>
+      <c r="E614" s="67"/>
+      <c r="F614" s="67"/>
+      <c r="G614" s="67"/>
+      <c r="H614" s="67"/>
+      <c r="I614" s="67"/>
+      <c r="J614" s="67"/>
+      <c r="K614" s="66"/>
+      <c r="L614" s="66"/>
+      <c r="M614" s="66"/>
+    </row>
+    <row r="615" spans="2:13" ht="15.75">
+      <c r="B615" s="67"/>
+      <c r="C615" s="67"/>
+      <c r="D615" s="67"/>
+      <c r="E615" s="67"/>
+      <c r="F615" s="67"/>
+      <c r="G615" s="67"/>
+      <c r="H615" s="67"/>
+      <c r="I615" s="67"/>
+      <c r="J615" s="67"/>
+      <c r="K615" s="66"/>
+      <c r="L615" s="66"/>
+      <c r="M615" s="66"/>
+    </row>
+    <row r="616" spans="2:13" ht="15.75">
+      <c r="B616" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C616" s="67"/>
+      <c r="D616" s="67"/>
+      <c r="E616" s="67"/>
+      <c r="F616" s="67"/>
+      <c r="G616" s="67"/>
+      <c r="H616" s="67"/>
+      <c r="I616" s="67"/>
+      <c r="J616" s="67"/>
+      <c r="K616" s="66"/>
+      <c r="L616" s="66"/>
+      <c r="M616" s="66"/>
+    </row>
+    <row r="617" spans="2:13" ht="15.75">
+      <c r="B617" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="C617" s="67"/>
+      <c r="D617" s="67"/>
+      <c r="E617" s="67"/>
+      <c r="F617" s="67"/>
+      <c r="G617" s="67"/>
+      <c r="H617" s="67"/>
+      <c r="I617" s="67"/>
+      <c r="J617" s="67"/>
+      <c r="K617" s="66"/>
+      <c r="L617" s="66"/>
+      <c r="M617" s="66"/>
+    </row>
+    <row r="618" spans="2:13" ht="15.75">
+      <c r="B618" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="C618" s="67"/>
+      <c r="D618" s="67"/>
+      <c r="E618" s="67"/>
+      <c r="F618" s="67"/>
+      <c r="G618" s="67"/>
+      <c r="H618" s="67"/>
+      <c r="I618" s="67"/>
+      <c r="J618" s="67"/>
+      <c r="K618" s="66"/>
+      <c r="L618" s="66"/>
+      <c r="M618" s="66"/>
+    </row>
+    <row r="619" spans="2:13" ht="15.75">
+      <c r="B619" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="C619" s="67"/>
+      <c r="D619" s="67"/>
+      <c r="E619" s="67"/>
+      <c r="F619" s="67"/>
+      <c r="G619" s="67"/>
+      <c r="H619" s="67"/>
+      <c r="I619" s="67"/>
+      <c r="J619" s="67"/>
+      <c r="K619" s="66"/>
+      <c r="L619" s="66"/>
+      <c r="M619" s="66"/>
+    </row>
+    <row r="620" spans="2:13" ht="15.75">
+      <c r="B620" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="C620" s="67"/>
+      <c r="D620" s="67"/>
+      <c r="E620" s="67"/>
+      <c r="F620" s="67"/>
+      <c r="G620" s="67"/>
+      <c r="H620" s="67"/>
+      <c r="I620" s="67"/>
+      <c r="J620" s="67"/>
+      <c r="K620" s="66"/>
+      <c r="L620" s="66"/>
+      <c r="M620" s="66"/>
+    </row>
+    <row r="621" spans="2:13" ht="15.75">
+      <c r="B621" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="C621" s="67"/>
+      <c r="D621" s="67"/>
+      <c r="E621" s="67"/>
+      <c r="F621" s="67"/>
+      <c r="G621" s="67"/>
+      <c r="H621" s="67"/>
+      <c r="I621" s="67"/>
+      <c r="J621" s="67"/>
+      <c r="K621" s="66"/>
+      <c r="L621" s="66"/>
+      <c r="M621" s="66"/>
+    </row>
+    <row r="622" spans="2:13" ht="15.75">
+      <c r="B622" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="C622" s="67"/>
+      <c r="D622" s="67"/>
+      <c r="E622" s="67"/>
+      <c r="F622" s="67"/>
+      <c r="G622" s="67"/>
+      <c r="H622" s="67"/>
+      <c r="I622" s="67"/>
+      <c r="J622" s="67"/>
+      <c r="K622" s="66"/>
+      <c r="L622" s="66"/>
+      <c r="M622" s="66"/>
+    </row>
+    <row r="623" spans="2:13" ht="15.75">
+      <c r="B623" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="C623" s="67"/>
+      <c r="D623" s="67"/>
+      <c r="E623" s="67"/>
+      <c r="F623" s="67"/>
+      <c r="G623" s="67"/>
+      <c r="H623" s="67"/>
+      <c r="I623" s="67"/>
+      <c r="J623" s="67"/>
+      <c r="K623" s="66"/>
+      <c r="L623" s="66"/>
+      <c r="M623" s="66"/>
+    </row>
+    <row r="624" spans="2:13" ht="15.75">
+      <c r="B624" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="C624" s="67"/>
+      <c r="D624" s="67"/>
+      <c r="E624" s="67"/>
+      <c r="F624" s="67"/>
+      <c r="G624" s="67"/>
+      <c r="H624" s="67"/>
+      <c r="I624" s="67"/>
+      <c r="J624" s="67"/>
+      <c r="K624" s="66"/>
+      <c r="L624" s="66"/>
+      <c r="M624" s="66"/>
+    </row>
+    <row r="625" spans="2:13" ht="15.75">
+      <c r="B625" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="C625" s="67"/>
+      <c r="D625" s="67"/>
+      <c r="E625" s="67"/>
+      <c r="F625" s="67"/>
+      <c r="G625" s="67"/>
+      <c r="H625" s="67"/>
+      <c r="I625" s="67"/>
+      <c r="J625" s="67"/>
+      <c r="K625" s="66"/>
+      <c r="L625" s="66"/>
+      <c r="M625" s="66"/>
+    </row>
+    <row r="626" spans="2:13" ht="15.75">
+      <c r="B626" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="C626" s="67"/>
+      <c r="D626" s="67"/>
+      <c r="E626" s="67"/>
+      <c r="F626" s="67"/>
+      <c r="G626" s="67"/>
+      <c r="H626" s="67"/>
+      <c r="I626" s="67"/>
+      <c r="J626" s="67"/>
+      <c r="K626" s="66"/>
+      <c r="L626" s="66"/>
+      <c r="M626" s="66"/>
+    </row>
+    <row r="627" spans="2:13" ht="15.75">
+      <c r="B627" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="C627" s="67"/>
+      <c r="D627" s="67"/>
+      <c r="E627" s="67"/>
+      <c r="F627" s="67"/>
+      <c r="G627" s="67"/>
+      <c r="H627" s="67"/>
+      <c r="I627" s="67"/>
+      <c r="J627" s="67"/>
+      <c r="K627" s="66"/>
+      <c r="L627" s="66"/>
+      <c r="M627" s="66"/>
+    </row>
+    <row r="628" spans="2:13" ht="15.75">
+      <c r="B628" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="C628" s="67"/>
+      <c r="D628" s="67"/>
+      <c r="E628" s="67"/>
+      <c r="F628" s="67"/>
+      <c r="G628" s="67"/>
+      <c r="H628" s="67"/>
+      <c r="I628" s="67"/>
+      <c r="J628" s="67"/>
+      <c r="K628" s="66"/>
+      <c r="L628" s="66"/>
+      <c r="M628" s="66"/>
+    </row>
+    <row r="629" spans="2:13" ht="15.75">
+      <c r="B629" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="C629" s="67"/>
+      <c r="D629" s="67"/>
+      <c r="E629" s="67"/>
+      <c r="F629" s="67"/>
+      <c r="G629" s="67"/>
+      <c r="H629" s="67"/>
+      <c r="I629" s="67"/>
+      <c r="J629" s="67"/>
+      <c r="K629" s="66"/>
+      <c r="L629" s="66"/>
+      <c r="M629" s="66"/>
+    </row>
+    <row r="630" spans="2:13" ht="15.75">
+      <c r="B630" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="C630" s="67"/>
+      <c r="D630" s="67"/>
+      <c r="E630" s="67"/>
+      <c r="F630" s="67"/>
+      <c r="G630" s="67"/>
+      <c r="H630" s="67"/>
+      <c r="I630" s="67"/>
+      <c r="J630" s="67"/>
+      <c r="K630" s="66"/>
+      <c r="L630" s="66"/>
+      <c r="M630" s="66"/>
+    </row>
+    <row r="631" spans="2:13" ht="15.75">
+      <c r="B631" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C631" s="67"/>
+      <c r="D631" s="67"/>
+      <c r="E631" s="67"/>
+      <c r="F631" s="67"/>
+      <c r="G631" s="67"/>
+      <c r="H631" s="67"/>
+      <c r="I631" s="67"/>
+      <c r="J631" s="67"/>
+      <c r="K631" s="66"/>
+      <c r="L631" s="66"/>
+      <c r="M631" s="66"/>
+    </row>
+    <row r="632" spans="2:13" ht="15.75">
+      <c r="B632" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="C632" s="67"/>
+      <c r="D632" s="67"/>
+      <c r="E632" s="67"/>
+      <c r="F632" s="67"/>
+      <c r="G632" s="67"/>
+      <c r="H632" s="67"/>
+      <c r="I632" s="67"/>
+      <c r="J632" s="67"/>
+      <c r="K632" s="66"/>
+      <c r="L632" s="66"/>
+      <c r="M632" s="66"/>
+    </row>
+    <row r="633" spans="2:13" ht="15.75">
+      <c r="B633" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="C633" s="67"/>
+      <c r="D633" s="67"/>
+      <c r="E633" s="67"/>
+      <c r="F633" s="67"/>
+      <c r="G633" s="67"/>
+      <c r="H633" s="67"/>
+      <c r="I633" s="67"/>
+      <c r="J633" s="67"/>
+      <c r="K633" s="66"/>
+      <c r="L633" s="66"/>
+      <c r="M633" s="66"/>
+    </row>
+    <row r="634" spans="2:13" ht="15.75">
+      <c r="B634" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="C634" s="67"/>
+      <c r="D634" s="67"/>
+      <c r="E634" s="67"/>
+      <c r="F634" s="67"/>
+      <c r="G634" s="67"/>
+      <c r="H634" s="67"/>
+      <c r="I634" s="67"/>
+      <c r="J634" s="67"/>
+      <c r="K634" s="66"/>
+      <c r="L634" s="66"/>
+      <c r="M634" s="66"/>
+    </row>
+    <row r="635" spans="2:13" ht="15.75">
+      <c r="B635" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="C635" s="67"/>
+      <c r="D635" s="67"/>
+      <c r="E635" s="67"/>
+      <c r="F635" s="67"/>
+      <c r="G635" s="67"/>
+      <c r="H635" s="67"/>
+      <c r="I635" s="67"/>
+      <c r="J635" s="67"/>
+      <c r="K635" s="66"/>
+      <c r="L635" s="66"/>
+      <c r="M635" s="66"/>
+    </row>
+    <row r="636" spans="2:13" ht="15.75">
+      <c r="B636" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="C636" s="67"/>
+      <c r="D636" s="67"/>
+      <c r="E636" s="67"/>
+      <c r="F636" s="67"/>
+      <c r="G636" s="67"/>
+      <c r="H636" s="67"/>
+      <c r="I636" s="67"/>
+      <c r="J636" s="67"/>
+      <c r="K636" s="66"/>
+      <c r="L636" s="66"/>
+      <c r="M636" s="66"/>
+    </row>
+    <row r="637" spans="2:13" ht="15.75">
+      <c r="B637" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="C637" s="67"/>
+      <c r="D637" s="67"/>
+      <c r="E637" s="67"/>
+      <c r="F637" s="67"/>
+      <c r="G637" s="67"/>
+      <c r="H637" s="67"/>
+      <c r="I637" s="67"/>
+      <c r="J637" s="67"/>
+      <c r="K637" s="66"/>
+      <c r="L637" s="66"/>
+      <c r="M637" s="66"/>
+    </row>
+    <row r="638" spans="2:13" ht="15.75">
+      <c r="B638" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="C638" s="67"/>
+      <c r="D638" s="67"/>
+      <c r="E638" s="67"/>
+      <c r="F638" s="67"/>
+      <c r="G638" s="67"/>
+      <c r="H638" s="67"/>
+      <c r="I638" s="67"/>
+      <c r="J638" s="67"/>
+      <c r="K638" s="66"/>
+      <c r="L638" s="66"/>
+      <c r="M638" s="66"/>
+    </row>
+    <row r="639" spans="2:13" ht="15.75">
+      <c r="B639" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="C639" s="67"/>
+      <c r="D639" s="67"/>
+      <c r="E639" s="67"/>
+      <c r="F639" s="67"/>
+      <c r="G639" s="67"/>
+      <c r="H639" s="67"/>
+      <c r="I639" s="67"/>
+      <c r="J639" s="67"/>
+      <c r="K639" s="66"/>
+      <c r="L639" s="66"/>
+      <c r="M639" s="66"/>
+    </row>
+    <row r="640" spans="2:13" ht="15.75">
+      <c r="B640" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="C640" s="67"/>
+      <c r="D640" s="67"/>
+      <c r="E640" s="67"/>
+      <c r="F640" s="67"/>
+      <c r="G640" s="67"/>
+      <c r="H640" s="67"/>
+      <c r="I640" s="67"/>
+      <c r="J640" s="67"/>
+      <c r="K640" s="66"/>
+      <c r="L640" s="66"/>
+      <c r="M640" s="66"/>
+    </row>
+    <row r="641" spans="2:13" ht="15.75">
+      <c r="B641" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="C641" s="67"/>
+      <c r="D641" s="67"/>
+      <c r="E641" s="67"/>
+      <c r="F641" s="67"/>
+      <c r="G641" s="67"/>
+      <c r="H641" s="67"/>
+      <c r="I641" s="67"/>
+      <c r="J641" s="67"/>
+      <c r="K641" s="66"/>
+      <c r="L641" s="66"/>
+      <c r="M641" s="66"/>
+    </row>
+    <row r="642" spans="2:13" ht="15.75">
+      <c r="B642" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="C642" s="67"/>
+      <c r="D642" s="67"/>
+      <c r="E642" s="67"/>
+      <c r="F642" s="67"/>
+      <c r="G642" s="67"/>
+      <c r="H642" s="67"/>
+      <c r="I642" s="67"/>
+      <c r="J642" s="67"/>
+      <c r="K642" s="66"/>
+      <c r="L642" s="66"/>
+      <c r="M642" s="66"/>
+    </row>
+    <row r="643" spans="2:13" ht="15.75">
+      <c r="B643" s="67"/>
+      <c r="C643" s="67"/>
+      <c r="D643" s="67"/>
+      <c r="E643" s="67"/>
+      <c r="F643" s="67"/>
+      <c r="G643" s="67"/>
+      <c r="H643" s="67"/>
+      <c r="I643" s="67"/>
+      <c r="J643" s="67"/>
+      <c r="K643" s="66"/>
+      <c r="L643" s="66"/>
+      <c r="M643" s="66"/>
+    </row>
+    <row r="644" spans="2:13" ht="15.75">
+      <c r="B644" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="C644" s="67"/>
+      <c r="D644" s="67"/>
+      <c r="E644" s="67"/>
+      <c r="F644" s="67"/>
+      <c r="G644" s="67"/>
+      <c r="H644" s="67"/>
+      <c r="I644" s="67"/>
+      <c r="J644" s="67"/>
+      <c r="K644" s="66"/>
+      <c r="L644" s="66"/>
+      <c r="M644" s="66"/>
+    </row>
+    <row r="645" spans="2:13" ht="15.75">
+      <c r="B645" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C645" s="67"/>
+      <c r="D645" s="67"/>
+      <c r="E645" s="67"/>
+      <c r="F645" s="67"/>
+      <c r="G645" s="67"/>
+      <c r="H645" s="67"/>
+      <c r="I645" s="67"/>
+      <c r="J645" s="67"/>
+      <c r="K645" s="66"/>
+      <c r="L645" s="66"/>
+      <c r="M645" s="66"/>
+    </row>
+    <row r="646" spans="2:13" ht="15.75">
+      <c r="B646" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="C646" s="67"/>
+      <c r="D646" s="67"/>
+      <c r="E646" s="67"/>
+      <c r="F646" s="67"/>
+      <c r="G646" s="67"/>
+      <c r="H646" s="67"/>
+      <c r="I646" s="67"/>
+      <c r="J646" s="67"/>
+      <c r="K646" s="66"/>
+      <c r="L646" s="66"/>
+      <c r="M646" s="66"/>
+    </row>
+    <row r="647" spans="2:13" ht="15.75">
+      <c r="B647" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C647" s="67"/>
+      <c r="D647" s="67"/>
+      <c r="E647" s="67"/>
+      <c r="F647" s="67"/>
+      <c r="G647" s="67"/>
+      <c r="H647" s="67"/>
+      <c r="I647" s="67"/>
+      <c r="J647" s="67"/>
+      <c r="K647" s="66"/>
+      <c r="L647" s="66"/>
+      <c r="M647" s="66"/>
+    </row>
+    <row r="648" spans="2:13" ht="15.75">
+      <c r="B648" s="67"/>
+      <c r="C648" s="67"/>
+      <c r="D648" s="67"/>
+      <c r="E648" s="67"/>
+      <c r="F648" s="67"/>
+      <c r="G648" s="67"/>
+      <c r="H648" s="67"/>
+      <c r="I648" s="67"/>
+      <c r="J648" s="67"/>
+      <c r="K648" s="66"/>
+      <c r="L648" s="66"/>
+      <c r="M648" s="66"/>
+    </row>
+    <row r="649" spans="2:13" ht="15.75">
+      <c r="B649" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="C649" s="67"/>
+      <c r="D649" s="67"/>
+      <c r="E649" s="67"/>
+      <c r="F649" s="67"/>
+      <c r="G649" s="67"/>
+      <c r="H649" s="67"/>
+      <c r="I649" s="67"/>
+      <c r="J649" s="67"/>
+      <c r="K649" s="66"/>
+      <c r="L649" s="66"/>
+      <c r="M649" s="66"/>
+    </row>
+    <row r="650" spans="2:13" ht="15.75">
+      <c r="B650" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="C650" s="67"/>
+      <c r="D650" s="67"/>
+      <c r="E650" s="67"/>
+      <c r="F650" s="67"/>
+      <c r="G650" s="67"/>
+      <c r="H650" s="67"/>
+      <c r="I650" s="67"/>
+      <c r="J650" s="67"/>
+      <c r="K650" s="66"/>
+      <c r="L650" s="66"/>
+      <c r="M650" s="66"/>
+    </row>
+    <row r="651" spans="2:13" ht="15.75">
+      <c r="B651" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="C651" s="67"/>
+      <c r="D651" s="67"/>
+      <c r="E651" s="67"/>
+      <c r="F651" s="67"/>
+      <c r="G651" s="67"/>
+      <c r="H651" s="67"/>
+      <c r="I651" s="67"/>
+      <c r="J651" s="67"/>
+      <c r="K651" s="66"/>
+      <c r="L651" s="66"/>
+      <c r="M651" s="66"/>
+    </row>
+    <row r="652" spans="2:13" ht="15.75">
+      <c r="B652" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="C652" s="67"/>
+      <c r="D652" s="67"/>
+      <c r="E652" s="67"/>
+      <c r="F652" s="67"/>
+      <c r="G652" s="67"/>
+      <c r="H652" s="67"/>
+      <c r="I652" s="67"/>
+      <c r="J652" s="67"/>
+      <c r="K652" s="66"/>
+      <c r="L652" s="66"/>
+      <c r="M652" s="66"/>
+    </row>
+    <row r="653" spans="2:13" ht="15.75">
+      <c r="B653" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="C653" s="67"/>
+      <c r="D653" s="67"/>
+      <c r="E653" s="67"/>
+      <c r="F653" s="67"/>
+      <c r="G653" s="67"/>
+      <c r="H653" s="67"/>
+      <c r="I653" s="67"/>
+      <c r="J653" s="67"/>
+      <c r="K653" s="66"/>
+      <c r="L653" s="66"/>
+      <c r="M653" s="66"/>
+    </row>
+    <row r="654" spans="2:13" ht="15.75">
+      <c r="B654" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C654" s="67"/>
+      <c r="D654" s="67"/>
+      <c r="E654" s="67"/>
+      <c r="F654" s="67"/>
+      <c r="G654" s="67"/>
+      <c r="H654" s="67"/>
+      <c r="I654" s="67"/>
+      <c r="J654" s="67"/>
+      <c r="K654" s="66"/>
+      <c r="L654" s="66"/>
+      <c r="M654" s="66"/>
+    </row>
+    <row r="655" spans="2:13" ht="15.75">
+      <c r="B655" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="C655" s="67"/>
+      <c r="D655" s="67"/>
+      <c r="E655" s="67"/>
+      <c r="F655" s="67"/>
+      <c r="G655" s="67"/>
+      <c r="H655" s="67"/>
+      <c r="I655" s="67"/>
+      <c r="J655" s="67"/>
+      <c r="K655" s="66"/>
+      <c r="L655" s="66"/>
+      <c r="M655" s="66"/>
+    </row>
+    <row r="656" spans="2:13" ht="15.75">
+      <c r="B656" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="C656" s="67"/>
+      <c r="D656" s="67"/>
+      <c r="E656" s="67"/>
+      <c r="F656" s="67"/>
+      <c r="G656" s="67"/>
+      <c r="H656" s="67"/>
+      <c r="I656" s="67"/>
+      <c r="J656" s="67"/>
+      <c r="K656" s="66"/>
+      <c r="L656" s="66"/>
+      <c r="M656" s="66"/>
+    </row>
+    <row r="657" spans="2:13" ht="15.75">
+      <c r="B657" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C657" s="67"/>
+      <c r="D657" s="67"/>
+      <c r="E657" s="67"/>
+      <c r="F657" s="67"/>
+      <c r="G657" s="67"/>
+      <c r="H657" s="67"/>
+      <c r="I657" s="67"/>
+      <c r="J657" s="67"/>
+      <c r="K657" s="66"/>
+      <c r="L657" s="66"/>
+      <c r="M657" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3793,16 +7424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -3821,16 +7452,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -3847,4 +7478,1184 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+      <c r="A1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75">
+      <c r="B3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75">
+      <c r="B4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75">
+      <c r="B5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75">
+      <c r="B6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75">
+      <c r="B7" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75">
+      <c r="B8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75">
+      <c r="B9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75">
+      <c r="B10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75">
+      <c r="B11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75">
+      <c r="B12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75">
+      <c r="B13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75">
+      <c r="B14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75">
+      <c r="B15" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75">
+      <c r="B16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75">
+      <c r="B17" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75">
+      <c r="B18" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75">
+      <c r="B19" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75">
+      <c r="B21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75">
+      <c r="B22" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75">
+      <c r="B24" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75">
+      <c r="A25" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75">
+      <c r="B26" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75">
+      <c r="B27" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="23"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75">
+      <c r="B28" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="23"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75">
+      <c r="B29" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75">
+      <c r="B30" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75">
+      <c r="B31" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="23"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75">
+      <c r="B32" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="23"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75">
+      <c r="B33" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75">
+      <c r="B34" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75">
+      <c r="B35" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75">
+      <c r="B36" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="23"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75">
+      <c r="B37" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="23"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75">
+      <c r="A39" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="23"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="23"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75">
+      <c r="B41" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="23"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75">
+      <c r="B42" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="23"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75">
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="23"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75">
+      <c r="B44" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="23"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75">
+      <c r="B45" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="23"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75">
+      <c r="B46" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.75">
+      <c r="B47" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="23"/>
+    </row>
+    <row r="48" spans="1:13" ht="15.75">
+      <c r="B48" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="23"/>
+    </row>
+    <row r="49" spans="2:13" ht="15.75">
+      <c r="B49" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="23"/>
+    </row>
+    <row r="50" spans="2:13" ht="15.75">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="23"/>
+    </row>
+    <row r="51" spans="2:13" ht="15.75">
+      <c r="B51" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="23"/>
+    </row>
+    <row r="52" spans="2:13" ht="15.75">
+      <c r="B52" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="23"/>
+    </row>
+    <row r="53" spans="2:13" ht="15.75">
+      <c r="B53" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="23"/>
+    </row>
+    <row r="54" spans="2:13" ht="15.75">
+      <c r="B54" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="23"/>
+    </row>
+    <row r="55" spans="2:13" ht="15.75">
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="23"/>
+    </row>
+    <row r="56" spans="2:13" ht="15.75">
+      <c r="B56" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="23"/>
+    </row>
+    <row r="57" spans="2:13" ht="15.75">
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="23"/>
+    </row>
+    <row r="58" spans="2:13" ht="15.75">
+      <c r="B58" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="23"/>
+    </row>
+    <row r="59" spans="2:13" ht="15.75">
+      <c r="B59" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="23"/>
+    </row>
+    <row r="60" spans="2:13" ht="15.75">
+      <c r="B60" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="23"/>
+    </row>
+    <row r="61" spans="2:13" ht="15.75">
+      <c r="B61" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="23"/>
+    </row>
+    <row r="62" spans="2:13" ht="15.75">
+      <c r="B62" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="23"/>
+    </row>
+    <row r="63" spans="2:13" ht="15.75">
+      <c r="B63" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="23"/>
+    </row>
+    <row r="64" spans="2:13" ht="15.75">
+      <c r="B64" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="23"/>
+    </row>
+    <row r="65" spans="2:13" ht="15.75">
+      <c r="B65" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O1" location="目录!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+      <c r="A1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O1" location="目录!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+      <c r="A1" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O1" location="目录!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/linux-2.6.32.27_compressed.xlsx
+++ b/linux-2.6.32.27_compressed.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="9165" tabRatio="710" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表纸" sheetId="4" r:id="rId1"/>
     <sheet name="目录" sheetId="5" r:id="rId2"/>
     <sheet name="start分析" sheetId="1" r:id="rId3"/>
     <sheet name="cache_on分析" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="debug代码" sheetId="2" r:id="rId5"/>
     <sheet name="resource" sheetId="3" r:id="rId6"/>
     <sheet name="vmlinux.lds" sheetId="7" r:id="rId7"/>
     <sheet name="Image_zImage_uImage解析" sheetId="8" r:id="rId8"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="376">
   <si>
     <t>结束日期：</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1252,12 +1252,323 @@
     <t>r9 = r9 &lt;&lt; 18 = 0x3000_0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>head.S符号表</t>
+  </si>
+  <si>
+    <t>.macro writeb, ch, rb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.macro loadsp, rb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.macro kputc,val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.macro kphex,val,len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.macro debug_reloc_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.macro debug_reloc_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_angel:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_relocated:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wont_overwrite:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC0:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC1:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache_on:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv4_mpu_cache_on:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv3_mpu_cache_on:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__setup_mmu:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv4_mmu_cache_on:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv7_mmu_cache_on:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__fa526_cache_on:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__arm6_mmu_cache_on:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__common_mmu_cache_on:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reloc_start:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call_kernel:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call_cache_fn:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc_types:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache_off:</t>
+  </si>
+  <si>
+    <t>__armv4_mpu_cache_off:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv3_mpu_cache_off:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv4_mmu_cache_off:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv7_mmu_cache_off:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__arm6_mmu_cache_off:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__arm7_mmu_cache_off:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv3_mmu_cache_off:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache_clean_flush:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv4_mpu_cache_flush:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__fa526_cache_flush:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv6_mmu_cache_flush:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv7_mmu_cache_flush:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv5tej_mmu_cache_flush:</t>
+  </si>
+  <si>
+    <t>__armv4_mmu_cache_flush:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv3_mmu_cache_flush:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__armv3_mpu_cache_flush:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phexbuf:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phex:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puts:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>putc:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memdump:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reloc_end:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_stack:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不返回函数，调到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> call_cache_fn</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理器类型表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>buffer</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phexbuf：存放数值转换成16进制后的字符串数据，一共12个字节。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过串口以16进制的格式打印r0中的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On entry:</t>
+  </si>
+  <si>
+    <t>On exit:</t>
+  </si>
+  <si>
+    <t>Corrupted:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0 -- 存放需要打印的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1 -- 打印的字符个数，4 bit对应16进制的一个字符。比如打印r0的低4位则为1，打印r0的第一个字节数据则为2，打印完整的r0数据（4字节）则为8。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On entry:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0 -- 字符串首地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On exit:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印字符串，如果打印的字符为'\n'，会自动添加'\r'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印单个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0 -- 需要打印的字符的ASCII码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0、r1、r2、r3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1395,8 +1706,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1424,6 +1755,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,7 +2076,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1850,6 +2187,30 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1892,28 +2253,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3729,6 +4099,350 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665981</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>8645</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="组合 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="923925"/>
+          <a:ext cx="6152381" cy="7038095"/>
+          <a:chOff x="685800" y="923925"/>
+          <a:chExt cx="6152381" cy="7038095"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="图片 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="923925"/>
+            <a:ext cx="6152381" cy="7038095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="矩形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2628900" y="6524626"/>
+            <a:ext cx="1647825" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="矩形标注 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4933950" y="6048375"/>
+            <a:ext cx="1876425" cy="1047750"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -84196"/>
+              <a:gd name="adj2" fmla="val 4336"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>在调用</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>putc</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>时，会设置</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>r0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>为</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>，用于结束函数并返回；在调用</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>puts</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>函数时，</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>r0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>始终不可能为</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>，函数结束依赖</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>01012</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>行对</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>r2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>的值是否为</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>的判断。</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161219</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>75633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13439775"/>
+          <a:ext cx="5647619" cy="4533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -4040,7 +4754,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4092,7 +4806,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4191,7 +4905,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4553,12 +5267,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
@@ -4566,71 +5280,71 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:13" ht="15" thickBot="1"/>
-    <row r="4" spans="4:13" ht="15" thickTop="1">
-      <c r="D4" s="44" t="s">
+    <row r="3" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="4:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" spans="4:13">
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-    </row>
-    <row r="6" spans="4:13">
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="4:13">
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-    </row>
-    <row r="8" spans="4:13" ht="15" thickBot="1">
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
-    </row>
-    <row r="9" spans="4:13" ht="15" thickTop="1"/>
-    <row r="12" spans="4:13">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
+    </row>
+    <row r="8" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="60"/>
+    </row>
+    <row r="9" spans="4:13" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
@@ -4638,7 +5352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:13">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
@@ -4646,12 +5360,12 @@
         <v>42700</v>
       </c>
     </row>
-    <row r="16" spans="4:13">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:13">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
@@ -4659,194 +5373,194 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="4:13">
-      <c r="G22" s="42" t="s">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="G22" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="42" t="s">
+      <c r="H22" s="51"/>
+      <c r="I22" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="43"/>
-    </row>
-    <row r="23" spans="4:13">
-      <c r="G23" s="42" t="s">
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="G23" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="42" t="s">
+      <c r="H23" s="51"/>
+      <c r="I23" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="43"/>
-    </row>
-    <row r="24" spans="4:13">
-      <c r="G24" s="42" t="s">
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="G24" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="42" t="s">
+      <c r="H24" s="51"/>
+      <c r="I24" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="27" spans="4:13">
+      <c r="J24" s="51"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="4:13">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="53" t="s">
+      <c r="F28" s="62"/>
+      <c r="G28" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="54"/>
-    </row>
-    <row r="29" spans="4:13">
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="64">
         <v>42700</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="59"/>
-    </row>
-    <row r="30" spans="4:13">
+      <c r="F29" s="62"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="67"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D30" s="4"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59"/>
-    </row>
-    <row r="31" spans="4:13">
+      <c r="E30" s="64"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="67"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D31" s="3"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="59"/>
-    </row>
-    <row r="32" spans="4:13">
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="67"/>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D32" s="3"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="59"/>
-    </row>
-    <row r="33" spans="4:13">
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="67"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D33" s="3"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="59"/>
-    </row>
-    <row r="34" spans="4:13">
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="67"/>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D34" s="3"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="59"/>
-    </row>
-    <row r="35" spans="4:13">
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="67"/>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D35" s="3"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="59"/>
-    </row>
-    <row r="36" spans="4:13">
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="67"/>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D36" s="3"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="59"/>
-    </row>
-    <row r="37" spans="4:13">
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="67"/>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D37" s="3"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="59"/>
-    </row>
-    <row r="38" spans="4:13">
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="67"/>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D38" s="3"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="59"/>
-    </row>
-    <row r="39" spans="4:13">
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="67"/>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D39" s="3"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="59"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -4889,14 +5603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4905,40 +5619,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
@@ -4957,16 +5671,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+    <sheetView topLeftCell="A308" workbookViewId="0">
       <selection activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
@@ -4974,93 +5688,93 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="3" spans="1:15" s="12" customFormat="1" ht="14.25">
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="5" spans="1:15" s="12" customFormat="1" ht="14.25">
+    <row r="4" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="7" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="8" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="9" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="10" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="11" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="12" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="13" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="14" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="15" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="16" spans="1:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="17" s="12" customFormat="1" ht="14.25"/>
-    <row r="18" s="12" customFormat="1" ht="14.25"/>
-    <row r="19" s="12" customFormat="1" ht="14.25"/>
-    <row r="20" s="12" customFormat="1" ht="14.25"/>
-    <row r="21" s="12" customFormat="1" ht="14.25"/>
-    <row r="22" s="12" customFormat="1" ht="14.25"/>
-    <row r="23" s="12" customFormat="1" ht="14.25"/>
-    <row r="24" s="12" customFormat="1" ht="14.25"/>
-    <row r="25" s="12" customFormat="1" ht="14.25"/>
-    <row r="26" s="12" customFormat="1" ht="14.25"/>
-    <row r="27" s="12" customFormat="1" ht="14.25"/>
-    <row r="28" s="12" customFormat="1" ht="14.25"/>
-    <row r="29" s="12" customFormat="1" ht="14.25"/>
-    <row r="30" s="12" customFormat="1" ht="14.25"/>
-    <row r="31" s="12" customFormat="1" ht="14.25"/>
-    <row r="32" s="12" customFormat="1" ht="14.25"/>
-    <row r="33" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="34" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="35" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="36" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="37" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="38" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="39" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="40" spans="2:2" s="12" customFormat="1" ht="14.25">
+    <row r="6" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="17" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="18" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="19" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="20" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="21" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="23" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="24" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="26" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="27" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="28" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="29" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="30" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="31" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="32" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B40" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="2:2" s="12" customFormat="1" ht="14.25">
+    <row r="41" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B41" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="43" spans="2:2" s="12" customFormat="1" ht="14.25">
+    <row r="42" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B43" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="45" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="46" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="47" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="48" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="49" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="50" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="51" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="52" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="53" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="54" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="55" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="56" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="57" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="58" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="59" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="60" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="61" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="62" spans="2:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="63" spans="2:5" s="12" customFormat="1" ht="14.25">
+    <row r="44" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B63" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="2:5" s="12" customFormat="1" ht="14.25">
+    <row r="64" spans="2:5" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C64" s="12" t="s">
         <v>28</v>
       </c>
@@ -5068,7 +5782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="2:11" s="12" customFormat="1" ht="14.25">
+    <row r="65" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C65" s="12" t="s">
         <v>29</v>
       </c>
@@ -5076,25 +5790,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:11" s="12" customFormat="1" ht="14.25"/>
-    <row r="67" spans="2:11" s="12" customFormat="1" ht="14.25">
+    <row r="66" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C67" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="2:11" s="12" customFormat="1" ht="14.25">
+    <row r="68" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D68" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="2:11" s="12" customFormat="1" ht="14.25"/>
-    <row r="70" spans="2:11" s="12" customFormat="1" ht="14.25">
+    <row r="69" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B70" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K70" s="13"/>
     </row>
-    <row r="71" spans="2:11" s="12" customFormat="1" ht="14.25">
+    <row r="71" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C71" s="12" t="s">
         <v>33</v>
       </c>
@@ -5102,30 +5816,30 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="2:11" s="12" customFormat="1" ht="14.25"/>
-    <row r="73" spans="2:11" s="12" customFormat="1" ht="14.25">
+    <row r="72" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="2:11" s="12" customFormat="1" ht="14.25">
+    <row r="74" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C74" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="2:11" s="12" customFormat="1" ht="14.25"/>
-    <row r="76" spans="2:11" s="12" customFormat="1" ht="14.25">
+    <row r="75" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B76" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="2:11" s="12" customFormat="1" ht="14.25"/>
-    <row r="78" spans="2:11" s="12" customFormat="1" ht="14.25">
+    <row r="77" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B78" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="2:11" s="12" customFormat="1" ht="14.25">
+    <row r="79" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C79" s="29" t="s">
         <v>143</v>
       </c>
@@ -5133,7 +5847,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="2:11" s="12" customFormat="1" ht="14.25">
+    <row r="80" spans="2:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C80" s="29" t="s">
         <v>145</v>
       </c>
@@ -5141,84 +5855,84 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="82" spans="3:3" s="12" customFormat="1" ht="14.25">
+    <row r="81" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C82" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="3:3" s="12" customFormat="1" ht="14.25">
+    <row r="83" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C83" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="85" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="86" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="87" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="88" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="89" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="90" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="91" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="92" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="93" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="94" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="95" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="96" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="97" s="12" customFormat="1" ht="14.25"/>
-    <row r="98" s="12" customFormat="1" ht="14.25"/>
-    <row r="99" s="12" customFormat="1" ht="14.25"/>
-    <row r="100" s="12" customFormat="1" ht="14.25"/>
-    <row r="101" s="12" customFormat="1" ht="14.25"/>
-    <row r="102" s="12" customFormat="1" ht="14.25"/>
-    <row r="103" s="12" customFormat="1" ht="14.25"/>
-    <row r="104" s="12" customFormat="1" ht="14.25"/>
-    <row r="105" s="12" customFormat="1" ht="14.25"/>
-    <row r="106" s="12" customFormat="1" ht="14.25"/>
-    <row r="107" s="12" customFormat="1" ht="14.25"/>
-    <row r="108" s="12" customFormat="1" ht="14.25"/>
-    <row r="109" s="12" customFormat="1" ht="14.25"/>
-    <row r="110" s="12" customFormat="1" ht="14.25"/>
-    <row r="111" s="12" customFormat="1" ht="14.25"/>
-    <row r="112" s="12" customFormat="1" ht="14.25"/>
-    <row r="113" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="114" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="115" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="116" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="117" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="118" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="119" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="120" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="121" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="122" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="123" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="124" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="125" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="126" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="127" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="128" spans="2:2" s="12" customFormat="1" ht="14.25">
+    <row r="84" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="97" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="98" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="99" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="100" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="101" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="102" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="103" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="104" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="105" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="106" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="107" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="108" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="109" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="110" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="111" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="112" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="113" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="114" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="115" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B128" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="129" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B129" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="2:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="131" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="130" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="131" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B131" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="132" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="132" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B132" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="2:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="134" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="133" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="134" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B134" s="12" t="s">
         <v>40</v>
       </c>
@@ -5226,18 +5940,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="135" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C135" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="2:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="137" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="136" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="137" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C137" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="138" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="O138" s="40" t="s">
         <v>152</v>
       </c>
@@ -5249,7 +5963,7 @@
       <c r="U138" s="31"/>
       <c r="V138" s="32"/>
     </row>
-    <row r="139" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="139" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="O139" s="33" t="s">
         <v>153</v>
       </c>
@@ -5261,7 +5975,7 @@
       <c r="U139" s="34"/>
       <c r="V139" s="35"/>
     </row>
-    <row r="140" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="140" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="O140" s="33"/>
       <c r="P140" s="34" t="s">
         <v>154</v>
@@ -5273,7 +5987,7 @@
       <c r="U140" s="34"/>
       <c r="V140" s="35"/>
     </row>
-    <row r="141" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="141" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="O141" s="33"/>
       <c r="P141" s="34" t="s">
         <v>156</v>
@@ -5285,7 +5999,7 @@
       <c r="U141" s="34"/>
       <c r="V141" s="35"/>
     </row>
-    <row r="142" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="142" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="O142" s="33"/>
       <c r="P142" s="34" t="s">
         <v>157</v>
@@ -5297,7 +6011,7 @@
       <c r="U142" s="34"/>
       <c r="V142" s="35"/>
     </row>
-    <row r="143" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="143" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="O143" s="33"/>
       <c r="P143" s="34" t="s">
         <v>155</v>
@@ -5309,7 +6023,7 @@
       <c r="U143" s="34"/>
       <c r="V143" s="35"/>
     </row>
-    <row r="144" spans="2:22" s="12" customFormat="1" ht="14.25">
+    <row r="144" spans="2:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="O144" s="36"/>
       <c r="P144" s="37"/>
       <c r="Q144" s="37"/>
@@ -5319,8 +6033,8 @@
       <c r="U144" s="37"/>
       <c r="V144" s="38"/>
     </row>
-    <row r="145" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="146" spans="15:22" s="12" customFormat="1" ht="14.25">
+    <row r="145" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="146" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="O146" s="40" t="s">
         <v>158</v>
       </c>
@@ -5332,7 +6046,7 @@
       <c r="U146" s="31"/>
       <c r="V146" s="32"/>
     </row>
-    <row r="147" spans="15:22" s="12" customFormat="1" ht="14.25">
+    <row r="147" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="O147" s="33"/>
       <c r="P147" s="34" t="s">
         <v>159</v>
@@ -5344,7 +6058,7 @@
       <c r="U147" s="34"/>
       <c r="V147" s="35"/>
     </row>
-    <row r="148" spans="15:22" s="12" customFormat="1" ht="14.25">
+    <row r="148" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="O148" s="36"/>
       <c r="P148" s="37"/>
       <c r="Q148" s="37"/>
@@ -5354,104 +6068,104 @@
       <c r="U148" s="37"/>
       <c r="V148" s="38"/>
     </row>
-    <row r="149" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="150" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="151" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="152" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="153" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="154" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="155" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="156" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="157" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="158" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="159" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="160" spans="15:22" s="12" customFormat="1" ht="14.25"/>
-    <row r="161" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="162" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="163" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="164" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="165" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="166" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="167" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="168" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="169" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="170" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="171" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="172" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="173" spans="2:2" s="12" customFormat="1" ht="14.25">
+    <row r="149" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="151" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="152" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="153" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="155" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="156" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="158" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="160" spans="15:22" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="161" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="162" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="163" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="164" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="165" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="166" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="168" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="170" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="173" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B173" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="175" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="176" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="177" spans="2:4" s="12" customFormat="1" ht="14.25"/>
-    <row r="178" spans="2:4" s="12" customFormat="1" ht="14.25"/>
-    <row r="179" spans="2:4" s="12" customFormat="1" ht="14.25"/>
-    <row r="180" spans="2:4" s="12" customFormat="1" ht="14.25"/>
-    <row r="181" spans="2:4" s="12" customFormat="1" ht="14.25"/>
-    <row r="182" spans="2:4" s="12" customFormat="1" ht="14.25"/>
-    <row r="183" spans="2:4" s="12" customFormat="1" ht="14.25"/>
-    <row r="184" spans="2:4" s="12" customFormat="1" ht="14.25"/>
-    <row r="185" spans="2:4" s="12" customFormat="1" ht="14.25">
+    <row r="174" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="177" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="178" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="179" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="180" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="181" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="182" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="183" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="184" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="185" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B185" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="2:4" s="12" customFormat="1" ht="14.25">
+    <row r="186" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C186" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="187" spans="2:4" s="12" customFormat="1" ht="14.25"/>
-    <row r="188" spans="2:4" s="12" customFormat="1" ht="14.25">
+    <row r="187" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="188" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C188" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="2:4" s="12" customFormat="1" ht="14.25">
+    <row r="189" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D189" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="2:4" s="12" customFormat="1" ht="14.25"/>
-    <row r="191" spans="2:4" s="12" customFormat="1" ht="14.25">
+    <row r="190" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="191" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B191" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="2:4" s="12" customFormat="1" ht="14.25">
+    <row r="192" spans="2:4" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C192" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="193" spans="3:3" s="12" customFormat="1" ht="14.25">
+    <row r="193" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C193" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="194" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="195" spans="3:3" s="12" customFormat="1" ht="14.25">
+    <row r="194" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="195" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C195" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="197" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="198" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="199" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="200" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="201" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="202" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="203" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="204" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="205" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="206" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="207" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="208" spans="3:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="209" spans="2:25" s="12" customFormat="1" ht="14.25"/>
-    <row r="210" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="196" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="197" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="198" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="199" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="200" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="201" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="202" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="203" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="204" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="205" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="206" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="207" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="208" spans="3:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="209" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="210" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C210" s="12" t="s">
         <v>181</v>
       </c>
@@ -5469,7 +6183,7 @@
       <c r="X210" s="31"/>
       <c r="Y210" s="32"/>
     </row>
-    <row r="211" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="211" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D211" s="29" t="s">
         <v>64</v>
       </c>
@@ -5490,7 +6204,7 @@
       <c r="X211" s="34"/>
       <c r="Y211" s="35"/>
     </row>
-    <row r="212" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="212" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D212" s="29" t="s">
         <v>75</v>
       </c>
@@ -5511,7 +6225,7 @@
       <c r="X212" s="34"/>
       <c r="Y212" s="35"/>
     </row>
-    <row r="213" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="213" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D213" s="29" t="s">
         <v>66</v>
       </c>
@@ -5530,7 +6244,7 @@
       <c r="X213" s="34"/>
       <c r="Y213" s="35"/>
     </row>
-    <row r="214" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="214" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D214" s="29" t="s">
         <v>67</v>
       </c>
@@ -5549,7 +6263,7 @@
       <c r="X214" s="34"/>
       <c r="Y214" s="35"/>
     </row>
-    <row r="215" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="215" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D215" s="29" t="s">
         <v>82</v>
       </c>
@@ -5570,7 +6284,7 @@
       <c r="X215" s="34"/>
       <c r="Y215" s="35"/>
     </row>
-    <row r="216" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="216" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D216" s="29" t="s">
         <v>81</v>
       </c>
@@ -5589,7 +6303,7 @@
       <c r="X216" s="37"/>
       <c r="Y216" s="38"/>
     </row>
-    <row r="217" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="217" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D217" s="29" t="s">
         <v>68</v>
       </c>
@@ -5597,7 +6311,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="218" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="218" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D218" s="29" t="s">
         <v>70</v>
       </c>
@@ -5605,7 +6319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="219" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="219" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D219" s="29" t="s">
         <v>72</v>
       </c>
@@ -5613,35 +6327,35 @@
         <v>83</v>
       </c>
     </row>
-    <row r="220" spans="2:25" s="12" customFormat="1" ht="14.25"/>
-    <row r="221" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="220" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="221" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D221" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="222" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D222" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="223" spans="2:25" s="12" customFormat="1" ht="14.25"/>
-    <row r="224" spans="2:25" s="12" customFormat="1" ht="14.25">
+    <row r="223" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="224" spans="2:25" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B224" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="225" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="225" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C225" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="226" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="226" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C226" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="227" spans="3:16" s="12" customFormat="1" ht="14.25"/>
-    <row r="228" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="227" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="228" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D228" s="29" t="s">
         <v>63</v>
       </c>
@@ -5649,8 +6363,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="3:16" s="12" customFormat="1" ht="14.25"/>
-    <row r="230" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="229" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="230" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D230" s="41" t="s">
         <v>187</v>
       </c>
@@ -5666,7 +6380,7 @@
       <c r="N230" s="30"/>
       <c r="O230" s="30"/>
     </row>
-    <row r="231" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="231" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D231" s="30"/>
       <c r="E231" s="30" t="s">
         <v>186</v>
@@ -5682,7 +6396,7 @@
       <c r="N231" s="30"/>
       <c r="O231" s="30"/>
     </row>
-    <row r="232" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="232" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D232" s="30" t="s">
         <v>188</v>
       </c>
@@ -5698,7 +6412,7 @@
       <c r="N232" s="30"/>
       <c r="O232" s="30"/>
     </row>
-    <row r="233" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="233" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D233" s="30" t="s">
         <v>189</v>
       </c>
@@ -5717,11 +6431,11 @@
       </c>
       <c r="N233" s="30"/>
       <c r="O233" s="30"/>
-      <c r="P233" s="62" t="s">
+      <c r="P233" s="44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="234" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="234" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D234" s="30" t="s">
         <v>191</v>
       </c>
@@ -5740,11 +6454,11 @@
       </c>
       <c r="N234" s="30"/>
       <c r="O234" s="30"/>
-      <c r="P234" s="62" t="s">
+      <c r="P234" s="44" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="235" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="235" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D235" s="30" t="s">
         <v>193</v>
       </c>
@@ -5764,7 +6478,7 @@
       <c r="N235" s="30"/>
       <c r="O235" s="30"/>
     </row>
-    <row r="236" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="236" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D236" s="30" t="s">
         <v>195</v>
       </c>
@@ -5787,7 +6501,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="237" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D237" s="30" t="s">
         <v>197</v>
       </c>
@@ -5807,7 +6521,7 @@
       <c r="N237" s="30"/>
       <c r="O237" s="30"/>
     </row>
-    <row r="238" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="238" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D238" s="30" t="s">
         <v>82</v>
       </c>
@@ -5821,13 +6535,13 @@
       <c r="J238" s="30"/>
       <c r="K238" s="30"/>
       <c r="L238" s="30"/>
-      <c r="M238" s="60">
+      <c r="M238" s="42">
         <v>0</v>
       </c>
       <c r="N238" s="30"/>
       <c r="O238" s="30"/>
     </row>
-    <row r="239" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="239" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D239" s="30" t="s">
         <v>200</v>
       </c>
@@ -5845,7 +6559,7 @@
       <c r="N239" s="30"/>
       <c r="O239" s="30"/>
     </row>
-    <row r="240" spans="3:16" s="12" customFormat="1" ht="14.25">
+    <row r="240" spans="3:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D240" s="30" t="s">
         <v>201</v>
       </c>
@@ -5863,7 +6577,7 @@
       <c r="N240" s="30"/>
       <c r="O240" s="30"/>
     </row>
-    <row r="241" spans="2:15" s="12" customFormat="1" ht="14.25">
+    <row r="241" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D241" s="30" t="s">
         <v>203</v>
       </c>
@@ -5881,39 +6595,39 @@
       <c r="N241" s="30"/>
       <c r="O241" s="30"/>
     </row>
-    <row r="242" spans="2:15" s="12" customFormat="1" ht="14.25">
-      <c r="D242" s="61" t="s">
+    <row r="242" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D242" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="E242" s="61"/>
-      <c r="F242" s="61"/>
-      <c r="G242" s="61"/>
-      <c r="H242" s="61"/>
-      <c r="I242" s="61"/>
-      <c r="J242" s="61"/>
-      <c r="K242" s="61"/>
-      <c r="L242" s="61"/>
-      <c r="M242" s="61"/>
-      <c r="N242" s="61"/>
-      <c r="O242" s="61"/>
-    </row>
-    <row r="243" spans="2:15" s="12" customFormat="1" ht="14.25">
-      <c r="D243" s="61" t="s">
+      <c r="E242" s="43"/>
+      <c r="F242" s="43"/>
+      <c r="G242" s="43"/>
+      <c r="H242" s="43"/>
+      <c r="I242" s="43"/>
+      <c r="J242" s="43"/>
+      <c r="K242" s="43"/>
+      <c r="L242" s="43"/>
+      <c r="M242" s="43"/>
+      <c r="N242" s="43"/>
+      <c r="O242" s="43"/>
+    </row>
+    <row r="243" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D243" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="E243" s="61"/>
-      <c r="F243" s="61"/>
-      <c r="G243" s="61"/>
-      <c r="H243" s="61"/>
-      <c r="I243" s="61"/>
-      <c r="J243" s="61"/>
-      <c r="K243" s="61"/>
-      <c r="L243" s="61"/>
-      <c r="M243" s="61"/>
-      <c r="N243" s="61"/>
-      <c r="O243" s="61"/>
-    </row>
-    <row r="244" spans="2:15" s="12" customFormat="1" ht="14.25">
+      <c r="E243" s="43"/>
+      <c r="F243" s="43"/>
+      <c r="G243" s="43"/>
+      <c r="H243" s="43"/>
+      <c r="I243" s="43"/>
+      <c r="J243" s="43"/>
+      <c r="K243" s="43"/>
+      <c r="L243" s="43"/>
+      <c r="M243" s="43"/>
+      <c r="N243" s="43"/>
+      <c r="O243" s="43"/>
+    </row>
+    <row r="244" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D244" s="30" t="s">
         <v>207</v>
       </c>
@@ -5931,7 +6645,7 @@
       <c r="N244" s="30"/>
       <c r="O244" s="30"/>
     </row>
-    <row r="245" spans="2:15" s="12" customFormat="1" ht="14.25">
+    <row r="245" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D245" s="30" t="s">
         <v>211</v>
       </c>
@@ -5949,7 +6663,7 @@
       <c r="N245" s="30"/>
       <c r="O245" s="30"/>
     </row>
-    <row r="246" spans="2:15" s="12" customFormat="1" ht="14.25">
+    <row r="246" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D246" s="30" t="s">
         <v>208</v>
       </c>
@@ -5967,7 +6681,7 @@
       <c r="N246" s="30"/>
       <c r="O246" s="30"/>
     </row>
-    <row r="247" spans="2:15" s="12" customFormat="1" ht="14.25">
+    <row r="247" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D247" s="30" t="s">
         <v>209</v>
       </c>
@@ -5983,7 +6697,7 @@
       <c r="N247" s="30"/>
       <c r="O247" s="30"/>
     </row>
-    <row r="248" spans="2:15" s="12" customFormat="1" ht="14.25">
+    <row r="248" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D248" s="30" t="s">
         <v>210</v>
       </c>
@@ -5999,67 +6713,67 @@
       <c r="N248" s="30"/>
       <c r="O248" s="30"/>
     </row>
-    <row r="249" spans="2:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="250" spans="2:15" s="12" customFormat="1" ht="14.25">
+    <row r="249" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B250" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="251" spans="2:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="252" spans="2:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="253" spans="2:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="254" spans="2:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="255" spans="2:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="256" spans="2:15" s="12" customFormat="1" ht="14.25"/>
-    <row r="257" s="12" customFormat="1" ht="14.25"/>
-    <row r="258" s="12" customFormat="1" ht="14.25"/>
-    <row r="259" s="12" customFormat="1" ht="14.25"/>
-    <row r="260" s="12" customFormat="1" ht="14.25"/>
-    <row r="261" s="12" customFormat="1" ht="14.25"/>
-    <row r="262" s="12" customFormat="1" ht="14.25"/>
-    <row r="263" s="12" customFormat="1" ht="14.25"/>
-    <row r="264" s="12" customFormat="1" ht="14.25"/>
-    <row r="265" s="12" customFormat="1" ht="14.25"/>
-    <row r="266" s="12" customFormat="1" ht="14.25"/>
-    <row r="267" s="12" customFormat="1" ht="14.25"/>
-    <row r="268" s="12" customFormat="1" ht="14.25"/>
-    <row r="269" s="12" customFormat="1" ht="14.25"/>
-    <row r="270" s="12" customFormat="1" ht="14.25"/>
-    <row r="271" s="12" customFormat="1" ht="14.25"/>
-    <row r="272" s="12" customFormat="1" ht="14.25"/>
-    <row r="273" s="12" customFormat="1" ht="14.25"/>
-    <row r="274" s="12" customFormat="1" ht="14.25"/>
-    <row r="275" s="12" customFormat="1" ht="14.25"/>
-    <row r="276" s="12" customFormat="1" ht="14.25"/>
-    <row r="277" s="12" customFormat="1" ht="14.25"/>
-    <row r="278" s="12" customFormat="1" ht="14.25"/>
-    <row r="279" s="12" customFormat="1" ht="14.25"/>
-    <row r="280" s="12" customFormat="1" ht="14.25"/>
-    <row r="281" s="12" customFormat="1" ht="14.25"/>
-    <row r="282" s="12" customFormat="1" ht="14.25"/>
-    <row r="283" s="12" customFormat="1" ht="14.25"/>
-    <row r="284" s="12" customFormat="1" ht="14.25"/>
-    <row r="285" s="12" customFormat="1" ht="14.25"/>
-    <row r="286" s="12" customFormat="1" ht="14.25"/>
-    <row r="287" s="12" customFormat="1" ht="14.25"/>
-    <row r="288" s="12" customFormat="1" ht="14.25"/>
-    <row r="289" spans="3:7" s="12" customFormat="1" ht="14.25"/>
-    <row r="290" spans="3:7" s="12" customFormat="1" ht="14.25"/>
-    <row r="291" spans="3:7" s="12" customFormat="1" ht="14.25"/>
-    <row r="292" spans="3:7" s="12" customFormat="1" ht="14.25"/>
-    <row r="293" spans="3:7" s="12" customFormat="1" ht="14.25"/>
-    <row r="294" spans="3:7" s="12" customFormat="1" ht="14.25"/>
-    <row r="295" spans="3:7" s="12" customFormat="1" ht="14.25">
+    <row r="251" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="2:15" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="257" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="258" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="259" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="260" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="261" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="262" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="263" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="264" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="265" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="266" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="267" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="268" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="269" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="270" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="271" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="272" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="273" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="274" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="275" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="276" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="277" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="278" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="279" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="280" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="281" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="282" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="283" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="284" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="285" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="286" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="287" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="288" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="289" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="290" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="291" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="292" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="293" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="294" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="295" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C295" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="296" spans="3:7" s="12" customFormat="1" ht="14.25">
+    <row r="296" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D296" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="297" spans="3:7" s="12" customFormat="1" ht="14.25">
+    <row r="297" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E297" s="12" t="s">
         <v>217</v>
       </c>
@@ -6067,7 +6781,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="298" spans="3:7" s="12" customFormat="1" ht="14.25">
+    <row r="298" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E298" s="12" t="s">
         <v>219</v>
       </c>
@@ -6075,7 +6789,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="299" spans="3:7" s="12" customFormat="1" ht="14.25">
+    <row r="299" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E299" s="12" t="s">
         <v>220</v>
       </c>
@@ -6083,400 +6797,400 @@
         <v>222</v>
       </c>
     </row>
-    <row r="300" spans="3:7" s="12" customFormat="1" ht="14.25"/>
-    <row r="301" spans="3:7" s="12" customFormat="1" ht="14.25">
+    <row r="300" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="301" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C301" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="302" spans="3:7" s="12" customFormat="1" ht="14.25"/>
-    <row r="303" spans="3:7" s="12" customFormat="1" ht="14.25">
+    <row r="302" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="303" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C303" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="304" spans="3:7" s="12" customFormat="1" ht="14.25">
-      <c r="D304" s="62" t="s">
+    <row r="304" spans="3:7" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D304" s="44" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="305" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="306" spans="2:2" s="12" customFormat="1" ht="14.25">
+    <row r="305" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="306" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B306" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="307" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="308" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="309" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="310" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="311" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="312" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="313" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="314" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="315" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="316" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="317" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="318" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="319" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="320" spans="2:2" s="12" customFormat="1" ht="14.25"/>
-    <row r="321" spans="2:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="322" spans="2:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="323" spans="2:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="324" spans="2:3" s="12" customFormat="1" ht="14.25">
+    <row r="307" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="308" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="309" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="310" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="311" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="312" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="313" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="314" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="315" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="316" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="317" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="318" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="319" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="320" spans="2:2" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="321" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="322" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="323" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="324" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B324" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="325" spans="2:3" s="12" customFormat="1" ht="14.25">
+    <row r="325" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C325" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="326" spans="2:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="327" spans="2:3" s="12" customFormat="1" ht="14.25">
+    <row r="326" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="327" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B327" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="328" spans="2:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="329" spans="2:3" s="12" customFormat="1" ht="14.25">
+    <row r="328" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="329" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B329" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="330" spans="2:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="331" spans="2:3" s="12" customFormat="1" ht="14.25">
+    <row r="330" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="331" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B331" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="332" spans="2:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="333" spans="2:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="334" spans="2:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="335" spans="2:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="336" spans="2:3" s="12" customFormat="1" ht="14.25"/>
-    <row r="337" s="12" customFormat="1" ht="14.25"/>
-    <row r="338" s="12" customFormat="1" ht="14.25"/>
-    <row r="339" s="12" customFormat="1" ht="14.25"/>
-    <row r="340" s="12" customFormat="1" ht="14.25"/>
-    <row r="341" s="12" customFormat="1" ht="14.25"/>
-    <row r="342" s="12" customFormat="1" ht="14.25"/>
-    <row r="343" s="12" customFormat="1" ht="14.25"/>
-    <row r="344" s="12" customFormat="1" ht="14.25"/>
-    <row r="345" s="12" customFormat="1" ht="14.25"/>
-    <row r="346" s="12" customFormat="1" ht="14.25"/>
-    <row r="347" s="12" customFormat="1" ht="14.25"/>
-    <row r="348" s="12" customFormat="1" ht="14.25"/>
-    <row r="349" s="12" customFormat="1" ht="14.25"/>
-    <row r="350" s="12" customFormat="1" ht="14.25"/>
-    <row r="351" s="12" customFormat="1" ht="14.25"/>
-    <row r="352" s="12" customFormat="1" ht="14.25"/>
-    <row r="353" s="12" customFormat="1" ht="14.25"/>
-    <row r="354" s="12" customFormat="1" ht="14.25"/>
-    <row r="355" s="12" customFormat="1" ht="14.25"/>
-    <row r="356" s="12" customFormat="1" ht="14.25"/>
-    <row r="357" s="12" customFormat="1" ht="14.25"/>
-    <row r="358" s="12" customFormat="1" ht="14.25"/>
-    <row r="359" s="12" customFormat="1" ht="14.25"/>
-    <row r="360" s="12" customFormat="1" ht="14.25"/>
-    <row r="361" s="12" customFormat="1" ht="14.25"/>
-    <row r="362" s="12" customFormat="1" ht="14.25"/>
-    <row r="363" s="12" customFormat="1" ht="14.25"/>
-    <row r="364" s="12" customFormat="1" ht="14.25"/>
-    <row r="365" s="12" customFormat="1" ht="14.25"/>
-    <row r="366" s="12" customFormat="1" ht="14.25"/>
-    <row r="367" s="12" customFormat="1" ht="14.25"/>
-    <row r="368" s="12" customFormat="1" ht="14.25"/>
-    <row r="369" s="12" customFormat="1" ht="14.25"/>
-    <row r="370" s="12" customFormat="1" ht="14.25"/>
-    <row r="371" s="12" customFormat="1" ht="14.25"/>
-    <row r="372" s="12" customFormat="1" ht="14.25"/>
-    <row r="373" s="12" customFormat="1" ht="14.25"/>
-    <row r="374" s="12" customFormat="1" ht="14.25"/>
-    <row r="375" s="12" customFormat="1" ht="14.25"/>
-    <row r="376" s="12" customFormat="1" ht="14.25"/>
-    <row r="377" s="12" customFormat="1" ht="14.25"/>
-    <row r="378" s="12" customFormat="1" ht="14.25"/>
-    <row r="379" s="12" customFormat="1" ht="14.25"/>
-    <row r="380" s="12" customFormat="1" ht="14.25"/>
-    <row r="381" s="12" customFormat="1" ht="14.25"/>
-    <row r="382" s="12" customFormat="1" ht="14.25"/>
-    <row r="383" s="12" customFormat="1" ht="14.25"/>
-    <row r="384" s="12" customFormat="1" ht="14.25"/>
-    <row r="385" s="12" customFormat="1" ht="14.25"/>
-    <row r="386" s="12" customFormat="1" ht="14.25"/>
-    <row r="387" s="12" customFormat="1" ht="14.25"/>
-    <row r="388" s="12" customFormat="1" ht="14.25"/>
-    <row r="389" s="12" customFormat="1" ht="14.25"/>
-    <row r="390" s="12" customFormat="1" ht="14.25"/>
-    <row r="391" s="12" customFormat="1" ht="14.25"/>
-    <row r="392" s="12" customFormat="1" ht="14.25"/>
-    <row r="393" s="12" customFormat="1" ht="14.25"/>
-    <row r="394" s="12" customFormat="1" ht="14.25"/>
-    <row r="395" s="12" customFormat="1" ht="14.25"/>
-    <row r="396" s="12" customFormat="1" ht="14.25"/>
-    <row r="397" s="12" customFormat="1" ht="14.25"/>
-    <row r="398" s="12" customFormat="1" ht="14.25"/>
-    <row r="399" s="12" customFormat="1" ht="14.25"/>
-    <row r="400" s="12" customFormat="1" ht="14.25"/>
-    <row r="401" s="12" customFormat="1" ht="14.25"/>
-    <row r="402" s="12" customFormat="1" ht="14.25"/>
-    <row r="403" s="12" customFormat="1" ht="14.25"/>
-    <row r="404" s="12" customFormat="1" ht="14.25"/>
-    <row r="405" s="12" customFormat="1" ht="14.25"/>
-    <row r="406" s="12" customFormat="1" ht="14.25"/>
-    <row r="407" s="12" customFormat="1" ht="14.25"/>
-    <row r="408" s="12" customFormat="1" ht="14.25"/>
-    <row r="409" s="12" customFormat="1" ht="14.25"/>
-    <row r="410" s="12" customFormat="1" ht="14.25"/>
-    <row r="411" s="12" customFormat="1" ht="14.25"/>
-    <row r="412" s="12" customFormat="1" ht="14.25"/>
-    <row r="413" s="12" customFormat="1" ht="14.25"/>
-    <row r="414" s="12" customFormat="1" ht="14.25"/>
-    <row r="415" s="12" customFormat="1" ht="14.25"/>
-    <row r="416" s="12" customFormat="1" ht="14.25"/>
-    <row r="417" s="12" customFormat="1" ht="14.25"/>
-    <row r="418" s="12" customFormat="1" ht="14.25"/>
-    <row r="419" s="12" customFormat="1" ht="14.25"/>
-    <row r="420" s="12" customFormat="1" ht="14.25"/>
-    <row r="421" s="12" customFormat="1" ht="14.25"/>
-    <row r="422" s="12" customFormat="1" ht="14.25"/>
-    <row r="423" s="12" customFormat="1" ht="14.25"/>
-    <row r="424" s="12" customFormat="1" ht="14.25"/>
-    <row r="425" s="12" customFormat="1" ht="14.25"/>
-    <row r="426" s="12" customFormat="1" ht="14.25"/>
-    <row r="427" s="12" customFormat="1" ht="14.25"/>
-    <row r="428" s="12" customFormat="1" ht="14.25"/>
-    <row r="429" s="12" customFormat="1" ht="14.25"/>
-    <row r="430" s="12" customFormat="1" ht="14.25"/>
-    <row r="431" s="12" customFormat="1" ht="14.25"/>
-    <row r="432" s="12" customFormat="1" ht="14.25"/>
-    <row r="433" s="12" customFormat="1" ht="14.25"/>
-    <row r="434" s="12" customFormat="1" ht="14.25"/>
-    <row r="435" s="12" customFormat="1" ht="14.25"/>
-    <row r="436" s="12" customFormat="1" ht="14.25"/>
-    <row r="437" s="12" customFormat="1" ht="14.25"/>
-    <row r="438" s="12" customFormat="1" ht="14.25"/>
-    <row r="439" s="12" customFormat="1" ht="14.25"/>
-    <row r="440" s="12" customFormat="1" ht="14.25"/>
-    <row r="441" s="12" customFormat="1" ht="14.25"/>
-    <row r="442" s="12" customFormat="1" ht="14.25"/>
-    <row r="443" s="12" customFormat="1" ht="14.25"/>
-    <row r="444" s="12" customFormat="1" ht="14.25"/>
-    <row r="445" s="12" customFormat="1" ht="14.25"/>
-    <row r="446" s="12" customFormat="1" ht="14.25"/>
-    <row r="447" s="12" customFormat="1" ht="14.25"/>
-    <row r="448" s="12" customFormat="1" ht="14.25"/>
-    <row r="449" s="12" customFormat="1" ht="14.25"/>
-    <row r="450" s="12" customFormat="1" ht="14.25"/>
-    <row r="451" s="12" customFormat="1" ht="14.25"/>
-    <row r="452" s="12" customFormat="1" ht="14.25"/>
-    <row r="453" s="12" customFormat="1" ht="14.25"/>
-    <row r="454" s="12" customFormat="1" ht="14.25"/>
-    <row r="455" s="12" customFormat="1" ht="14.25"/>
-    <row r="456" s="12" customFormat="1" ht="14.25"/>
-    <row r="457" s="12" customFormat="1" ht="14.25"/>
-    <row r="458" s="12" customFormat="1" ht="14.25"/>
-    <row r="459" s="12" customFormat="1" ht="14.25"/>
-    <row r="460" s="12" customFormat="1" ht="14.25"/>
-    <row r="461" s="12" customFormat="1" ht="14.25"/>
-    <row r="462" s="12" customFormat="1" ht="14.25"/>
-    <row r="463" s="12" customFormat="1" ht="14.25"/>
-    <row r="464" s="12" customFormat="1" ht="14.25"/>
-    <row r="465" s="12" customFormat="1" ht="14.25"/>
-    <row r="466" s="12" customFormat="1" ht="14.25"/>
-    <row r="467" s="12" customFormat="1" ht="14.25"/>
-    <row r="468" s="12" customFormat="1" ht="14.25"/>
-    <row r="469" s="12" customFormat="1" ht="14.25"/>
-    <row r="470" s="12" customFormat="1" ht="14.25"/>
-    <row r="471" s="12" customFormat="1" ht="14.25"/>
-    <row r="472" s="12" customFormat="1" ht="14.25"/>
-    <row r="473" s="12" customFormat="1" ht="14.25"/>
-    <row r="474" s="12" customFormat="1" ht="14.25"/>
-    <row r="475" s="12" customFormat="1" ht="14.25"/>
-    <row r="476" s="12" customFormat="1" ht="14.25"/>
-    <row r="477" s="12" customFormat="1" ht="14.25"/>
-    <row r="478" s="12" customFormat="1" ht="14.25"/>
-    <row r="479" s="12" customFormat="1" ht="14.25"/>
-    <row r="480" s="12" customFormat="1" ht="14.25"/>
-    <row r="481" s="12" customFormat="1" ht="14.25"/>
-    <row r="482" s="12" customFormat="1" ht="14.25"/>
-    <row r="483" s="12" customFormat="1" ht="14.25"/>
-    <row r="484" s="12" customFormat="1" ht="14.25"/>
-    <row r="485" s="12" customFormat="1" ht="14.25"/>
-    <row r="486" s="12" customFormat="1" ht="14.25"/>
-    <row r="487" s="12" customFormat="1" ht="14.25"/>
-    <row r="488" s="12" customFormat="1" ht="14.25"/>
-    <row r="489" s="12" customFormat="1" ht="14.25"/>
-    <row r="490" s="12" customFormat="1" ht="14.25"/>
-    <row r="491" s="12" customFormat="1" ht="14.25"/>
-    <row r="492" s="12" customFormat="1" ht="14.25"/>
-    <row r="493" s="12" customFormat="1" ht="14.25"/>
-    <row r="494" s="12" customFormat="1" ht="14.25"/>
-    <row r="495" s="12" customFormat="1" ht="14.25"/>
-    <row r="496" s="12" customFormat="1" ht="14.25"/>
-    <row r="497" s="12" customFormat="1" ht="14.25"/>
-    <row r="498" s="12" customFormat="1" ht="14.25"/>
-    <row r="499" s="12" customFormat="1" ht="14.25"/>
-    <row r="500" s="12" customFormat="1" ht="14.25"/>
-    <row r="501" s="12" customFormat="1" ht="14.25"/>
-    <row r="502" s="12" customFormat="1" ht="14.25"/>
-    <row r="503" s="12" customFormat="1" ht="14.25"/>
-    <row r="504" s="12" customFormat="1" ht="14.25"/>
-    <row r="505" s="12" customFormat="1" ht="14.25"/>
-    <row r="506" s="12" customFormat="1" ht="14.25"/>
-    <row r="507" s="12" customFormat="1" ht="14.25"/>
-    <row r="508" s="12" customFormat="1" ht="14.25"/>
-    <row r="509" s="12" customFormat="1" ht="14.25"/>
-    <row r="510" s="12" customFormat="1" ht="14.25"/>
-    <row r="511" s="12" customFormat="1" ht="14.25"/>
-    <row r="512" s="12" customFormat="1" ht="14.25"/>
-    <row r="513" s="12" customFormat="1" ht="14.25"/>
-    <row r="514" s="12" customFormat="1" ht="14.25"/>
-    <row r="515" s="12" customFormat="1" ht="14.25"/>
-    <row r="516" s="12" customFormat="1" ht="14.25"/>
-    <row r="517" s="12" customFormat="1" ht="14.25"/>
-    <row r="518" s="12" customFormat="1" ht="14.25"/>
-    <row r="519" s="12" customFormat="1" ht="14.25"/>
-    <row r="520" s="12" customFormat="1" ht="14.25"/>
-    <row r="521" s="12" customFormat="1" ht="14.25"/>
-    <row r="522" s="12" customFormat="1" ht="14.25"/>
-    <row r="523" s="12" customFormat="1" ht="14.25"/>
-    <row r="524" s="12" customFormat="1" ht="14.25"/>
-    <row r="525" s="12" customFormat="1" ht="14.25"/>
-    <row r="526" s="12" customFormat="1" ht="14.25"/>
-    <row r="527" s="12" customFormat="1" ht="14.25"/>
-    <row r="528" s="12" customFormat="1" ht="14.25"/>
-    <row r="529" s="12" customFormat="1" ht="14.25"/>
-    <row r="530" s="12" customFormat="1" ht="14.25"/>
-    <row r="531" s="12" customFormat="1" ht="14.25"/>
-    <row r="532" s="12" customFormat="1" ht="14.25"/>
-    <row r="533" s="12" customFormat="1" ht="14.25"/>
-    <row r="534" s="12" customFormat="1" ht="14.25"/>
-    <row r="535" s="12" customFormat="1" ht="14.25"/>
-    <row r="536" s="12" customFormat="1" ht="14.25"/>
-    <row r="537" s="12" customFormat="1" ht="14.25"/>
-    <row r="538" s="12" customFormat="1" ht="14.25"/>
-    <row r="539" s="12" customFormat="1" ht="14.25"/>
-    <row r="540" s="12" customFormat="1" ht="14.25"/>
-    <row r="541" s="12" customFormat="1" ht="14.25"/>
-    <row r="542" s="12" customFormat="1" ht="14.25"/>
-    <row r="543" s="12" customFormat="1" ht="14.25"/>
-    <row r="544" s="12" customFormat="1" ht="14.25"/>
-    <row r="545" s="12" customFormat="1" ht="14.25"/>
-    <row r="546" s="12" customFormat="1" ht="14.25"/>
-    <row r="547" s="12" customFormat="1" ht="14.25"/>
-    <row r="548" s="12" customFormat="1" ht="14.25"/>
-    <row r="549" s="12" customFormat="1" ht="14.25"/>
-    <row r="550" s="12" customFormat="1" ht="14.25"/>
-    <row r="551" s="12" customFormat="1" ht="14.25"/>
-    <row r="552" s="12" customFormat="1" ht="14.25"/>
-    <row r="553" s="12" customFormat="1" ht="14.25"/>
-    <row r="554" s="12" customFormat="1" ht="14.25"/>
-    <row r="555" s="12" customFormat="1" ht="14.25"/>
-    <row r="556" s="12" customFormat="1" ht="14.25"/>
-    <row r="557" s="12" customFormat="1" ht="14.25"/>
-    <row r="558" s="12" customFormat="1" ht="14.25"/>
-    <row r="559" s="12" customFormat="1" ht="14.25"/>
-    <row r="560" s="12" customFormat="1" ht="14.25"/>
-    <row r="561" s="12" customFormat="1" ht="14.25"/>
-    <row r="562" s="12" customFormat="1" ht="14.25"/>
-    <row r="563" s="12" customFormat="1" ht="14.25"/>
-    <row r="564" s="12" customFormat="1" ht="14.25"/>
-    <row r="565" s="12" customFormat="1" ht="14.25"/>
-    <row r="566" s="12" customFormat="1" ht="14.25"/>
-    <row r="567" s="12" customFormat="1" ht="14.25"/>
-    <row r="568" s="12" customFormat="1" ht="14.25"/>
-    <row r="569" s="12" customFormat="1" ht="14.25"/>
-    <row r="570" s="12" customFormat="1" ht="14.25"/>
-    <row r="571" s="12" customFormat="1" ht="14.25"/>
-    <row r="572" s="12" customFormat="1" ht="14.25"/>
-    <row r="573" s="12" customFormat="1" ht="14.25"/>
-    <row r="574" s="12" customFormat="1" ht="14.25"/>
-    <row r="575" s="12" customFormat="1" ht="14.25"/>
-    <row r="576" s="12" customFormat="1" ht="14.25"/>
-    <row r="577" s="12" customFormat="1" ht="14.25"/>
-    <row r="578" s="12" customFormat="1" ht="14.25"/>
-    <row r="579" s="12" customFormat="1" ht="14.25"/>
-    <row r="580" s="12" customFormat="1" ht="14.25"/>
-    <row r="581" s="12" customFormat="1" ht="14.25"/>
-    <row r="582" s="12" customFormat="1" ht="14.25"/>
-    <row r="583" s="12" customFormat="1" ht="14.25"/>
-    <row r="584" s="12" customFormat="1" ht="14.25"/>
-    <row r="585" s="12" customFormat="1" ht="14.25"/>
-    <row r="586" s="12" customFormat="1" ht="14.25"/>
-    <row r="587" s="12" customFormat="1" ht="14.25"/>
-    <row r="588" s="12" customFormat="1" ht="14.25"/>
-    <row r="589" s="12" customFormat="1" ht="14.25"/>
-    <row r="590" s="12" customFormat="1" ht="14.25"/>
-    <row r="591" s="12" customFormat="1" ht="14.25"/>
-    <row r="592" s="12" customFormat="1" ht="14.25"/>
-    <row r="593" s="12" customFormat="1" ht="14.25"/>
-    <row r="594" s="12" customFormat="1" ht="14.25"/>
-    <row r="595" s="12" customFormat="1" ht="14.25"/>
-    <row r="596" s="12" customFormat="1" ht="14.25"/>
-    <row r="597" s="12" customFormat="1" ht="14.25"/>
-    <row r="598" s="12" customFormat="1" ht="14.25"/>
-    <row r="599" s="12" customFormat="1" ht="14.25"/>
-    <row r="600" s="12" customFormat="1" ht="14.25"/>
-    <row r="601" s="12" customFormat="1" ht="14.25"/>
-    <row r="602" s="12" customFormat="1" ht="14.25"/>
-    <row r="603" s="12" customFormat="1" ht="14.25"/>
-    <row r="604" s="12" customFormat="1" ht="14.25"/>
-    <row r="605" s="12" customFormat="1" ht="14.25"/>
-    <row r="606" s="12" customFormat="1" ht="14.25"/>
-    <row r="607" s="12" customFormat="1" ht="14.25"/>
-    <row r="608" s="12" customFormat="1" ht="14.25"/>
-    <row r="609" s="12" customFormat="1" ht="14.25"/>
-    <row r="610" s="12" customFormat="1" ht="14.25"/>
-    <row r="611" s="12" customFormat="1" ht="14.25"/>
-    <row r="612" s="12" customFormat="1" ht="14.25"/>
-    <row r="613" s="12" customFormat="1" ht="14.25"/>
-    <row r="614" s="12" customFormat="1" ht="14.25"/>
-    <row r="615" s="12" customFormat="1" ht="14.25"/>
-    <row r="616" s="12" customFormat="1" ht="14.25"/>
-    <row r="617" s="12" customFormat="1" ht="14.25"/>
-    <row r="618" s="12" customFormat="1" ht="14.25"/>
-    <row r="619" s="12" customFormat="1" ht="14.25"/>
-    <row r="620" s="12" customFormat="1" ht="14.25"/>
-    <row r="621" s="12" customFormat="1" ht="14.25"/>
-    <row r="622" s="12" customFormat="1" ht="14.25"/>
-    <row r="623" s="12" customFormat="1" ht="14.25"/>
-    <row r="624" s="12" customFormat="1" ht="14.25"/>
-    <row r="625" s="12" customFormat="1" ht="14.25"/>
-    <row r="626" s="12" customFormat="1" ht="14.25"/>
-    <row r="627" s="12" customFormat="1" ht="14.25"/>
-    <row r="628" s="12" customFormat="1" ht="14.25"/>
-    <row r="629" s="12" customFormat="1" ht="14.25"/>
-    <row r="630" s="12" customFormat="1" ht="14.25"/>
-    <row r="631" s="12" customFormat="1" ht="14.25"/>
-    <row r="632" s="12" customFormat="1" ht="14.25"/>
-    <row r="633" s="12" customFormat="1" ht="14.25"/>
-    <row r="634" s="12" customFormat="1" ht="14.25"/>
-    <row r="635" s="12" customFormat="1" ht="14.25"/>
-    <row r="636" s="12" customFormat="1" ht="14.25"/>
-    <row r="637" s="12" customFormat="1" ht="14.25"/>
-    <row r="638" s="12" customFormat="1" ht="14.25"/>
-    <row r="639" s="12" customFormat="1" ht="14.25"/>
-    <row r="640" s="12" customFormat="1" ht="14.25"/>
-    <row r="641" s="12" customFormat="1" ht="14.25"/>
-    <row r="642" s="12" customFormat="1" ht="14.25"/>
-    <row r="643" s="12" customFormat="1" ht="14.25"/>
-    <row r="644" s="12" customFormat="1" ht="14.25"/>
-    <row r="645" s="12" customFormat="1" ht="14.25"/>
-    <row r="646" s="12" customFormat="1" ht="14.25"/>
-    <row r="647" s="12" customFormat="1" ht="14.25"/>
-    <row r="648" s="12" customFormat="1" ht="14.25"/>
-    <row r="649" s="12" customFormat="1" ht="14.25"/>
-    <row r="650" s="12" customFormat="1" ht="14.25"/>
-    <row r="651" s="12" customFormat="1" ht="14.25"/>
-    <row r="652" s="12" customFormat="1" ht="14.25"/>
-    <row r="653" s="12" customFormat="1" ht="14.25"/>
-    <row r="654" s="12" customFormat="1" ht="14.25"/>
-    <row r="655" s="12" customFormat="1" ht="14.25"/>
-    <row r="656" s="12" customFormat="1" ht="14.25"/>
-    <row r="657" s="12" customFormat="1" ht="14.25"/>
+    <row r="332" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="333" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="334" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="335" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="336" spans="2:3" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="337" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="338" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="339" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="340" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="341" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="342" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="343" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="344" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="345" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="346" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="347" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="348" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="349" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="350" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="351" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="352" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="353" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="354" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="355" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="356" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="357" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="358" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="359" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="360" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="361" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="362" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="363" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="364" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="365" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="366" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="367" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="368" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="369" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="370" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="371" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="372" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="373" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="374" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="375" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="376" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="377" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="378" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="379" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="380" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="381" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="382" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="383" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="384" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="385" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="386" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="387" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="388" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="389" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="390" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="391" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="392" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="393" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="394" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="395" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="396" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="397" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="398" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="399" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="400" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="401" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="402" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="403" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="404" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="405" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="406" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="407" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="408" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="409" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="410" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="411" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="412" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="413" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="414" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="415" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="416" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="417" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="418" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="419" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="420" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="421" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="422" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="423" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="424" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="425" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="426" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="427" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="428" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="429" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="430" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="431" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="432" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="433" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="434" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="435" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="436" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="437" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="438" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="439" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="440" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="441" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="442" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="443" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="444" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="445" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="446" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="447" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="448" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="449" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="450" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="451" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="452" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="453" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="454" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="455" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="456" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="457" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="458" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="459" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="460" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="461" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="462" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="463" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="464" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="465" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="466" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="467" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="468" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="469" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="470" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="471" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="472" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="473" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="474" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="475" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="476" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="477" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="478" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="479" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="480" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="481" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="482" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="483" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="484" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="485" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="486" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="487" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="488" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="489" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="490" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="491" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="492" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="493" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="494" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="495" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="496" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="497" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="498" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="499" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="500" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="501" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="502" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="503" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="504" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="505" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="506" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="507" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="508" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="509" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="510" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="511" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="512" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="513" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="514" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="515" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="516" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="517" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="518" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="519" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="520" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="521" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="522" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="523" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="524" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="525" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="526" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="527" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="528" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="529" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="530" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="531" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="532" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="533" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="534" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="535" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="536" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="537" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="538" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="539" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="540" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="541" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="542" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="543" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="544" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="545" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="546" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="547" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="548" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="549" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="550" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="551" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="552" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="553" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="554" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="555" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="556" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="557" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="558" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="559" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="560" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="561" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="562" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="563" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="564" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="565" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="566" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="567" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="568" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="569" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="570" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="571" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="572" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="573" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="574" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="575" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="576" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="577" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="578" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="579" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="580" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="581" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="582" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="583" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="584" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="585" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="586" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="587" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="588" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="589" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="590" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="591" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="592" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="593" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="594" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="595" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="596" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="597" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="598" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="599" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="600" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="601" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="602" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="603" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="604" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="605" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="606" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="607" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="608" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="609" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="610" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="611" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="612" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="613" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="614" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="615" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="616" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="617" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="618" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="619" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="620" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="621" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="622" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="623" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="624" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="625" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="626" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="627" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="628" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="629" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="630" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="631" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="632" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="633" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="634" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="635" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="636" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="637" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="638" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="639" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="640" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="641" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="642" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="643" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="644" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="645" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="646" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="647" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="648" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="649" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="650" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="651" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="652" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="653" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="654" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="655" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="656" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="657" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6489,19 +7203,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q657"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="F354" sqref="F354"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="63"/>
+    <col min="1" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>230</v>
       </c>
@@ -6509,909 +7223,909 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="B3" s="63" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B3" s="45" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="B4" s="63" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="45" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="B6" s="63" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="45" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="C7" s="63" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C7" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="45" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="C8" s="63" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C8" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="45" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="C9" s="63" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C9" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="45" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="63" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="45" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
-      <c r="C63" s="63" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C63" s="45" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="3:17">
-      <c r="C65" s="63" t="s">
+    <row r="65" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C65" s="45" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="3:17">
-      <c r="D66" s="63" t="s">
+    <row r="66" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D66" s="45" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="3:17">
-      <c r="C68" s="63" t="s">
+    <row r="68" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C68" s="45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="3:17">
-      <c r="D69" s="63" t="s">
+    <row r="69" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D69" s="45" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="3:17">
-      <c r="D70" s="63" t="s">
+    <row r="70" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D70" s="45" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="3:17">
-      <c r="D72" s="63" t="s">
+    <row r="72" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D72" s="45" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="73" spans="3:17">
-      <c r="E73" s="63" t="s">
+    <row r="73" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E73" s="45" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="3:17">
-      <c r="E74" s="63" t="s">
+    <row r="74" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E74" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="F74" s="63" t="s">
+      <c r="F74" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="J74" s="64"/>
-      <c r="L74" s="65"/>
-      <c r="M74" s="64"/>
-      <c r="N74" s="64"/>
-      <c r="O74" s="64"/>
-      <c r="P74" s="64"/>
-      <c r="Q74" s="64"/>
-    </row>
-    <row r="75" spans="3:17">
-      <c r="E75" s="63" t="s">
+      <c r="J74" s="46"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="46"/>
+    </row>
+    <row r="75" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E75" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="F75" s="63" t="s">
+      <c r="F75" s="45" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="3:17">
-      <c r="E76" s="63" t="s">
+    <row r="76" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E76" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="F76" s="63" t="s">
+      <c r="F76" s="45" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="3:17">
-      <c r="E77" s="63" t="s">
+    <row r="77" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E77" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="F77" s="63" t="s">
+      <c r="F77" s="45" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="3:17">
-      <c r="E78" s="63" t="s">
+    <row r="78" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E78" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="F78" s="63" t="s">
+      <c r="F78" s="45" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
-      <c r="B236" s="63" t="s">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B236" s="45" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="255" spans="3:3">
-      <c r="C255" s="63" t="s">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C255" s="45" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="257" spans="3:3">
-      <c r="C257" s="63" t="s">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C257" s="45" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="307" spans="2:2">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B307" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="345" spans="3:4">
-      <c r="C345" s="63" t="s">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C345" s="45" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="346" spans="3:4">
-      <c r="D346" s="63" t="s">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D346" s="45" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="347" spans="3:4">
-      <c r="D347" s="63" t="s">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D347" s="45" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="348" spans="3:4">
-      <c r="C348" s="63" t="s">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C348" s="45" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="349" spans="3:4">
-      <c r="C349" s="63" t="s">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C349" s="45" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="350" spans="3:4">
-      <c r="C350" s="63" t="s">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C350" s="45" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="351" spans="3:4">
-      <c r="C351" s="63" t="s">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C351" s="45" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="352" spans="3:4">
-      <c r="C352" s="63" t="s">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C352" s="45" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="353" spans="3:3">
-      <c r="C353" s="63" t="s">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C353" s="45" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="354" spans="3:3">
-      <c r="C354" s="63" t="s">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C354" s="45" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="613" spans="2:13">
-      <c r="B613" s="63" t="s">
+    <row r="613" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B613" s="45" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="614" spans="2:13" ht="15.75">
-      <c r="B614" s="67" t="s">
+    <row r="614" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B614" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="C614" s="67"/>
-      <c r="D614" s="67"/>
-      <c r="E614" s="67"/>
-      <c r="F614" s="67"/>
-      <c r="G614" s="67"/>
-      <c r="H614" s="67"/>
-      <c r="I614" s="67"/>
-      <c r="J614" s="67"/>
-      <c r="K614" s="66"/>
-      <c r="L614" s="66"/>
-      <c r="M614" s="66"/>
-    </row>
-    <row r="615" spans="2:13" ht="15.75">
-      <c r="B615" s="67"/>
-      <c r="C615" s="67"/>
-      <c r="D615" s="67"/>
-      <c r="E615" s="67"/>
-      <c r="F615" s="67"/>
-      <c r="G615" s="67"/>
-      <c r="H615" s="67"/>
-      <c r="I615" s="67"/>
-      <c r="J615" s="67"/>
-      <c r="K615" s="66"/>
-      <c r="L615" s="66"/>
-      <c r="M615" s="66"/>
-    </row>
-    <row r="616" spans="2:13" ht="15.75">
-      <c r="B616" s="67" t="s">
+      <c r="C614" s="49"/>
+      <c r="D614" s="49"/>
+      <c r="E614" s="49"/>
+      <c r="F614" s="49"/>
+      <c r="G614" s="49"/>
+      <c r="H614" s="49"/>
+      <c r="I614" s="49"/>
+      <c r="J614" s="49"/>
+      <c r="K614" s="48"/>
+      <c r="L614" s="48"/>
+      <c r="M614" s="48"/>
+    </row>
+    <row r="615" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B615" s="49"/>
+      <c r="C615" s="49"/>
+      <c r="D615" s="49"/>
+      <c r="E615" s="49"/>
+      <c r="F615" s="49"/>
+      <c r="G615" s="49"/>
+      <c r="H615" s="49"/>
+      <c r="I615" s="49"/>
+      <c r="J615" s="49"/>
+      <c r="K615" s="48"/>
+      <c r="L615" s="48"/>
+      <c r="M615" s="48"/>
+    </row>
+    <row r="616" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B616" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="C616" s="67"/>
-      <c r="D616" s="67"/>
-      <c r="E616" s="67"/>
-      <c r="F616" s="67"/>
-      <c r="G616" s="67"/>
-      <c r="H616" s="67"/>
-      <c r="I616" s="67"/>
-      <c r="J616" s="67"/>
-      <c r="K616" s="66"/>
-      <c r="L616" s="66"/>
-      <c r="M616" s="66"/>
-    </row>
-    <row r="617" spans="2:13" ht="15.75">
-      <c r="B617" s="67" t="s">
+      <c r="C616" s="49"/>
+      <c r="D616" s="49"/>
+      <c r="E616" s="49"/>
+      <c r="F616" s="49"/>
+      <c r="G616" s="49"/>
+      <c r="H616" s="49"/>
+      <c r="I616" s="49"/>
+      <c r="J616" s="49"/>
+      <c r="K616" s="48"/>
+      <c r="L616" s="48"/>
+      <c r="M616" s="48"/>
+    </row>
+    <row r="617" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B617" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="C617" s="67"/>
-      <c r="D617" s="67"/>
-      <c r="E617" s="67"/>
-      <c r="F617" s="67"/>
-      <c r="G617" s="67"/>
-      <c r="H617" s="67"/>
-      <c r="I617" s="67"/>
-      <c r="J617" s="67"/>
-      <c r="K617" s="66"/>
-      <c r="L617" s="66"/>
-      <c r="M617" s="66"/>
-    </row>
-    <row r="618" spans="2:13" ht="15.75">
-      <c r="B618" s="67" t="s">
+      <c r="C617" s="49"/>
+      <c r="D617" s="49"/>
+      <c r="E617" s="49"/>
+      <c r="F617" s="49"/>
+      <c r="G617" s="49"/>
+      <c r="H617" s="49"/>
+      <c r="I617" s="49"/>
+      <c r="J617" s="49"/>
+      <c r="K617" s="48"/>
+      <c r="L617" s="48"/>
+      <c r="M617" s="48"/>
+    </row>
+    <row r="618" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B618" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="C618" s="67"/>
-      <c r="D618" s="67"/>
-      <c r="E618" s="67"/>
-      <c r="F618" s="67"/>
-      <c r="G618" s="67"/>
-      <c r="H618" s="67"/>
-      <c r="I618" s="67"/>
-      <c r="J618" s="67"/>
-      <c r="K618" s="66"/>
-      <c r="L618" s="66"/>
-      <c r="M618" s="66"/>
-    </row>
-    <row r="619" spans="2:13" ht="15.75">
-      <c r="B619" s="67" t="s">
+      <c r="C618" s="49"/>
+      <c r="D618" s="49"/>
+      <c r="E618" s="49"/>
+      <c r="F618" s="49"/>
+      <c r="G618" s="49"/>
+      <c r="H618" s="49"/>
+      <c r="I618" s="49"/>
+      <c r="J618" s="49"/>
+      <c r="K618" s="48"/>
+      <c r="L618" s="48"/>
+      <c r="M618" s="48"/>
+    </row>
+    <row r="619" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B619" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="C619" s="67"/>
-      <c r="D619" s="67"/>
-      <c r="E619" s="67"/>
-      <c r="F619" s="67"/>
-      <c r="G619" s="67"/>
-      <c r="H619" s="67"/>
-      <c r="I619" s="67"/>
-      <c r="J619" s="67"/>
-      <c r="K619" s="66"/>
-      <c r="L619" s="66"/>
-      <c r="M619" s="66"/>
-    </row>
-    <row r="620" spans="2:13" ht="15.75">
-      <c r="B620" s="67" t="s">
+      <c r="C619" s="49"/>
+      <c r="D619" s="49"/>
+      <c r="E619" s="49"/>
+      <c r="F619" s="49"/>
+      <c r="G619" s="49"/>
+      <c r="H619" s="49"/>
+      <c r="I619" s="49"/>
+      <c r="J619" s="49"/>
+      <c r="K619" s="48"/>
+      <c r="L619" s="48"/>
+      <c r="M619" s="48"/>
+    </row>
+    <row r="620" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B620" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="C620" s="67"/>
-      <c r="D620" s="67"/>
-      <c r="E620" s="67"/>
-      <c r="F620" s="67"/>
-      <c r="G620" s="67"/>
-      <c r="H620" s="67"/>
-      <c r="I620" s="67"/>
-      <c r="J620" s="67"/>
-      <c r="K620" s="66"/>
-      <c r="L620" s="66"/>
-      <c r="M620" s="66"/>
-    </row>
-    <row r="621" spans="2:13" ht="15.75">
-      <c r="B621" s="67" t="s">
+      <c r="C620" s="49"/>
+      <c r="D620" s="49"/>
+      <c r="E620" s="49"/>
+      <c r="F620" s="49"/>
+      <c r="G620" s="49"/>
+      <c r="H620" s="49"/>
+      <c r="I620" s="49"/>
+      <c r="J620" s="49"/>
+      <c r="K620" s="48"/>
+      <c r="L620" s="48"/>
+      <c r="M620" s="48"/>
+    </row>
+    <row r="621" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B621" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="C621" s="67"/>
-      <c r="D621" s="67"/>
-      <c r="E621" s="67"/>
-      <c r="F621" s="67"/>
-      <c r="G621" s="67"/>
-      <c r="H621" s="67"/>
-      <c r="I621" s="67"/>
-      <c r="J621" s="67"/>
-      <c r="K621" s="66"/>
-      <c r="L621" s="66"/>
-      <c r="M621" s="66"/>
-    </row>
-    <row r="622" spans="2:13" ht="15.75">
-      <c r="B622" s="67" t="s">
+      <c r="C621" s="49"/>
+      <c r="D621" s="49"/>
+      <c r="E621" s="49"/>
+      <c r="F621" s="49"/>
+      <c r="G621" s="49"/>
+      <c r="H621" s="49"/>
+      <c r="I621" s="49"/>
+      <c r="J621" s="49"/>
+      <c r="K621" s="48"/>
+      <c r="L621" s="48"/>
+      <c r="M621" s="48"/>
+    </row>
+    <row r="622" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B622" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="C622" s="67"/>
-      <c r="D622" s="67"/>
-      <c r="E622" s="67"/>
-      <c r="F622" s="67"/>
-      <c r="G622" s="67"/>
-      <c r="H622" s="67"/>
-      <c r="I622" s="67"/>
-      <c r="J622" s="67"/>
-      <c r="K622" s="66"/>
-      <c r="L622" s="66"/>
-      <c r="M622" s="66"/>
-    </row>
-    <row r="623" spans="2:13" ht="15.75">
-      <c r="B623" s="67" t="s">
+      <c r="C622" s="49"/>
+      <c r="D622" s="49"/>
+      <c r="E622" s="49"/>
+      <c r="F622" s="49"/>
+      <c r="G622" s="49"/>
+      <c r="H622" s="49"/>
+      <c r="I622" s="49"/>
+      <c r="J622" s="49"/>
+      <c r="K622" s="48"/>
+      <c r="L622" s="48"/>
+      <c r="M622" s="48"/>
+    </row>
+    <row r="623" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B623" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="C623" s="67"/>
-      <c r="D623" s="67"/>
-      <c r="E623" s="67"/>
-      <c r="F623" s="67"/>
-      <c r="G623" s="67"/>
-      <c r="H623" s="67"/>
-      <c r="I623" s="67"/>
-      <c r="J623" s="67"/>
-      <c r="K623" s="66"/>
-      <c r="L623" s="66"/>
-      <c r="M623" s="66"/>
-    </row>
-    <row r="624" spans="2:13" ht="15.75">
-      <c r="B624" s="67" t="s">
+      <c r="C623" s="49"/>
+      <c r="D623" s="49"/>
+      <c r="E623" s="49"/>
+      <c r="F623" s="49"/>
+      <c r="G623" s="49"/>
+      <c r="H623" s="49"/>
+      <c r="I623" s="49"/>
+      <c r="J623" s="49"/>
+      <c r="K623" s="48"/>
+      <c r="L623" s="48"/>
+      <c r="M623" s="48"/>
+    </row>
+    <row r="624" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B624" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="C624" s="67"/>
-      <c r="D624" s="67"/>
-      <c r="E624" s="67"/>
-      <c r="F624" s="67"/>
-      <c r="G624" s="67"/>
-      <c r="H624" s="67"/>
-      <c r="I624" s="67"/>
-      <c r="J624" s="67"/>
-      <c r="K624" s="66"/>
-      <c r="L624" s="66"/>
-      <c r="M624" s="66"/>
-    </row>
-    <row r="625" spans="2:13" ht="15.75">
-      <c r="B625" s="67" t="s">
+      <c r="C624" s="49"/>
+      <c r="D624" s="49"/>
+      <c r="E624" s="49"/>
+      <c r="F624" s="49"/>
+      <c r="G624" s="49"/>
+      <c r="H624" s="49"/>
+      <c r="I624" s="49"/>
+      <c r="J624" s="49"/>
+      <c r="K624" s="48"/>
+      <c r="L624" s="48"/>
+      <c r="M624" s="48"/>
+    </row>
+    <row r="625" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B625" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="C625" s="67"/>
-      <c r="D625" s="67"/>
-      <c r="E625" s="67"/>
-      <c r="F625" s="67"/>
-      <c r="G625" s="67"/>
-      <c r="H625" s="67"/>
-      <c r="I625" s="67"/>
-      <c r="J625" s="67"/>
-      <c r="K625" s="66"/>
-      <c r="L625" s="66"/>
-      <c r="M625" s="66"/>
-    </row>
-    <row r="626" spans="2:13" ht="15.75">
-      <c r="B626" s="67" t="s">
+      <c r="C625" s="49"/>
+      <c r="D625" s="49"/>
+      <c r="E625" s="49"/>
+      <c r="F625" s="49"/>
+      <c r="G625" s="49"/>
+      <c r="H625" s="49"/>
+      <c r="I625" s="49"/>
+      <c r="J625" s="49"/>
+      <c r="K625" s="48"/>
+      <c r="L625" s="48"/>
+      <c r="M625" s="48"/>
+    </row>
+    <row r="626" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B626" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="C626" s="67"/>
-      <c r="D626" s="67"/>
-      <c r="E626" s="67"/>
-      <c r="F626" s="67"/>
-      <c r="G626" s="67"/>
-      <c r="H626" s="67"/>
-      <c r="I626" s="67"/>
-      <c r="J626" s="67"/>
-      <c r="K626" s="66"/>
-      <c r="L626" s="66"/>
-      <c r="M626" s="66"/>
-    </row>
-    <row r="627" spans="2:13" ht="15.75">
-      <c r="B627" s="67" t="s">
+      <c r="C626" s="49"/>
+      <c r="D626" s="49"/>
+      <c r="E626" s="49"/>
+      <c r="F626" s="49"/>
+      <c r="G626" s="49"/>
+      <c r="H626" s="49"/>
+      <c r="I626" s="49"/>
+      <c r="J626" s="49"/>
+      <c r="K626" s="48"/>
+      <c r="L626" s="48"/>
+      <c r="M626" s="48"/>
+    </row>
+    <row r="627" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B627" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="C627" s="67"/>
-      <c r="D627" s="67"/>
-      <c r="E627" s="67"/>
-      <c r="F627" s="67"/>
-      <c r="G627" s="67"/>
-      <c r="H627" s="67"/>
-      <c r="I627" s="67"/>
-      <c r="J627" s="67"/>
-      <c r="K627" s="66"/>
-      <c r="L627" s="66"/>
-      <c r="M627" s="66"/>
-    </row>
-    <row r="628" spans="2:13" ht="15.75">
-      <c r="B628" s="67" t="s">
+      <c r="C627" s="49"/>
+      <c r="D627" s="49"/>
+      <c r="E627" s="49"/>
+      <c r="F627" s="49"/>
+      <c r="G627" s="49"/>
+      <c r="H627" s="49"/>
+      <c r="I627" s="49"/>
+      <c r="J627" s="49"/>
+      <c r="K627" s="48"/>
+      <c r="L627" s="48"/>
+      <c r="M627" s="48"/>
+    </row>
+    <row r="628" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B628" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="C628" s="67"/>
-      <c r="D628" s="67"/>
-      <c r="E628" s="67"/>
-      <c r="F628" s="67"/>
-      <c r="G628" s="67"/>
-      <c r="H628" s="67"/>
-      <c r="I628" s="67"/>
-      <c r="J628" s="67"/>
-      <c r="K628" s="66"/>
-      <c r="L628" s="66"/>
-      <c r="M628" s="66"/>
-    </row>
-    <row r="629" spans="2:13" ht="15.75">
-      <c r="B629" s="67" t="s">
+      <c r="C628" s="49"/>
+      <c r="D628" s="49"/>
+      <c r="E628" s="49"/>
+      <c r="F628" s="49"/>
+      <c r="G628" s="49"/>
+      <c r="H628" s="49"/>
+      <c r="I628" s="49"/>
+      <c r="J628" s="49"/>
+      <c r="K628" s="48"/>
+      <c r="L628" s="48"/>
+      <c r="M628" s="48"/>
+    </row>
+    <row r="629" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B629" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="C629" s="67"/>
-      <c r="D629" s="67"/>
-      <c r="E629" s="67"/>
-      <c r="F629" s="67"/>
-      <c r="G629" s="67"/>
-      <c r="H629" s="67"/>
-      <c r="I629" s="67"/>
-      <c r="J629" s="67"/>
-      <c r="K629" s="66"/>
-      <c r="L629" s="66"/>
-      <c r="M629" s="66"/>
-    </row>
-    <row r="630" spans="2:13" ht="15.75">
-      <c r="B630" s="67" t="s">
+      <c r="C629" s="49"/>
+      <c r="D629" s="49"/>
+      <c r="E629" s="49"/>
+      <c r="F629" s="49"/>
+      <c r="G629" s="49"/>
+      <c r="H629" s="49"/>
+      <c r="I629" s="49"/>
+      <c r="J629" s="49"/>
+      <c r="K629" s="48"/>
+      <c r="L629" s="48"/>
+      <c r="M629" s="48"/>
+    </row>
+    <row r="630" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B630" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="C630" s="67"/>
-      <c r="D630" s="67"/>
-      <c r="E630" s="67"/>
-      <c r="F630" s="67"/>
-      <c r="G630" s="67"/>
-      <c r="H630" s="67"/>
-      <c r="I630" s="67"/>
-      <c r="J630" s="67"/>
-      <c r="K630" s="66"/>
-      <c r="L630" s="66"/>
-      <c r="M630" s="66"/>
-    </row>
-    <row r="631" spans="2:13" ht="15.75">
-      <c r="B631" s="67" t="s">
+      <c r="C630" s="49"/>
+      <c r="D630" s="49"/>
+      <c r="E630" s="49"/>
+      <c r="F630" s="49"/>
+      <c r="G630" s="49"/>
+      <c r="H630" s="49"/>
+      <c r="I630" s="49"/>
+      <c r="J630" s="49"/>
+      <c r="K630" s="48"/>
+      <c r="L630" s="48"/>
+      <c r="M630" s="48"/>
+    </row>
+    <row r="631" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B631" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="C631" s="67"/>
-      <c r="D631" s="67"/>
-      <c r="E631" s="67"/>
-      <c r="F631" s="67"/>
-      <c r="G631" s="67"/>
-      <c r="H631" s="67"/>
-      <c r="I631" s="67"/>
-      <c r="J631" s="67"/>
-      <c r="K631" s="66"/>
-      <c r="L631" s="66"/>
-      <c r="M631" s="66"/>
-    </row>
-    <row r="632" spans="2:13" ht="15.75">
-      <c r="B632" s="67" t="s">
+      <c r="C631" s="49"/>
+      <c r="D631" s="49"/>
+      <c r="E631" s="49"/>
+      <c r="F631" s="49"/>
+      <c r="G631" s="49"/>
+      <c r="H631" s="49"/>
+      <c r="I631" s="49"/>
+      <c r="J631" s="49"/>
+      <c r="K631" s="48"/>
+      <c r="L631" s="48"/>
+      <c r="M631" s="48"/>
+    </row>
+    <row r="632" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B632" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="C632" s="67"/>
-      <c r="D632" s="67"/>
-      <c r="E632" s="67"/>
-      <c r="F632" s="67"/>
-      <c r="G632" s="67"/>
-      <c r="H632" s="67"/>
-      <c r="I632" s="67"/>
-      <c r="J632" s="67"/>
-      <c r="K632" s="66"/>
-      <c r="L632" s="66"/>
-      <c r="M632" s="66"/>
-    </row>
-    <row r="633" spans="2:13" ht="15.75">
-      <c r="B633" s="67" t="s">
+      <c r="C632" s="49"/>
+      <c r="D632" s="49"/>
+      <c r="E632" s="49"/>
+      <c r="F632" s="49"/>
+      <c r="G632" s="49"/>
+      <c r="H632" s="49"/>
+      <c r="I632" s="49"/>
+      <c r="J632" s="49"/>
+      <c r="K632" s="48"/>
+      <c r="L632" s="48"/>
+      <c r="M632" s="48"/>
+    </row>
+    <row r="633" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B633" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="C633" s="67"/>
-      <c r="D633" s="67"/>
-      <c r="E633" s="67"/>
-      <c r="F633" s="67"/>
-      <c r="G633" s="67"/>
-      <c r="H633" s="67"/>
-      <c r="I633" s="67"/>
-      <c r="J633" s="67"/>
-      <c r="K633" s="66"/>
-      <c r="L633" s="66"/>
-      <c r="M633" s="66"/>
-    </row>
-    <row r="634" spans="2:13" ht="15.75">
-      <c r="B634" s="67" t="s">
+      <c r="C633" s="49"/>
+      <c r="D633" s="49"/>
+      <c r="E633" s="49"/>
+      <c r="F633" s="49"/>
+      <c r="G633" s="49"/>
+      <c r="H633" s="49"/>
+      <c r="I633" s="49"/>
+      <c r="J633" s="49"/>
+      <c r="K633" s="48"/>
+      <c r="L633" s="48"/>
+      <c r="M633" s="48"/>
+    </row>
+    <row r="634" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B634" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="C634" s="67"/>
-      <c r="D634" s="67"/>
-      <c r="E634" s="67"/>
-      <c r="F634" s="67"/>
-      <c r="G634" s="67"/>
-      <c r="H634" s="67"/>
-      <c r="I634" s="67"/>
-      <c r="J634" s="67"/>
-      <c r="K634" s="66"/>
-      <c r="L634" s="66"/>
-      <c r="M634" s="66"/>
-    </row>
-    <row r="635" spans="2:13" ht="15.75">
-      <c r="B635" s="67" t="s">
+      <c r="C634" s="49"/>
+      <c r="D634" s="49"/>
+      <c r="E634" s="49"/>
+      <c r="F634" s="49"/>
+      <c r="G634" s="49"/>
+      <c r="H634" s="49"/>
+      <c r="I634" s="49"/>
+      <c r="J634" s="49"/>
+      <c r="K634" s="48"/>
+      <c r="L634" s="48"/>
+      <c r="M634" s="48"/>
+    </row>
+    <row r="635" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B635" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="C635" s="67"/>
-      <c r="D635" s="67"/>
-      <c r="E635" s="67"/>
-      <c r="F635" s="67"/>
-      <c r="G635" s="67"/>
-      <c r="H635" s="67"/>
-      <c r="I635" s="67"/>
-      <c r="J635" s="67"/>
-      <c r="K635" s="66"/>
-      <c r="L635" s="66"/>
-      <c r="M635" s="66"/>
-    </row>
-    <row r="636" spans="2:13" ht="15.75">
-      <c r="B636" s="67" t="s">
+      <c r="C635" s="49"/>
+      <c r="D635" s="49"/>
+      <c r="E635" s="49"/>
+      <c r="F635" s="49"/>
+      <c r="G635" s="49"/>
+      <c r="H635" s="49"/>
+      <c r="I635" s="49"/>
+      <c r="J635" s="49"/>
+      <c r="K635" s="48"/>
+      <c r="L635" s="48"/>
+      <c r="M635" s="48"/>
+    </row>
+    <row r="636" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B636" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="C636" s="67"/>
-      <c r="D636" s="67"/>
-      <c r="E636" s="67"/>
-      <c r="F636" s="67"/>
-      <c r="G636" s="67"/>
-      <c r="H636" s="67"/>
-      <c r="I636" s="67"/>
-      <c r="J636" s="67"/>
-      <c r="K636" s="66"/>
-      <c r="L636" s="66"/>
-      <c r="M636" s="66"/>
-    </row>
-    <row r="637" spans="2:13" ht="15.75">
-      <c r="B637" s="67" t="s">
+      <c r="C636" s="49"/>
+      <c r="D636" s="49"/>
+      <c r="E636" s="49"/>
+      <c r="F636" s="49"/>
+      <c r="G636" s="49"/>
+      <c r="H636" s="49"/>
+      <c r="I636" s="49"/>
+      <c r="J636" s="49"/>
+      <c r="K636" s="48"/>
+      <c r="L636" s="48"/>
+      <c r="M636" s="48"/>
+    </row>
+    <row r="637" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B637" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="C637" s="67"/>
-      <c r="D637" s="67"/>
-      <c r="E637" s="67"/>
-      <c r="F637" s="67"/>
-      <c r="G637" s="67"/>
-      <c r="H637" s="67"/>
-      <c r="I637" s="67"/>
-      <c r="J637" s="67"/>
-      <c r="K637" s="66"/>
-      <c r="L637" s="66"/>
-      <c r="M637" s="66"/>
-    </row>
-    <row r="638" spans="2:13" ht="15.75">
-      <c r="B638" s="67" t="s">
+      <c r="C637" s="49"/>
+      <c r="D637" s="49"/>
+      <c r="E637" s="49"/>
+      <c r="F637" s="49"/>
+      <c r="G637" s="49"/>
+      <c r="H637" s="49"/>
+      <c r="I637" s="49"/>
+      <c r="J637" s="49"/>
+      <c r="K637" s="48"/>
+      <c r="L637" s="48"/>
+      <c r="M637" s="48"/>
+    </row>
+    <row r="638" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B638" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="C638" s="67"/>
-      <c r="D638" s="67"/>
-      <c r="E638" s="67"/>
-      <c r="F638" s="67"/>
-      <c r="G638" s="67"/>
-      <c r="H638" s="67"/>
-      <c r="I638" s="67"/>
-      <c r="J638" s="67"/>
-      <c r="K638" s="66"/>
-      <c r="L638" s="66"/>
-      <c r="M638" s="66"/>
-    </row>
-    <row r="639" spans="2:13" ht="15.75">
-      <c r="B639" s="67" t="s">
+      <c r="C638" s="49"/>
+      <c r="D638" s="49"/>
+      <c r="E638" s="49"/>
+      <c r="F638" s="49"/>
+      <c r="G638" s="49"/>
+      <c r="H638" s="49"/>
+      <c r="I638" s="49"/>
+      <c r="J638" s="49"/>
+      <c r="K638" s="48"/>
+      <c r="L638" s="48"/>
+      <c r="M638" s="48"/>
+    </row>
+    <row r="639" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B639" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="C639" s="67"/>
-      <c r="D639" s="67"/>
-      <c r="E639" s="67"/>
-      <c r="F639" s="67"/>
-      <c r="G639" s="67"/>
-      <c r="H639" s="67"/>
-      <c r="I639" s="67"/>
-      <c r="J639" s="67"/>
-      <c r="K639" s="66"/>
-      <c r="L639" s="66"/>
-      <c r="M639" s="66"/>
-    </row>
-    <row r="640" spans="2:13" ht="15.75">
-      <c r="B640" s="67" t="s">
+      <c r="C639" s="49"/>
+      <c r="D639" s="49"/>
+      <c r="E639" s="49"/>
+      <c r="F639" s="49"/>
+      <c r="G639" s="49"/>
+      <c r="H639" s="49"/>
+      <c r="I639" s="49"/>
+      <c r="J639" s="49"/>
+      <c r="K639" s="48"/>
+      <c r="L639" s="48"/>
+      <c r="M639" s="48"/>
+    </row>
+    <row r="640" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B640" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="C640" s="67"/>
-      <c r="D640" s="67"/>
-      <c r="E640" s="67"/>
-      <c r="F640" s="67"/>
-      <c r="G640" s="67"/>
-      <c r="H640" s="67"/>
-      <c r="I640" s="67"/>
-      <c r="J640" s="67"/>
-      <c r="K640" s="66"/>
-      <c r="L640" s="66"/>
-      <c r="M640" s="66"/>
-    </row>
-    <row r="641" spans="2:13" ht="15.75">
-      <c r="B641" s="67" t="s">
+      <c r="C640" s="49"/>
+      <c r="D640" s="49"/>
+      <c r="E640" s="49"/>
+      <c r="F640" s="49"/>
+      <c r="G640" s="49"/>
+      <c r="H640" s="49"/>
+      <c r="I640" s="49"/>
+      <c r="J640" s="49"/>
+      <c r="K640" s="48"/>
+      <c r="L640" s="48"/>
+      <c r="M640" s="48"/>
+    </row>
+    <row r="641" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B641" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="C641" s="67"/>
-      <c r="D641" s="67"/>
-      <c r="E641" s="67"/>
-      <c r="F641" s="67"/>
-      <c r="G641" s="67"/>
-      <c r="H641" s="67"/>
-      <c r="I641" s="67"/>
-      <c r="J641" s="67"/>
-      <c r="K641" s="66"/>
-      <c r="L641" s="66"/>
-      <c r="M641" s="66"/>
-    </row>
-    <row r="642" spans="2:13" ht="15.75">
-      <c r="B642" s="67" t="s">
+      <c r="C641" s="49"/>
+      <c r="D641" s="49"/>
+      <c r="E641" s="49"/>
+      <c r="F641" s="49"/>
+      <c r="G641" s="49"/>
+      <c r="H641" s="49"/>
+      <c r="I641" s="49"/>
+      <c r="J641" s="49"/>
+      <c r="K641" s="48"/>
+      <c r="L641" s="48"/>
+      <c r="M641" s="48"/>
+    </row>
+    <row r="642" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B642" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="C642" s="67"/>
-      <c r="D642" s="67"/>
-      <c r="E642" s="67"/>
-      <c r="F642" s="67"/>
-      <c r="G642" s="67"/>
-      <c r="H642" s="67"/>
-      <c r="I642" s="67"/>
-      <c r="J642" s="67"/>
-      <c r="K642" s="66"/>
-      <c r="L642" s="66"/>
-      <c r="M642" s="66"/>
-    </row>
-    <row r="643" spans="2:13" ht="15.75">
-      <c r="B643" s="67"/>
-      <c r="C643" s="67"/>
-      <c r="D643" s="67"/>
-      <c r="E643" s="67"/>
-      <c r="F643" s="67"/>
-      <c r="G643" s="67"/>
-      <c r="H643" s="67"/>
-      <c r="I643" s="67"/>
-      <c r="J643" s="67"/>
-      <c r="K643" s="66"/>
-      <c r="L643" s="66"/>
-      <c r="M643" s="66"/>
-    </row>
-    <row r="644" spans="2:13" ht="15.75">
-      <c r="B644" s="67" t="s">
+      <c r="C642" s="49"/>
+      <c r="D642" s="49"/>
+      <c r="E642" s="49"/>
+      <c r="F642" s="49"/>
+      <c r="G642" s="49"/>
+      <c r="H642" s="49"/>
+      <c r="I642" s="49"/>
+      <c r="J642" s="49"/>
+      <c r="K642" s="48"/>
+      <c r="L642" s="48"/>
+      <c r="M642" s="48"/>
+    </row>
+    <row r="643" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B643" s="49"/>
+      <c r="C643" s="49"/>
+      <c r="D643" s="49"/>
+      <c r="E643" s="49"/>
+      <c r="F643" s="49"/>
+      <c r="G643" s="49"/>
+      <c r="H643" s="49"/>
+      <c r="I643" s="49"/>
+      <c r="J643" s="49"/>
+      <c r="K643" s="48"/>
+      <c r="L643" s="48"/>
+      <c r="M643" s="48"/>
+    </row>
+    <row r="644" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B644" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C644" s="67"/>
-      <c r="D644" s="67"/>
-      <c r="E644" s="67"/>
-      <c r="F644" s="67"/>
-      <c r="G644" s="67"/>
-      <c r="H644" s="67"/>
-      <c r="I644" s="67"/>
-      <c r="J644" s="67"/>
-      <c r="K644" s="66"/>
-      <c r="L644" s="66"/>
-      <c r="M644" s="66"/>
-    </row>
-    <row r="645" spans="2:13" ht="15.75">
-      <c r="B645" s="67" t="s">
+      <c r="C644" s="49"/>
+      <c r="D644" s="49"/>
+      <c r="E644" s="49"/>
+      <c r="F644" s="49"/>
+      <c r="G644" s="49"/>
+      <c r="H644" s="49"/>
+      <c r="I644" s="49"/>
+      <c r="J644" s="49"/>
+      <c r="K644" s="48"/>
+      <c r="L644" s="48"/>
+      <c r="M644" s="48"/>
+    </row>
+    <row r="645" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B645" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C645" s="67"/>
-      <c r="D645" s="67"/>
-      <c r="E645" s="67"/>
-      <c r="F645" s="67"/>
-      <c r="G645" s="67"/>
-      <c r="H645" s="67"/>
-      <c r="I645" s="67"/>
-      <c r="J645" s="67"/>
-      <c r="K645" s="66"/>
-      <c r="L645" s="66"/>
-      <c r="M645" s="66"/>
-    </row>
-    <row r="646" spans="2:13" ht="15.75">
-      <c r="B646" s="67" t="s">
+      <c r="C645" s="49"/>
+      <c r="D645" s="49"/>
+      <c r="E645" s="49"/>
+      <c r="F645" s="49"/>
+      <c r="G645" s="49"/>
+      <c r="H645" s="49"/>
+      <c r="I645" s="49"/>
+      <c r="J645" s="49"/>
+      <c r="K645" s="48"/>
+      <c r="L645" s="48"/>
+      <c r="M645" s="48"/>
+    </row>
+    <row r="646" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B646" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="C646" s="67"/>
-      <c r="D646" s="67"/>
-      <c r="E646" s="67"/>
-      <c r="F646" s="67"/>
-      <c r="G646" s="67"/>
-      <c r="H646" s="67"/>
-      <c r="I646" s="67"/>
-      <c r="J646" s="67"/>
-      <c r="K646" s="66"/>
-      <c r="L646" s="66"/>
-      <c r="M646" s="66"/>
-    </row>
-    <row r="647" spans="2:13" ht="15.75">
-      <c r="B647" s="67" t="s">
+      <c r="C646" s="49"/>
+      <c r="D646" s="49"/>
+      <c r="E646" s="49"/>
+      <c r="F646" s="49"/>
+      <c r="G646" s="49"/>
+      <c r="H646" s="49"/>
+      <c r="I646" s="49"/>
+      <c r="J646" s="49"/>
+      <c r="K646" s="48"/>
+      <c r="L646" s="48"/>
+      <c r="M646" s="48"/>
+    </row>
+    <row r="647" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B647" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="C647" s="67"/>
-      <c r="D647" s="67"/>
-      <c r="E647" s="67"/>
-      <c r="F647" s="67"/>
-      <c r="G647" s="67"/>
-      <c r="H647" s="67"/>
-      <c r="I647" s="67"/>
-      <c r="J647" s="67"/>
-      <c r="K647" s="66"/>
-      <c r="L647" s="66"/>
-      <c r="M647" s="66"/>
-    </row>
-    <row r="648" spans="2:13" ht="15.75">
-      <c r="B648" s="67"/>
-      <c r="C648" s="67"/>
-      <c r="D648" s="67"/>
-      <c r="E648" s="67"/>
-      <c r="F648" s="67"/>
-      <c r="G648" s="67"/>
-      <c r="H648" s="67"/>
-      <c r="I648" s="67"/>
-      <c r="J648" s="67"/>
-      <c r="K648" s="66"/>
-      <c r="L648" s="66"/>
-      <c r="M648" s="66"/>
-    </row>
-    <row r="649" spans="2:13" ht="15.75">
-      <c r="B649" s="67" t="s">
+      <c r="C647" s="49"/>
+      <c r="D647" s="49"/>
+      <c r="E647" s="49"/>
+      <c r="F647" s="49"/>
+      <c r="G647" s="49"/>
+      <c r="H647" s="49"/>
+      <c r="I647" s="49"/>
+      <c r="J647" s="49"/>
+      <c r="K647" s="48"/>
+      <c r="L647" s="48"/>
+      <c r="M647" s="48"/>
+    </row>
+    <row r="648" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B648" s="49"/>
+      <c r="C648" s="49"/>
+      <c r="D648" s="49"/>
+      <c r="E648" s="49"/>
+      <c r="F648" s="49"/>
+      <c r="G648" s="49"/>
+      <c r="H648" s="49"/>
+      <c r="I648" s="49"/>
+      <c r="J648" s="49"/>
+      <c r="K648" s="48"/>
+      <c r="L648" s="48"/>
+      <c r="M648" s="48"/>
+    </row>
+    <row r="649" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B649" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="C649" s="67"/>
-      <c r="D649" s="67"/>
-      <c r="E649" s="67"/>
-      <c r="F649" s="67"/>
-      <c r="G649" s="67"/>
-      <c r="H649" s="67"/>
-      <c r="I649" s="67"/>
-      <c r="J649" s="67"/>
-      <c r="K649" s="66"/>
-      <c r="L649" s="66"/>
-      <c r="M649" s="66"/>
-    </row>
-    <row r="650" spans="2:13" ht="15.75">
-      <c r="B650" s="67" t="s">
+      <c r="C649" s="49"/>
+      <c r="D649" s="49"/>
+      <c r="E649" s="49"/>
+      <c r="F649" s="49"/>
+      <c r="G649" s="49"/>
+      <c r="H649" s="49"/>
+      <c r="I649" s="49"/>
+      <c r="J649" s="49"/>
+      <c r="K649" s="48"/>
+      <c r="L649" s="48"/>
+      <c r="M649" s="48"/>
+    </row>
+    <row r="650" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B650" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="C650" s="67"/>
-      <c r="D650" s="67"/>
-      <c r="E650" s="67"/>
-      <c r="F650" s="67"/>
-      <c r="G650" s="67"/>
-      <c r="H650" s="67"/>
-      <c r="I650" s="67"/>
-      <c r="J650" s="67"/>
-      <c r="K650" s="66"/>
-      <c r="L650" s="66"/>
-      <c r="M650" s="66"/>
-    </row>
-    <row r="651" spans="2:13" ht="15.75">
-      <c r="B651" s="67" t="s">
+      <c r="C650" s="49"/>
+      <c r="D650" s="49"/>
+      <c r="E650" s="49"/>
+      <c r="F650" s="49"/>
+      <c r="G650" s="49"/>
+      <c r="H650" s="49"/>
+      <c r="I650" s="49"/>
+      <c r="J650" s="49"/>
+      <c r="K650" s="48"/>
+      <c r="L650" s="48"/>
+      <c r="M650" s="48"/>
+    </row>
+    <row r="651" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B651" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="C651" s="67"/>
-      <c r="D651" s="67"/>
-      <c r="E651" s="67"/>
-      <c r="F651" s="67"/>
-      <c r="G651" s="67"/>
-      <c r="H651" s="67"/>
-      <c r="I651" s="67"/>
-      <c r="J651" s="67"/>
-      <c r="K651" s="66"/>
-      <c r="L651" s="66"/>
-      <c r="M651" s="66"/>
-    </row>
-    <row r="652" spans="2:13" ht="15.75">
-      <c r="B652" s="67" t="s">
+      <c r="C651" s="49"/>
+      <c r="D651" s="49"/>
+      <c r="E651" s="49"/>
+      <c r="F651" s="49"/>
+      <c r="G651" s="49"/>
+      <c r="H651" s="49"/>
+      <c r="I651" s="49"/>
+      <c r="J651" s="49"/>
+      <c r="K651" s="48"/>
+      <c r="L651" s="48"/>
+      <c r="M651" s="48"/>
+    </row>
+    <row r="652" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B652" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="C652" s="67"/>
-      <c r="D652" s="67"/>
-      <c r="E652" s="67"/>
-      <c r="F652" s="67"/>
-      <c r="G652" s="67"/>
-      <c r="H652" s="67"/>
-      <c r="I652" s="67"/>
-      <c r="J652" s="67"/>
-      <c r="K652" s="66"/>
-      <c r="L652" s="66"/>
-      <c r="M652" s="66"/>
-    </row>
-    <row r="653" spans="2:13" ht="15.75">
-      <c r="B653" s="67" t="s">
+      <c r="C652" s="49"/>
+      <c r="D652" s="49"/>
+      <c r="E652" s="49"/>
+      <c r="F652" s="49"/>
+      <c r="G652" s="49"/>
+      <c r="H652" s="49"/>
+      <c r="I652" s="49"/>
+      <c r="J652" s="49"/>
+      <c r="K652" s="48"/>
+      <c r="L652" s="48"/>
+      <c r="M652" s="48"/>
+    </row>
+    <row r="653" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B653" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="C653" s="67"/>
-      <c r="D653" s="67"/>
-      <c r="E653" s="67"/>
-      <c r="F653" s="67"/>
-      <c r="G653" s="67"/>
-      <c r="H653" s="67"/>
-      <c r="I653" s="67"/>
-      <c r="J653" s="67"/>
-      <c r="K653" s="66"/>
-      <c r="L653" s="66"/>
-      <c r="M653" s="66"/>
-    </row>
-    <row r="654" spans="2:13" ht="15.75">
-      <c r="B654" s="67" t="s">
+      <c r="C653" s="49"/>
+      <c r="D653" s="49"/>
+      <c r="E653" s="49"/>
+      <c r="F653" s="49"/>
+      <c r="G653" s="49"/>
+      <c r="H653" s="49"/>
+      <c r="I653" s="49"/>
+      <c r="J653" s="49"/>
+      <c r="K653" s="48"/>
+      <c r="L653" s="48"/>
+      <c r="M653" s="48"/>
+    </row>
+    <row r="654" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B654" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="C654" s="67"/>
-      <c r="D654" s="67"/>
-      <c r="E654" s="67"/>
-      <c r="F654" s="67"/>
-      <c r="G654" s="67"/>
-      <c r="H654" s="67"/>
-      <c r="I654" s="67"/>
-      <c r="J654" s="67"/>
-      <c r="K654" s="66"/>
-      <c r="L654" s="66"/>
-      <c r="M654" s="66"/>
-    </row>
-    <row r="655" spans="2:13" ht="15.75">
-      <c r="B655" s="67" t="s">
+      <c r="C654" s="49"/>
+      <c r="D654" s="49"/>
+      <c r="E654" s="49"/>
+      <c r="F654" s="49"/>
+      <c r="G654" s="49"/>
+      <c r="H654" s="49"/>
+      <c r="I654" s="49"/>
+      <c r="J654" s="49"/>
+      <c r="K654" s="48"/>
+      <c r="L654" s="48"/>
+      <c r="M654" s="48"/>
+    </row>
+    <row r="655" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B655" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="C655" s="67"/>
-      <c r="D655" s="67"/>
-      <c r="E655" s="67"/>
-      <c r="F655" s="67"/>
-      <c r="G655" s="67"/>
-      <c r="H655" s="67"/>
-      <c r="I655" s="67"/>
-      <c r="J655" s="67"/>
-      <c r="K655" s="66"/>
-      <c r="L655" s="66"/>
-      <c r="M655" s="66"/>
-    </row>
-    <row r="656" spans="2:13" ht="15.75">
-      <c r="B656" s="67" t="s">
+      <c r="C655" s="49"/>
+      <c r="D655" s="49"/>
+      <c r="E655" s="49"/>
+      <c r="F655" s="49"/>
+      <c r="G655" s="49"/>
+      <c r="H655" s="49"/>
+      <c r="I655" s="49"/>
+      <c r="J655" s="49"/>
+      <c r="K655" s="48"/>
+      <c r="L655" s="48"/>
+      <c r="M655" s="48"/>
+    </row>
+    <row r="656" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B656" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="C656" s="67"/>
-      <c r="D656" s="67"/>
-      <c r="E656" s="67"/>
-      <c r="F656" s="67"/>
-      <c r="G656" s="67"/>
-      <c r="H656" s="67"/>
-      <c r="I656" s="67"/>
-      <c r="J656" s="67"/>
-      <c r="K656" s="66"/>
-      <c r="L656" s="66"/>
-      <c r="M656" s="66"/>
-    </row>
-    <row r="657" spans="2:13" ht="15.75">
-      <c r="B657" s="67" t="s">
+      <c r="C656" s="49"/>
+      <c r="D656" s="49"/>
+      <c r="E656" s="49"/>
+      <c r="F656" s="49"/>
+      <c r="G656" s="49"/>
+      <c r="H656" s="49"/>
+      <c r="I656" s="49"/>
+      <c r="J656" s="49"/>
+      <c r="K656" s="48"/>
+      <c r="L656" s="48"/>
+      <c r="M656" s="48"/>
+    </row>
+    <row r="657" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B657" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C657" s="67"/>
-      <c r="D657" s="67"/>
-      <c r="E657" s="67"/>
-      <c r="F657" s="67"/>
-      <c r="G657" s="67"/>
-      <c r="H657" s="67"/>
-      <c r="I657" s="67"/>
-      <c r="J657" s="67"/>
-      <c r="K657" s="66"/>
-      <c r="L657" s="66"/>
-      <c r="M657" s="66"/>
+      <c r="C657" s="49"/>
+      <c r="D657" s="49"/>
+      <c r="E657" s="49"/>
+      <c r="F657" s="49"/>
+      <c r="G657" s="49"/>
+      <c r="H657" s="49"/>
+      <c r="I657" s="49"/>
+      <c r="J657" s="49"/>
+      <c r="K657" s="48"/>
+      <c r="L657" s="48"/>
+      <c r="M657" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7424,21 +8138,130 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D56" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>354</v>
+      </c>
+      <c r="C58" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D60" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D65" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>355</v>
+      </c>
+      <c r="C67" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D69" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D74" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -7448,20 +8271,21 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -7481,19 +8305,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>128</v>
       </c>
@@ -7501,7 +8325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
         <v>87</v>
       </c>
@@ -7517,7 +8341,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B4" s="20" t="s">
         <v>88</v>
       </c>
@@ -7533,7 +8357,7 @@
       <c r="L4" s="22"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B5" s="20" t="s">
         <v>89</v>
       </c>
@@ -7549,7 +8373,7 @@
       <c r="L5" s="22"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B6" s="20" t="s">
         <v>90</v>
       </c>
@@ -7565,7 +8389,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="23"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
         <v>89</v>
       </c>
@@ -7581,7 +8405,7 @@
       <c r="L7" s="22"/>
       <c r="M7" s="23"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B8" s="20" t="s">
         <v>91</v>
       </c>
@@ -7597,7 +8421,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="23"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B9" s="20" t="s">
         <v>92</v>
       </c>
@@ -7613,7 +8437,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="23"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75">
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B10" s="20" t="s">
         <v>93</v>
       </c>
@@ -7629,7 +8453,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75">
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B11" s="20" t="s">
         <v>94</v>
       </c>
@@ -7645,7 +8469,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75">
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B12" s="20" t="s">
         <v>95</v>
       </c>
@@ -7661,7 +8485,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75">
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
         <v>96</v>
       </c>
@@ -7677,7 +8501,7 @@
       <c r="L13" s="22"/>
       <c r="M13" s="23"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75">
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B14" s="20" t="s">
         <v>97</v>
       </c>
@@ -7693,7 +8517,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75">
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B15" s="20" t="s">
         <v>98</v>
       </c>
@@ -7709,7 +8533,7 @@
       <c r="L15" s="22"/>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75">
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B16" s="20" t="s">
         <v>99</v>
       </c>
@@ -7725,7 +8549,7 @@
       <c r="L16" s="22"/>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="20" t="s">
         <v>100</v>
       </c>
@@ -7741,7 +8565,7 @@
       <c r="L17" s="22"/>
       <c r="M17" s="23"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B18" s="20" t="s">
         <v>101</v>
       </c>
@@ -7757,7 +8581,7 @@
       <c r="L18" s="22"/>
       <c r="M18" s="23"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75">
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="20" t="s">
         <v>102</v>
       </c>
@@ -7773,7 +8597,7 @@
       <c r="L19" s="22"/>
       <c r="M19" s="23"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -7787,7 +8611,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="23"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B21" s="20" t="s">
         <v>103</v>
       </c>
@@ -7803,7 +8627,7 @@
       <c r="L21" s="22"/>
       <c r="M21" s="23"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B22" s="20" t="s">
         <v>104</v>
       </c>
@@ -7819,7 +8643,7 @@
       <c r="L22" s="22"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -7833,7 +8657,7 @@
       <c r="L23" s="22"/>
       <c r="M23" s="23"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B24" s="20" t="s">
         <v>105</v>
       </c>
@@ -7849,7 +8673,7 @@
       <c r="L24" s="22"/>
       <c r="M24" s="23"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="28" t="s">
         <v>130</v>
       </c>
@@ -7868,7 +8692,7 @@
       <c r="L25" s="22"/>
       <c r="M25" s="23"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B26" s="20" t="s">
         <v>107</v>
       </c>
@@ -7884,7 +8708,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="23"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B27" s="20" t="s">
         <v>108</v>
       </c>
@@ -7900,7 +8724,7 @@
       <c r="L27" s="22"/>
       <c r="M27" s="23"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75">
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B28" s="20" t="s">
         <v>109</v>
       </c>
@@ -7916,7 +8740,7 @@
       <c r="L28" s="22"/>
       <c r="M28" s="23"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75">
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B29" s="20" t="s">
         <v>110</v>
       </c>
@@ -7932,7 +8756,7 @@
       <c r="L29" s="22"/>
       <c r="M29" s="23"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75">
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B30" s="20" t="s">
         <v>111</v>
       </c>
@@ -7948,7 +8772,7 @@
       <c r="L30" s="22"/>
       <c r="M30" s="23"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="20" t="s">
         <v>112</v>
       </c>
@@ -7964,7 +8788,7 @@
       <c r="L31" s="22"/>
       <c r="M31" s="23"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75">
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B32" s="20" t="s">
         <v>113</v>
       </c>
@@ -7980,7 +8804,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75">
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B33" s="20" t="s">
         <v>114</v>
       </c>
@@ -7996,7 +8820,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B34" s="20" t="s">
         <v>115</v>
       </c>
@@ -8012,7 +8836,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="23"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75">
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B35" s="20" t="s">
         <v>116</v>
       </c>
@@ -8028,7 +8852,7 @@
       <c r="L35" s="22"/>
       <c r="M35" s="23"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75">
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B36" s="20" t="s">
         <v>117</v>
       </c>
@@ -8044,7 +8868,7 @@
       <c r="L36" s="22"/>
       <c r="M36" s="23"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75">
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B37" s="20" t="s">
         <v>102</v>
       </c>
@@ -8060,7 +8884,7 @@
       <c r="L37" s="22"/>
       <c r="M37" s="23"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75">
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -8074,7 +8898,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="23"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75">
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A39" s="28" t="s">
         <v>129</v>
       </c>
@@ -8093,7 +8917,7 @@
       <c r="L39" s="22"/>
       <c r="M39" s="23"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75">
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
@@ -8107,7 +8931,7 @@
       <c r="L40" s="22"/>
       <c r="M40" s="23"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75">
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B41" s="20" t="s">
         <v>119</v>
       </c>
@@ -8123,7 +8947,7 @@
       <c r="L41" s="22"/>
       <c r="M41" s="23"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75">
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B42" s="20" t="s">
         <v>120</v>
       </c>
@@ -8139,7 +8963,7 @@
       <c r="L42" s="22"/>
       <c r="M42" s="23"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75">
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
@@ -8153,7 +8977,7 @@
       <c r="L43" s="22"/>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="1:13" ht="15.75">
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B44" s="20" t="s">
         <v>121</v>
       </c>
@@ -8169,7 +8993,7 @@
       <c r="L44" s="22"/>
       <c r="M44" s="23"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75">
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B45" s="20" t="s">
         <v>132</v>
       </c>
@@ -8185,7 +9009,7 @@
       <c r="L45" s="22"/>
       <c r="M45" s="23"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75">
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B46" s="20" t="s">
         <v>122</v>
       </c>
@@ -8201,7 +9025,7 @@
       <c r="L46" s="22"/>
       <c r="M46" s="23"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75">
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B47" s="20" t="s">
         <v>133</v>
       </c>
@@ -8217,7 +9041,7 @@
       <c r="L47" s="22"/>
       <c r="M47" s="23"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75">
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B48" s="20" t="s">
         <v>131</v>
       </c>
@@ -8233,7 +9057,7 @@
       <c r="L48" s="22"/>
       <c r="M48" s="23"/>
     </row>
-    <row r="49" spans="2:13" ht="15.75">
+    <row r="49" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B49" s="20" t="s">
         <v>123</v>
       </c>
@@ -8249,7 +9073,7 @@
       <c r="L49" s="22"/>
       <c r="M49" s="23"/>
     </row>
-    <row r="50" spans="2:13" ht="15.75">
+    <row r="50" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
@@ -8263,7 +9087,7 @@
       <c r="L50" s="22"/>
       <c r="M50" s="23"/>
     </row>
-    <row r="51" spans="2:13" ht="15.75">
+    <row r="51" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B51" s="20" t="s">
         <v>124</v>
       </c>
@@ -8279,7 +9103,7 @@
       <c r="L51" s="22"/>
       <c r="M51" s="23"/>
     </row>
-    <row r="52" spans="2:13" ht="15.75">
+    <row r="52" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B52" s="20" t="s">
         <v>125</v>
       </c>
@@ -8295,7 +9119,7 @@
       <c r="L52" s="22"/>
       <c r="M52" s="23"/>
     </row>
-    <row r="53" spans="2:13" ht="15.75">
+    <row r="53" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B53" s="20" t="s">
         <v>134</v>
       </c>
@@ -8311,7 +9135,7 @@
       <c r="L53" s="22"/>
       <c r="M53" s="23"/>
     </row>
-    <row r="54" spans="2:13" ht="15.75">
+    <row r="54" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B54" s="20" t="s">
         <v>126</v>
       </c>
@@ -8327,7 +9151,7 @@
       <c r="L54" s="22"/>
       <c r="M54" s="23"/>
     </row>
-    <row r="55" spans="2:13" ht="15.75">
+    <row r="55" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
@@ -8341,7 +9165,7 @@
       <c r="L55" s="22"/>
       <c r="M55" s="23"/>
     </row>
-    <row r="56" spans="2:13" ht="15.75">
+    <row r="56" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>135</v>
       </c>
@@ -8357,7 +9181,7 @@
       <c r="L56" s="22"/>
       <c r="M56" s="23"/>
     </row>
-    <row r="57" spans="2:13" ht="15.75">
+    <row r="57" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
@@ -8371,7 +9195,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="23"/>
     </row>
-    <row r="58" spans="2:13" ht="15.75">
+    <row r="58" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>142</v>
       </c>
@@ -8387,7 +9211,7 @@
       <c r="L58" s="22"/>
       <c r="M58" s="23"/>
     </row>
-    <row r="59" spans="2:13" ht="15.75">
+    <row r="59" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B59" s="20" t="s">
         <v>141</v>
       </c>
@@ -8403,7 +9227,7 @@
       <c r="L59" s="22"/>
       <c r="M59" s="23"/>
     </row>
-    <row r="60" spans="2:13" ht="15.75">
+    <row r="60" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B60" s="20" t="s">
         <v>140</v>
       </c>
@@ -8419,7 +9243,7 @@
       <c r="L60" s="22"/>
       <c r="M60" s="23"/>
     </row>
-    <row r="61" spans="2:13" ht="15.75">
+    <row r="61" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B61" s="20" t="s">
         <v>136</v>
       </c>
@@ -8435,7 +9259,7 @@
       <c r="L61" s="22"/>
       <c r="M61" s="23"/>
     </row>
-    <row r="62" spans="2:13" ht="15.75">
+    <row r="62" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B62" s="20" t="s">
         <v>139</v>
       </c>
@@ -8451,7 +9275,7 @@
       <c r="L62" s="22"/>
       <c r="M62" s="23"/>
     </row>
-    <row r="63" spans="2:13" ht="15.75">
+    <row r="63" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B63" s="20" t="s">
         <v>138</v>
       </c>
@@ -8467,7 +9291,7 @@
       <c r="L63" s="22"/>
       <c r="M63" s="23"/>
     </row>
-    <row r="64" spans="2:13" ht="15.75">
+    <row r="64" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B64" s="20" t="s">
         <v>137</v>
       </c>
@@ -8483,7 +9307,7 @@
       <c r="L64" s="22"/>
       <c r="M64" s="23"/>
     </row>
-    <row r="65" spans="2:13" ht="15.75">
+    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B65" s="24" t="s">
         <v>127</v>
       </c>
@@ -8499,6 +9323,993 @@
       <c r="L65" s="26"/>
       <c r="M65" s="27"/>
     </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="B71" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="70"/>
+    </row>
+    <row r="72" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="B72" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="73"/>
+    </row>
+    <row r="73" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="B73" s="71"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="73"/>
+    </row>
+    <row r="74" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="B74" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="73"/>
+    </row>
+    <row r="75" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="B75" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="73"/>
+    </row>
+    <row r="76" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="B76" s="71"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="73"/>
+    </row>
+    <row r="77" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="B77" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="73"/>
+    </row>
+    <row r="78" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="B78" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="72"/>
+      <c r="K78" s="73"/>
+    </row>
+    <row r="79" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="B79" s="71"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
+      <c r="K79" s="73"/>
+    </row>
+    <row r="80" spans="2:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B80" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
+      <c r="K80" s="73"/>
+    </row>
+    <row r="81" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B81" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
+      <c r="K81" s="73"/>
+    </row>
+    <row r="82" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B82" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="72"/>
+      <c r="J82" s="72"/>
+      <c r="K82" s="73"/>
+    </row>
+    <row r="83" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B83" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
+      <c r="K83" s="73"/>
+    </row>
+    <row r="84" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B84" s="71"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="72"/>
+      <c r="K84" s="73"/>
+    </row>
+    <row r="85" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B85" s="71" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
+      <c r="K85" s="73"/>
+    </row>
+    <row r="86" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B86" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="72"/>
+      <c r="K86" s="73"/>
+    </row>
+    <row r="87" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B87" s="71"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
+      <c r="K87" s="73"/>
+    </row>
+    <row r="88" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B88" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
+      <c r="K88" s="73"/>
+    </row>
+    <row r="89" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B89" s="71"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="73"/>
+    </row>
+    <row r="90" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B90" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="72"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="73"/>
+    </row>
+    <row r="91" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B91" s="71" t="s">
+        <v>324</v>
+      </c>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="72"/>
+      <c r="K91" s="73"/>
+    </row>
+    <row r="92" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B92" s="71"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
+      <c r="K92" s="73"/>
+    </row>
+    <row r="93" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B93" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="C93" s="72"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="72"/>
+      <c r="K93" s="73"/>
+    </row>
+    <row r="94" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B94" s="71"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="72"/>
+      <c r="H94" s="72"/>
+      <c r="I94" s="72"/>
+      <c r="J94" s="72"/>
+      <c r="K94" s="73"/>
+    </row>
+    <row r="95" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B95" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="72"/>
+      <c r="K95" s="73"/>
+    </row>
+    <row r="96" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B96" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="C96" s="72"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="72"/>
+      <c r="H96" s="72"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="72"/>
+      <c r="K96" s="73"/>
+    </row>
+    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B97" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="C97" s="72"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="73"/>
+    </row>
+    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B98" s="71" t="s">
+        <v>329</v>
+      </c>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
+      <c r="K98" s="73"/>
+    </row>
+    <row r="99" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B99" s="71"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="73"/>
+    </row>
+    <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B100" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="72"/>
+      <c r="J100" s="72"/>
+      <c r="K100" s="73"/>
+    </row>
+    <row r="101" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B101" s="71"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="73"/>
+    </row>
+    <row r="102" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A102" s="78"/>
+      <c r="B102" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="73"/>
+    </row>
+    <row r="103" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B103" s="71"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="72"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
+      <c r="K103" s="73"/>
+    </row>
+    <row r="104" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B104" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="72"/>
+      <c r="H104" s="72"/>
+      <c r="I104" s="72"/>
+      <c r="J104" s="72"/>
+      <c r="K104" s="73"/>
+    </row>
+    <row r="105" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B105" s="71"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="73"/>
+    </row>
+    <row r="106" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B106" s="71" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" s="72"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
+      <c r="K106" s="73"/>
+    </row>
+    <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B107" s="71"/>
+      <c r="C107" s="72"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="72"/>
+      <c r="K107" s="73"/>
+    </row>
+    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B108" s="71" t="s">
+        <v>334</v>
+      </c>
+      <c r="C108" s="72"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="F108" s="72"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="72"/>
+      <c r="K108" s="73"/>
+    </row>
+    <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B109" s="71"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="72"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="72"/>
+      <c r="J109" s="72"/>
+      <c r="K109" s="73"/>
+    </row>
+    <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B110" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="C110" s="72"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="72"/>
+      <c r="H110" s="72"/>
+      <c r="I110" s="72"/>
+      <c r="J110" s="72"/>
+      <c r="K110" s="73"/>
+    </row>
+    <row r="111" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B111" s="71"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
+      <c r="K111" s="73"/>
+    </row>
+    <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B112" s="71" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" s="72"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="72"/>
+      <c r="H112" s="72"/>
+      <c r="I112" s="72"/>
+      <c r="J112" s="72"/>
+      <c r="K112" s="73"/>
+    </row>
+    <row r="113" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B113" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+      <c r="K113" s="73"/>
+    </row>
+    <row r="114" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B114" s="71"/>
+      <c r="C114" s="72"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72"/>
+      <c r="G114" s="72"/>
+      <c r="H114" s="72"/>
+      <c r="I114" s="72"/>
+      <c r="J114" s="72"/>
+      <c r="K114" s="73"/>
+    </row>
+    <row r="115" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B115" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="C115" s="72"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="72"/>
+      <c r="H115" s="72"/>
+      <c r="I115" s="72"/>
+      <c r="J115" s="72"/>
+      <c r="K115" s="73"/>
+    </row>
+    <row r="116" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B116" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="C116" s="72"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="72"/>
+      <c r="H116" s="72"/>
+      <c r="I116" s="72"/>
+      <c r="J116" s="72"/>
+      <c r="K116" s="73"/>
+    </row>
+    <row r="117" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B117" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117" s="72"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="73"/>
+    </row>
+    <row r="118" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B118" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="C118" s="72"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="72"/>
+      <c r="I118" s="72"/>
+      <c r="J118" s="72"/>
+      <c r="K118" s="73"/>
+    </row>
+    <row r="119" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B119" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="C119" s="72"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="72"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="72"/>
+      <c r="K119" s="73"/>
+    </row>
+    <row r="120" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B120" s="71"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="73"/>
+    </row>
+    <row r="121" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B121" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="C121" s="72"/>
+      <c r="D121" s="72"/>
+      <c r="E121" s="72"/>
+      <c r="F121" s="72"/>
+      <c r="G121" s="72"/>
+      <c r="H121" s="72"/>
+      <c r="I121" s="72"/>
+      <c r="J121" s="72"/>
+      <c r="K121" s="73"/>
+    </row>
+    <row r="122" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B122" s="71"/>
+      <c r="C122" s="72"/>
+      <c r="D122" s="72"/>
+      <c r="E122" s="72"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="72"/>
+      <c r="I122" s="72"/>
+      <c r="J122" s="72"/>
+      <c r="K122" s="73"/>
+    </row>
+    <row r="123" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B123" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="C123" s="72"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="72"/>
+      <c r="K123" s="73"/>
+    </row>
+    <row r="124" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B124" s="71" t="s">
+        <v>345</v>
+      </c>
+      <c r="C124" s="72"/>
+      <c r="D124" s="72"/>
+      <c r="E124" s="72"/>
+      <c r="F124" s="72"/>
+      <c r="G124" s="72"/>
+      <c r="H124" s="72"/>
+      <c r="I124" s="72"/>
+      <c r="J124" s="72"/>
+      <c r="K124" s="73"/>
+    </row>
+    <row r="125" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B125" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="C125" s="72"/>
+      <c r="D125" s="72"/>
+      <c r="E125" s="72"/>
+      <c r="F125" s="72"/>
+      <c r="G125" s="72"/>
+      <c r="H125" s="72"/>
+      <c r="I125" s="72"/>
+      <c r="J125" s="72"/>
+      <c r="K125" s="73"/>
+    </row>
+    <row r="126" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B126" s="71" t="s">
+        <v>347</v>
+      </c>
+      <c r="C126" s="72"/>
+      <c r="D126" s="72"/>
+      <c r="E126" s="72"/>
+      <c r="F126" s="72"/>
+      <c r="G126" s="72"/>
+      <c r="H126" s="72"/>
+      <c r="I126" s="72"/>
+      <c r="J126" s="72"/>
+      <c r="K126" s="73"/>
+    </row>
+    <row r="127" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B127" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="C127" s="72"/>
+      <c r="D127" s="72"/>
+      <c r="E127" s="72"/>
+      <c r="F127" s="72"/>
+      <c r="G127" s="72"/>
+      <c r="H127" s="72"/>
+      <c r="I127" s="72"/>
+      <c r="J127" s="72"/>
+      <c r="K127" s="73"/>
+    </row>
+    <row r="128" spans="2:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B128" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="C128" s="72"/>
+      <c r="D128" s="72"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="72"/>
+      <c r="H128" s="72"/>
+      <c r="I128" s="72"/>
+      <c r="J128" s="72"/>
+      <c r="K128" s="73"/>
+    </row>
+    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B129" s="71"/>
+      <c r="C129" s="72"/>
+      <c r="D129" s="72"/>
+      <c r="E129" s="72"/>
+      <c r="F129" s="72"/>
+      <c r="G129" s="72"/>
+      <c r="H129" s="72"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="72"/>
+      <c r="K129" s="73"/>
+    </row>
+    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B130" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="C130" s="72"/>
+      <c r="D130" s="72"/>
+      <c r="E130" s="72"/>
+      <c r="F130" s="72"/>
+      <c r="G130" s="72"/>
+      <c r="H130" s="72"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="72"/>
+      <c r="K130" s="73"/>
+    </row>
+    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B131" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="C131" s="72"/>
+      <c r="D131" s="72"/>
+      <c r="E131" s="72"/>
+      <c r="F131" s="72"/>
+      <c r="G131" s="72"/>
+      <c r="H131" s="72"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="72"/>
+      <c r="K131" s="73"/>
+    </row>
+    <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B132" s="71"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="72"/>
+      <c r="E132" s="72"/>
+      <c r="F132" s="72"/>
+      <c r="G132" s="72"/>
+      <c r="H132" s="72"/>
+      <c r="I132" s="72"/>
+      <c r="J132" s="72"/>
+      <c r="K132" s="73"/>
+    </row>
+    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B133" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72" t="s">
+        <v>361</v>
+      </c>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="73"/>
+    </row>
+    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B134" s="71"/>
+      <c r="C134" s="72"/>
+      <c r="D134" s="72"/>
+      <c r="E134" s="72"/>
+      <c r="F134" s="72"/>
+      <c r="G134" s="72"/>
+      <c r="H134" s="72"/>
+      <c r="I134" s="72"/>
+      <c r="J134" s="72"/>
+      <c r="K134" s="73"/>
+    </row>
+    <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B135" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="C135" s="72"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="72"/>
+      <c r="F135" s="72"/>
+      <c r="G135" s="72"/>
+      <c r="H135" s="72"/>
+      <c r="I135" s="72"/>
+      <c r="J135" s="72"/>
+      <c r="K135" s="73"/>
+    </row>
+    <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B136" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="C136" s="72"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="72"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="72"/>
+      <c r="H136" s="72"/>
+      <c r="I136" s="72"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="73"/>
+    </row>
+    <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B137" s="71" t="s">
+        <v>355</v>
+      </c>
+      <c r="C137" s="72"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="72"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="72"/>
+      <c r="H137" s="72"/>
+      <c r="I137" s="72"/>
+      <c r="J137" s="72"/>
+      <c r="K137" s="73"/>
+    </row>
+    <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B138" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="C138" s="72"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
+      <c r="G138" s="72"/>
+      <c r="H138" s="72"/>
+      <c r="I138" s="72"/>
+      <c r="J138" s="72"/>
+      <c r="K138" s="73"/>
+    </row>
+    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B139" s="71"/>
+      <c r="C139" s="72"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="72"/>
+      <c r="F139" s="72"/>
+      <c r="G139" s="72"/>
+      <c r="H139" s="72"/>
+      <c r="I139" s="72"/>
+      <c r="J139" s="72"/>
+      <c r="K139" s="73"/>
+    </row>
+    <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A140" s="78"/>
+      <c r="B140" s="71" t="s">
+        <v>357</v>
+      </c>
+      <c r="C140" s="72"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="72"/>
+      <c r="H140" s="72"/>
+      <c r="I140" s="72"/>
+      <c r="J140" s="72"/>
+      <c r="K140" s="73"/>
+    </row>
+    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B141" s="71"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="72"/>
+      <c r="H141" s="72"/>
+      <c r="I141" s="72"/>
+      <c r="J141" s="72"/>
+      <c r="K141" s="73"/>
+    </row>
+    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B142" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="72"/>
+      <c r="G142" s="72"/>
+      <c r="H142" s="72"/>
+      <c r="I142" s="72"/>
+      <c r="J142" s="72"/>
+      <c r="K142" s="73"/>
+    </row>
+    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B143" s="75"/>
+      <c r="C143" s="76"/>
+      <c r="D143" s="76"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="76"/>
+      <c r="G143" s="76"/>
+      <c r="H143" s="76"/>
+      <c r="I143" s="76"/>
+      <c r="J143" s="76"/>
+      <c r="K143" s="77"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8510,16 +10321,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>148</v>
       </c>
@@ -8538,16 +10349,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>160</v>
       </c>
@@ -8555,97 +10366,97 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="39" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" s="39" t="s">
         <v>179</v>
       </c>
